--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7898F9-8344-4FEC-9E7D-547406618921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AD$17</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -21,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>Fecha</t>
   </si>
@@ -130,9 +138,6 @@
   </si>
   <si>
     <t>Aux unidades</t>
-  </si>
-  <si>
-    <t>11/11/2022</t>
   </si>
   <si>
     <t>Factura A</t>
@@ -249,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -811,10 +816,11 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -832,7 +838,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1145,20 +1150,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AE17" sqref="AE17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,32 +1297,32 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="9" t="str">
+      <c r="A2" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B2" s="9" t="e">
         <f>TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/yyyy")</f>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>TEXT(EOMONTH(A2,-1),"dd/mm/yyyy")</f>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D2" s="9" t="str">
         <f>TEXT(A2+14,"dd/mm/yyyy")</f>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1326,11 +1331,11 @@
         <v>33610006189</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B2,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M2" s="4">
         <v>5.04</v>
@@ -1342,7 +1347,7 @@
         <v>44628.1</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -1358,7 +1363,7 @@
       </c>
       <c r="W2" s="1" t="str">
         <f>TEXT(T2,"DD/MM/YYYY")</f>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X2" s="14">
         <f t="shared" ref="X2" si="2">ROUND(O2*P2,2)</f>
@@ -1370,11 +1375,11 @@
       </c>
       <c r="Z2" s="10" t="str">
         <f>IF(F2="Factura A",SUBSTITUTE(TEXT(O2,"0.00"),",","."),SUBSTITUTE(TEXT(Y2,"0.00"),",","."))</f>
-        <v>44628.10</v>
+        <v>44.628</v>
       </c>
       <c r="AA2" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(Y2,0)-Y2,"0.00"),",",".")</f>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1">
@@ -1399,32 +1404,32 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9" t="str">
+      <c r="A3" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B3" s="9" t="e">
         <f t="shared" ref="B3:B17" si="8">TEXT(DATE(YEAR(C3),MONTH(C3),1),"dd/mm/yyyy")</f>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" ref="C3:C17" si="9">TEXT(EOMONTH(A3,-1),"dd/mm/yyyy")</f>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D3" s="9" t="str">
         <f t="shared" ref="D3:D17" si="10">TEXT(A3+14,"dd/mm/yyyy")</f>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -1433,10 +1438,10 @@
         <v>33610006189</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="4">
         <v>5.04</v>
@@ -1448,7 +1453,7 @@
         <v>44628.1</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -1464,7 +1469,7 @@
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" ref="W3:W17" si="13">TEXT(T3,"DD/MM/YYYY")</f>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X3" s="14">
         <f t="shared" ref="X3:X17" si="14">ROUND(O3*P3,2)</f>
@@ -1476,11 +1481,11 @@
       </c>
       <c r="Z3" s="10" t="str">
         <f t="shared" ref="Z3:Z17" si="16">IF(F3="Factura A",SUBSTITUTE(TEXT(O3,"0.00"),",","."),SUBSTITUTE(TEXT(Y3,"0.00"),",","."))</f>
-        <v>44628.10</v>
+        <v>44.628</v>
       </c>
       <c r="AA3" s="10" t="str">
         <f t="shared" ref="AA3:AA17" si="17">SUBSTITUTE(TEXT(ROUNDUP(Y3,0)-Y3,"0.00"),",",".")</f>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1">
@@ -1505,32 +1510,32 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="9" t="str">
+      <c r="A4" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B4" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C4" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D4" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
@@ -1539,11 +1544,11 @@
         <v>30610252334</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="str">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M4" s="4">
         <v>10.039999999999999</v>
@@ -1555,7 +1560,7 @@
         <v>88842.97</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -1571,7 +1576,7 @@
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="14"/>
@@ -1583,11 +1588,11 @@
       </c>
       <c r="Z4" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>88842.97</v>
+        <v>88.843</v>
       </c>
       <c r="AA4" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.01</v>
+        <v>000</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1">
@@ -1612,32 +1617,32 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="9" t="str">
+      <c r="A5" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B5" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C5" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>9</v>
@@ -1646,10 +1651,10 @@
         <v>30684125792</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="M5" s="4">
         <v>7</v>
@@ -1661,16 +1666,16 @@
         <v>61983.47</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="T5" s="13">
         <v>44816</v>
@@ -1685,7 +1690,7 @@
       </c>
       <c r="W5" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>12/09/2022</v>
+        <v>12/09/YYYY</v>
       </c>
       <c r="X5" s="14">
         <f t="shared" si="14"/>
@@ -1697,11 +1702,11 @@
       </c>
       <c r="Z5" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>75000.00</v>
+        <v>75.000</v>
       </c>
       <c r="AA5" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1">
@@ -1726,32 +1731,32 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9" t="str">
+      <c r="A6" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B6" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C6" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -1760,10 +1765,10 @@
         <v>30684125792</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="M6" s="4">
         <v>7</v>
@@ -1775,16 +1780,16 @@
         <v>61983.47</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="T6" s="13">
         <v>44816</v>
@@ -1799,7 +1804,7 @@
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>12/09/2022</v>
+        <v>12/09/YYYY</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="14"/>
@@ -1811,11 +1816,11 @@
       </c>
       <c r="Z6" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>75000.00</v>
+        <v>75.000</v>
       </c>
       <c r="AA6" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1">
@@ -1840,32 +1845,32 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9" t="str">
+      <c r="A7" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B7" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -1874,11 +1879,11 @@
         <v>30525733870</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="1" t="str">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B7,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M7" s="4">
         <v>8.0299999999999994</v>
@@ -1890,7 +1895,7 @@
         <v>71074.38</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -1906,7 +1911,7 @@
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" si="14"/>
@@ -1918,11 +1923,11 @@
       </c>
       <c r="Z7" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>71074.38</v>
+        <v>71.074</v>
       </c>
       <c r="AA7" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1">
@@ -1947,32 +1952,32 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9" t="str">
+      <c r="A8" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B8" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
@@ -1981,11 +1986,11 @@
         <v>30710964277</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="1" t="str">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M8" s="4">
         <v>9.01</v>
@@ -1997,7 +2002,7 @@
         <v>79752.070000000007</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2013,7 +2018,7 @@
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X8" s="14">
         <f t="shared" si="14"/>
@@ -2025,11 +2030,11 @@
       </c>
       <c r="Z8" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>79752.07</v>
+        <v>79.752</v>
       </c>
       <c r="AA8" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1">
@@ -2054,32 +2059,32 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9" t="str">
+      <c r="A9" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B9" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C9" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
@@ -2088,11 +2093,11 @@
         <v>33615420269</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="1" t="str">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B9,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M9" s="4">
         <v>10.039999999999999</v>
@@ -2104,7 +2109,7 @@
         <v>88842.97</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -2120,7 +2125,7 @@
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="14"/>
@@ -2132,11 +2137,11 @@
       </c>
       <c r="Z9" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>88842.97</v>
+        <v>88.843</v>
       </c>
       <c r="AA9" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.01</v>
+        <v>000</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1">
@@ -2161,32 +2166,32 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="str">
+      <c r="A10" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B10" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
@@ -2195,10 +2200,10 @@
         <v>30525390086</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="4">
         <v>9.01</v>
@@ -2210,7 +2215,7 @@
         <v>79752.070000000007</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -2226,7 +2231,7 @@
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X10" s="14">
         <f t="shared" si="14"/>
@@ -2238,11 +2243,11 @@
       </c>
       <c r="Z10" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>79752.07</v>
+        <v>79.752</v>
       </c>
       <c r="AA10" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1">
@@ -2267,32 +2272,32 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="9" t="str">
+      <c r="A11" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B11" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>9</v>
@@ -2301,11 +2306,11 @@
         <v>20374730429</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="1" t="str">
+        <v>56</v>
+      </c>
+      <c r="L11" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B11,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="4">
         <v>1.03</v>
@@ -2317,7 +2322,7 @@
         <v>9090.91</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -2333,7 +2338,7 @@
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="14"/>
@@ -2345,11 +2350,11 @@
       </c>
       <c r="Z11" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>9090.91</v>
+        <v>9.091</v>
       </c>
       <c r="AA11" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1">
@@ -2374,32 +2379,32 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9" t="str">
+      <c r="A12" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B12" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>9</v>
@@ -2408,11 +2413,11 @@
         <v>20147130202</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="1" t="str">
+        <v>57</v>
+      </c>
+      <c r="L12" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B12,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M12" s="4">
         <v>1.03</v>
@@ -2424,7 +2429,7 @@
         <v>9090.91</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -2440,7 +2445,7 @@
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X12" s="14">
         <f t="shared" si="14"/>
@@ -2452,11 +2457,11 @@
       </c>
       <c r="Z12" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>9090.91</v>
+        <v>9.091</v>
       </c>
       <c r="AA12" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1">
@@ -2481,32 +2486,32 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="9" t="str">
+      <c r="A13" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B13" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>9</v>
@@ -2515,11 +2520,11 @@
         <v>30707354719</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B13,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M13" s="4">
         <v>1.03</v>
@@ -2531,7 +2536,7 @@
         <v>9090.91</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -2547,7 +2552,7 @@
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X13" s="14">
         <f t="shared" si="14"/>
@@ -2559,11 +2564,11 @@
       </c>
       <c r="Z13" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>11000.00</v>
+        <v>11.000</v>
       </c>
       <c r="AA13" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1">
@@ -2588,45 +2593,45 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="9" t="str">
+      <c r="A14" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B14" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J14" s="2">
         <v>37473042</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="1" t="str">
+        <v>56</v>
+      </c>
+      <c r="L14" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B14,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M14" s="4">
         <v>1.03</v>
@@ -2638,7 +2643,7 @@
         <v>9090.91</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -2654,7 +2659,7 @@
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" si="14"/>
@@ -2666,11 +2671,11 @@
       </c>
       <c r="Z14" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>11000.00</v>
+        <v>11.000</v>
       </c>
       <c r="AA14" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1">
@@ -2695,32 +2700,32 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="9" t="str">
+      <c r="A15" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B15" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D15" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>9</v>
@@ -2729,10 +2734,10 @@
         <v>30707354719</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="4">
         <v>1.03</v>
@@ -2744,16 +2749,16 @@
         <v>9090.91</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T15" s="13">
         <v>44816</v>
@@ -2768,7 +2773,7 @@
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>12/09/2022</v>
+        <v>12/09/YYYY</v>
       </c>
       <c r="X15" s="14">
         <f t="shared" si="14"/>
@@ -2780,11 +2785,11 @@
       </c>
       <c r="Z15" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>11000.00</v>
+        <v>11.000</v>
       </c>
       <c r="AA15" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1">
@@ -2809,44 +2814,44 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="9" t="str">
+      <c r="A16" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B16" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J16" s="2">
         <v>37473042</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="4">
         <v>1.03</v>
@@ -2858,16 +2863,16 @@
         <v>9090.91</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="T16" s="13">
         <v>44816</v>
@@ -2882,7 +2887,7 @@
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>12/09/2022</v>
+        <v>12/09/YYYY</v>
       </c>
       <c r="X16" s="14">
         <f t="shared" si="14"/>
@@ -2894,11 +2899,11 @@
       </c>
       <c r="Z16" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>11000.00</v>
+        <v>11.000</v>
       </c>
       <c r="AA16" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1">
@@ -2923,43 +2928,43 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="9" t="str">
+      <c r="A17" s="8">
+        <v>44992</v>
+      </c>
+      <c r="B17" s="9" t="e">
         <f t="shared" si="8"/>
-        <v>01/10/2022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>31/10/2022</v>
+        <v>28/02/yyyy</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>25/11/2022</v>
+        <v>21/03/yyyy</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="L17" s="1" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(B17,"mmmm"))</f>
-        <v>Honorarios Octubre</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="4">
         <v>1.03</v>
@@ -2971,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2987,7 +2992,7 @@
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>00/01/1900</v>
+        <v>00/01/YYYY</v>
       </c>
       <c r="X17" s="14">
         <f t="shared" si="14"/>
@@ -2999,11 +3004,11 @@
       </c>
       <c r="Z17" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AA17" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.00</v>
+        <v>000</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1">
@@ -3028,8 +3033,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD17"/>
-  <sortState ref="A2:AB13">
+  <autoFilter ref="A1:AD17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB13">
     <sortCondition ref="F2:F13"/>
     <sortCondition ref="H2:H13"/>
     <sortCondition ref="J2:J13"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7898F9-8344-4FEC-9E7D-547406618921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E5178-9571-4DE2-922D-A1927D872C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -956,7 +956,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1160,10 +1160,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E5178-9571-4DE2-922D-A1927D872C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4A983-B810-488F-AA74-E7D42F96C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AD$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AP$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -249,6 +249,42 @@
   </si>
   <si>
     <t>MARTIN BUSTOS</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Anterior</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>Derecha Tipo</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Remito R</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Unidades Facturador</t>
+  </si>
+  <si>
+    <t>Precio Facturador</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Mult Sup 500</t>
+  </si>
+  <si>
+    <t>AUX unidades mult</t>
   </si>
 </sst>
 </file>
@@ -257,7 +293,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -600,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -730,6 +766,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -776,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -791,11 +840,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1158,12 +1211,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,22 +1230,28 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="4" customWidth="1"/>
+    <col min="37" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1254,63 +1313,94 @@
         <v>19</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AH1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AM1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AN1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AO1" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="AP1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B2" s="9" t="e">
-        <f>TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/yyyy")</f>
-        <v>#VALUE!</v>
+        <f ca="1">TODAY()</f>
+        <v>45051</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f t="shared" ref="B2:B17" ca="1" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
+        <v>01/04/2023</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>TEXT(EOMONTH(A2,-1),"dd/mm/yyyy")</f>
-        <v>28/02/yyyy</v>
+        <f t="shared" ref="C2:C17" ca="1" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
+        <v>30/04/2023</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f>TEXT(A2+14,"dd/mm/yyyy")</f>
-        <v>21/03/yyyy</v>
+        <f t="shared" ref="D2:D17" ca="1" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
+        <v>19/05/2023</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1319,7 +1409,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
@@ -1328,23 +1418,23 @@
         <v>9</v>
       </c>
       <c r="J2" s="3">
-        <v>33610006189</v>
+        <v>30525390086</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B2,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>53</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="M2" s="4">
-        <v>5.04</v>
-      </c>
-      <c r="N2" s="2">
-        <v>8851.52</v>
+        <v>7.003044</v>
+      </c>
+      <c r="N2" s="5">
+        <v>19000</v>
       </c>
       <c r="O2" s="5">
-        <v>44628.1</v>
+        <f>M2*N2</f>
+        <v>133057.83600000001</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>38</v>
@@ -1352,72 +1442,111 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="1" t="str">
-        <f t="shared" ref="U2" si="0">TEXT(R2,"00000")</f>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14">
+        <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="18" t="str">
+        <f t="shared" ref="V2:V17" si="3">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
+        <v>7.003044</v>
+      </c>
+      <c r="W2" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V2" s="1" t="str">
-        <f t="shared" ref="V2" si="1">TEXT(S2,"00000000")</f>
+      <c r="Y2" s="1" t="str">
+        <f t="shared" ref="Y2:Y17" si="5">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W2" s="1" t="str">
-        <f>TEXT(T2,"DD/MM/YYYY")</f>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X2" s="14">
-        <f t="shared" ref="X2" si="2">ROUND(O2*P2,2)</f>
-        <v>9371.9</v>
-      </c>
-      <c r="Y2" s="14">
-        <f t="shared" ref="Y2" si="3">O2+X2</f>
-        <v>54000</v>
-      </c>
-      <c r="Z2" s="10" t="str">
-        <f>IF(F2="Factura A",SUBSTITUTE(TEXT(O2,"0.00"),",","."),SUBSTITUTE(TEXT(Y2,"0.00"),",","."))</f>
-        <v>44.628</v>
-      </c>
-      <c r="AA2" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(Y2,0)-Y2,"0.00"),",",".")</f>
-        <v>000</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1">
-        <f t="shared" ref="AC2" si="4">ROW(K2)</f>
+      <c r="Z2" s="1" t="str">
+        <f t="shared" ref="Z2:Z17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA2" s="13">
+        <f t="shared" ref="AA2:AA17" si="7">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
+        <v>27942.15</v>
+      </c>
+      <c r="AB2" s="13">
+        <f>IF(AJ2="A",ROUND(O2+AA2,2),ROUND(O2,2))</f>
+        <v>160999.99</v>
+      </c>
+      <c r="AC2" s="10" t="str">
+        <f t="shared" ref="AC2:AC17" si="8">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+        <v>133057.84</v>
+      </c>
+      <c r="AD2" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB2,0)-AB2,"0,00"),",",".")</f>
+        <v>0.01</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2:AF17" si="9">ROW(K2)</f>
         <v>2</v>
       </c>
-      <c r="AD2" s="1" t="str">
+      <c r="AG2" s="15" t="str">
         <f>J2&amp;"-"&amp;COUNTIF($J$1:J2,J2)</f>
-        <v>33610006189-1</v>
-      </c>
-      <c r="AF2" s="15">
-        <f t="shared" ref="AF2" si="5">CEILING(N2*M2*(1+P2),500)</f>
-        <v>54000</v>
-      </c>
-      <c r="AG2" s="15">
-        <f t="shared" ref="AG2" si="6">ROUND((AF2/(1+P2)),2)</f>
-        <v>44628.1</v>
-      </c>
-      <c r="AH2" s="16">
-        <f t="shared" ref="AH2" si="7">ROUND(AG2/N2,4)</f>
-        <v>5.0419</v>
-      </c>
+        <v>30525390086-1</v>
+      </c>
+      <c r="AH2" s="1">
+        <f t="shared" ref="AH2:AH17" si="10">IF(K1=K2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <f t="shared" ref="AI2:AI17" si="11">IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" t="str">
+        <f t="shared" ref="AJ2:AJ17" si="12">RIGHT(F2)</f>
+        <v>A</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>IF(LEFT(F2,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="13">
+        <f>IF(RIGHT(F2,1)="A",ROUND(N2*M2*(1+P2),2),AB2)</f>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AN2" s="13">
+        <f t="shared" ref="AN2:AN17" si="13">ROUND((AM2/(1+P2)),2)</f>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AO2" s="20">
+        <f t="shared" ref="AO2:AO17" si="14">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AP2" s="13">
+        <f t="shared" ref="AP2:AP17" si="15">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+        <v>161000</v>
+      </c>
+      <c r="AQ2" s="20">
+        <f>IF(AJ2="A",ROUND(AN2/N2,6),AP2/N2)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AR2" s="2"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B3" s="9" t="e">
-        <f t="shared" ref="B3:B17" si="8">TEXT(DATE(YEAR(C3),MONTH(C3),1),"dd/mm/yyyy")</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
+        <v>45051</v>
+      </c>
+      <c r="B3" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f t="shared" ref="C3:C17" si="9">TEXT(EOMONTH(A3,-1),"dd/mm/yyyy")</f>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f t="shared" ref="D3:D17" si="10">TEXT(A3+14,"dd/mm/yyyy")</f>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1435,22 +1564,24 @@
         <v>9</v>
       </c>
       <c r="J3" s="3">
-        <v>33610006189</v>
+        <v>30525733870</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M3" s="4">
-        <v>5.04</v>
-      </c>
-      <c r="N3" s="2">
-        <v>8851.52</v>
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="N3" s="5">
+        <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <v>44628.1</v>
+        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
+        <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>38</v>
@@ -1458,72 +1589,111 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U17" si="11">TEXT(R3,"00000")</f>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14">
+        <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V3" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>8.025228</v>
+      </c>
+      <c r="W3" s="18" t="str">
+        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V17" si="12">TEXT(S3,"00000000")</f>
+      <c r="Y3" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W17" si="13">TEXT(T3,"DD/MM/YYYY")</f>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X3" s="14">
-        <f t="shared" ref="X3:X17" si="14">ROUND(O3*P3,2)</f>
-        <v>9371.9</v>
-      </c>
-      <c r="Y3" s="14">
-        <f t="shared" ref="Y3:Y17" si="15">O3+X3</f>
-        <v>54000</v>
-      </c>
-      <c r="Z3" s="10" t="str">
-        <f t="shared" ref="Z3:Z17" si="16">IF(F3="Factura A",SUBSTITUTE(TEXT(O3,"0.00"),",","."),SUBSTITUTE(TEXT(Y3,"0.00"),",","."))</f>
-        <v>44.628</v>
-      </c>
-      <c r="AA3" s="10" t="str">
-        <f t="shared" ref="AA3:AA17" si="17">SUBSTITUTE(TEXT(ROUNDUP(Y3,0)-Y3,"0.00"),",",".")</f>
-        <v>000</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC17" si="18">ROW(K3)</f>
+      <c r="Z3" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA3" s="13">
+        <f t="shared" si="7"/>
+        <v>32020.66</v>
+      </c>
+      <c r="AB3" s="13">
+        <f t="shared" ref="AB3:AB17" si="19">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AC3" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>152479.33</v>
+      </c>
+      <c r="AD3" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB3,0)-AB3,"0,00"),",",".")</f>
+        <v>0.01</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AD3" s="1" t="str">
+      <c r="AG3" s="15" t="str">
         <f>J3&amp;"-"&amp;COUNTIF($J$1:J3,J3)</f>
-        <v>33610006189-2</v>
-      </c>
-      <c r="AF3" s="15">
-        <f t="shared" ref="AF3:AF17" si="19">CEILING(N3*M3*(1+P3),500)</f>
-        <v>54000</v>
-      </c>
-      <c r="AG3" s="15">
-        <f t="shared" ref="AG3:AG17" si="20">ROUND((AF3/(1+P3)),2)</f>
-        <v>44628.1</v>
-      </c>
-      <c r="AH3" s="16">
-        <f t="shared" ref="AH3:AH17" si="21">ROUND(AG3/N3,4)</f>
-        <v>5.0419</v>
-      </c>
+        <v>30525733870-1</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" ref="AK3:AK17" si="20">IF(LEFT(F3,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="13">
+        <f t="shared" ref="AM3:AM17" si="21">IF(RIGHT(F3,1)="A",ROUND(N3*M3*(1+P3),2),AB3)</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AN3" s="13">
+        <f t="shared" si="13"/>
+        <v>152479.32999999999</v>
+      </c>
+      <c r="AO3" s="20">
+        <f t="shared" si="14"/>
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AP3" s="13">
+        <f t="shared" si="15"/>
+        <v>184500</v>
+      </c>
+      <c r="AQ3" s="20">
+        <f t="shared" ref="AQ3:AQ17" si="22">IF(AJ3="A",ROUND(AN3/N3,6),AP3/N3)</f>
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AR3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B4" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1546,18 +1716,19 @@
       <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>#VALUE!</v>
+      <c r="L4" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M4" s="4">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="N4" s="2">
-        <v>8851.52</v>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="N4" s="5">
+        <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <v>88842.97</v>
+        <f t="shared" si="17"/>
+        <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>38</v>
@@ -1565,78 +1736,117 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="14">
+        <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V4" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W4" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="V4" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="W4" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X4" s="14">
-        <f t="shared" si="14"/>
-        <v>18657.02</v>
-      </c>
-      <c r="Y4" s="14">
-        <f t="shared" si="15"/>
-        <v>107499.99</v>
-      </c>
-      <c r="Z4" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>88.843</v>
-      </c>
-      <c r="AA4" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1">
-        <f t="shared" si="18"/>
+      <c r="Z4" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA4" s="13">
+        <f t="shared" si="7"/>
+        <v>39917.35</v>
+      </c>
+      <c r="AB4" s="13">
+        <f t="shared" si="19"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AC4" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AD4" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB4,0)-AB4,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="AD4" s="1" t="str">
+      <c r="AG4" s="15" t="str">
         <f>J4&amp;"-"&amp;COUNTIF($J$1:J4,J4)</f>
         <v>30610252334-1</v>
       </c>
-      <c r="AF4" s="15">
-        <f t="shared" si="19"/>
-        <v>108000</v>
-      </c>
-      <c r="AG4" s="15">
+      <c r="AH4" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="AK4" s="1">
         <f t="shared" si="20"/>
-        <v>89256.2</v>
-      </c>
-      <c r="AH4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="13">
         <f t="shared" si="21"/>
-        <v>10.0837</v>
-      </c>
+        <v>229999.98</v>
+      </c>
+      <c r="AN4" s="13">
+        <f t="shared" si="13"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AO4" s="20">
+        <f t="shared" si="14"/>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AP4" s="13">
+        <f t="shared" si="15"/>
+        <v>230000</v>
+      </c>
+      <c r="AQ4" s="20">
+        <f t="shared" si="22"/>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AR4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B5" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>39</v>
@@ -1648,112 +1858,145 @@
         <v>9</v>
       </c>
       <c r="J5" s="3">
-        <v>30684125792</v>
+        <v>30710964277</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M5" s="4">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2">
-        <v>8851.52</v>
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="N5" s="5">
+        <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <v>61983.47</v>
+        <f t="shared" si="17"/>
+        <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="13">
-        <v>44816</v>
-      </c>
-      <c r="U5" s="1" t="str">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14">
+        <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>9.025663</v>
+      </c>
+      <c r="W5" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA5" s="13">
+        <f t="shared" si="7"/>
+        <v>36012.400000000001</v>
+      </c>
+      <c r="AB5" s="13">
+        <f t="shared" si="19"/>
+        <v>207500</v>
+      </c>
+      <c r="AC5" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>171487.60</v>
+      </c>
+      <c r="AD5" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB5,0)-AB5,"0,00"),",",".")</f>
+        <v>0.00</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AG5" s="15" t="str">
+        <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
+        <v>30710964277-1</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
         <f t="shared" si="11"/>
-        <v>00002</v>
-      </c>
-      <c r="V5" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000150</v>
-      </c>
-      <c r="W5" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="13">
+        <f t="shared" si="21"/>
+        <v>207499.99</v>
+      </c>
+      <c r="AN5" s="13">
         <f t="shared" si="13"/>
-        <v>12/09/YYYY</v>
-      </c>
-      <c r="X5" s="14">
+        <v>171487.6</v>
+      </c>
+      <c r="AO5" s="20">
         <f t="shared" si="14"/>
-        <v>13016.53</v>
-      </c>
-      <c r="Y5" s="14">
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AP5" s="13">
         <f t="shared" si="15"/>
-        <v>75000</v>
-      </c>
-      <c r="Z5" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>75.000</v>
-      </c>
-      <c r="AA5" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AD5" s="1" t="str">
-        <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
-        <v>30684125792-1</v>
-      </c>
-      <c r="AF5" s="15">
-        <f t="shared" si="19"/>
-        <v>75000</v>
-      </c>
-      <c r="AG5" s="15">
-        <f t="shared" si="20"/>
-        <v>61983.47</v>
-      </c>
-      <c r="AH5" s="16">
-        <f t="shared" si="21"/>
-        <v>7.0026000000000002</v>
-      </c>
+        <v>207500</v>
+      </c>
+      <c r="AQ5" s="20">
+        <f t="shared" si="22"/>
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B6" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>36</v>
@@ -1762,103 +2005,144 @@
         <v>9</v>
       </c>
       <c r="J6" s="3">
-        <v>30684125792</v>
+        <v>33610006189</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M6" s="4">
-        <v>7</v>
-      </c>
-      <c r="N6" s="2">
-        <v>8851.52</v>
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="N6" s="5">
+        <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <v>61983.47</v>
+        <f t="shared" si="17"/>
+        <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="13">
+        <v>77</v>
+      </c>
+      <c r="T6" s="12">
         <v>44816</v>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="U6" s="14">
+        <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>5.023923</v>
+      </c>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000003</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA6" s="13">
+        <f t="shared" si="7"/>
+        <v>20045.45</v>
+      </c>
+      <c r="AB6" s="13">
+        <f t="shared" si="19"/>
+        <v>115499.99</v>
+      </c>
+      <c r="AC6" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>95454.54</v>
+      </c>
+      <c r="AD6" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB6,0)-AB6,"0,00"),",",".")</f>
+        <v>0.01</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AG6" s="15" t="str">
+        <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
+        <v>33610006189-1</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
         <f t="shared" si="11"/>
-        <v>00002</v>
-      </c>
-      <c r="V6" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000151</v>
-      </c>
-      <c r="W6" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="13">
+        <f t="shared" si="21"/>
+        <v>115499.99</v>
+      </c>
+      <c r="AN6" s="13">
         <f t="shared" si="13"/>
-        <v>12/09/YYYY</v>
-      </c>
-      <c r="X6" s="14">
+        <v>95454.54</v>
+      </c>
+      <c r="AO6" s="20">
         <f t="shared" si="14"/>
-        <v>13016.53</v>
-      </c>
-      <c r="Y6" s="14">
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AP6" s="13">
         <f t="shared" si="15"/>
-        <v>75000</v>
-      </c>
-      <c r="Z6" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>75.000</v>
-      </c>
-      <c r="AA6" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AD6" s="1" t="str">
-        <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
-        <v>30684125792-2</v>
-      </c>
-      <c r="AF6" s="15">
-        <f t="shared" si="19"/>
-        <v>75000</v>
-      </c>
-      <c r="AG6" s="15">
-        <f t="shared" si="20"/>
-        <v>61983.47</v>
-      </c>
-      <c r="AH6" s="16">
-        <f t="shared" si="21"/>
-        <v>7.0026000000000002</v>
-      </c>
+        <v>115500</v>
+      </c>
+      <c r="AQ6" s="20">
+        <f t="shared" si="22"/>
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B7" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1876,23 +2160,23 @@
         <v>9</v>
       </c>
       <c r="J7" s="3">
-        <v>30525733870</v>
+        <v>33610006189</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B7,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="4">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="N7" s="2">
-        <v>8851.52</v>
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <v>71074.38</v>
+        <f t="shared" si="17"/>
+        <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>38</v>
@@ -1900,72 +2184,111 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="1" t="str">
+      <c r="T7" s="12"/>
+      <c r="U7" s="14">
+        <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>5.002174</v>
+      </c>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA7" s="13">
+        <f t="shared" si="7"/>
+        <v>19958.669999999998</v>
+      </c>
+      <c r="AB7" s="13">
+        <f t="shared" si="19"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>95041.31</v>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f t="shared" ref="AD7:AD17" si="23">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AG7" s="15" t="str">
+        <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
+        <v>33610006189-2</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V7" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W7" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="13">
+        <f t="shared" si="21"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AN7" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X7" s="14">
+        <v>95041.31</v>
+      </c>
+      <c r="AO7" s="20">
         <f t="shared" si="14"/>
-        <v>14925.62</v>
-      </c>
-      <c r="Y7" s="14">
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AP7" s="13">
         <f t="shared" si="15"/>
-        <v>86000</v>
-      </c>
-      <c r="Z7" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>71.074</v>
-      </c>
-      <c r="AA7" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AD7" s="1" t="str">
-        <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
-        <v>30525733870-1</v>
-      </c>
-      <c r="AF7" s="15">
-        <f t="shared" si="19"/>
-        <v>86500</v>
-      </c>
-      <c r="AG7" s="15">
-        <f t="shared" si="20"/>
-        <v>71487.600000000006</v>
-      </c>
-      <c r="AH7" s="16">
-        <f t="shared" si="21"/>
-        <v>8.0762999999999998</v>
-      </c>
+        <v>115000</v>
+      </c>
+      <c r="AQ7" s="20">
+        <f t="shared" si="22"/>
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AR7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B8" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1983,23 +2306,24 @@
         <v>9</v>
       </c>
       <c r="J8" s="3">
-        <v>30710964277</v>
+        <v>33615420269</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>52</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M8" s="4">
-        <v>9.01</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8851.52</v>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="N8" s="5">
+        <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <v>79752.070000000007</v>
+        <f t="shared" si="17"/>
+        <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>38</v>
@@ -2007,72 +2331,111 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="1" t="str">
+      <c r="T8" s="12"/>
+      <c r="U8" s="14">
+        <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V8" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA8" s="13">
+        <f t="shared" si="7"/>
+        <v>39917.35</v>
+      </c>
+      <c r="AB8" s="13">
+        <f t="shared" si="19"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AC8" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AD8" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.02</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AG8" s="15" t="str">
+        <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
+        <v>33615420269-1</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V8" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W8" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="13">
+        <f t="shared" si="21"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AN8" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X8" s="14">
+        <v>190082.63</v>
+      </c>
+      <c r="AO8" s="20">
         <f t="shared" si="14"/>
-        <v>16747.93</v>
-      </c>
-      <c r="Y8" s="14">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AP8" s="13">
         <f t="shared" si="15"/>
-        <v>96500</v>
-      </c>
-      <c r="Z8" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>79.752</v>
-      </c>
-      <c r="AA8" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="AD8" s="1" t="str">
-        <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
-        <v>30710964277-1</v>
-      </c>
-      <c r="AF8" s="15">
-        <f t="shared" si="19"/>
-        <v>97000</v>
-      </c>
-      <c r="AG8" s="15">
-        <f t="shared" si="20"/>
-        <v>80165.289999999994</v>
-      </c>
-      <c r="AH8" s="16">
-        <f t="shared" si="21"/>
-        <v>9.0566999999999993</v>
-      </c>
+        <v>230000</v>
+      </c>
+      <c r="AQ8" s="20">
+        <f t="shared" si="22"/>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B9" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2084,29 +2447,30 @@
         <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3">
-        <v>33615420269</v>
+      <c r="J9" s="2">
+        <v>20147130202</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B9,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>57</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M9" s="4">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="N9" s="2">
-        <v>8851.52</v>
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="N9" s="5">
+        <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <v>88842.97</v>
+        <f t="shared" si="17"/>
+        <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>38</v>
@@ -2114,72 +2478,111 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="1" t="str">
+      <c r="T9" s="12"/>
+      <c r="U9" s="14">
+        <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V9" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.022183</v>
+      </c>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" si="7"/>
+        <v>4078.51</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="19"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AC9" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>19421.48</v>
+      </c>
+      <c r="AD9" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AG9" s="15" t="str">
+        <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
+        <v>20147130202-1</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V9" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W9" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="13">
+        <f t="shared" si="21"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AN9" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X9" s="14">
+        <v>19421.48</v>
+      </c>
+      <c r="AO9" s="20">
         <f t="shared" si="14"/>
-        <v>18657.02</v>
-      </c>
-      <c r="Y9" s="14">
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AP9" s="13">
         <f t="shared" si="15"/>
-        <v>107499.99</v>
-      </c>
-      <c r="Z9" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>88.843</v>
-      </c>
-      <c r="AA9" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="AD9" s="1" t="str">
-        <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
-        <v>33615420269-1</v>
-      </c>
-      <c r="AF9" s="15">
-        <f t="shared" si="19"/>
-        <v>108000</v>
-      </c>
-      <c r="AG9" s="15">
-        <f t="shared" si="20"/>
-        <v>89256.2</v>
-      </c>
-      <c r="AH9" s="16">
-        <f t="shared" si="21"/>
-        <v>10.0837</v>
-      </c>
+        <v>23500</v>
+      </c>
+      <c r="AQ9" s="20">
+        <f t="shared" si="22"/>
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B10" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2191,28 +2594,30 @@
         <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="3">
-        <v>30525390086</v>
+      <c r="J10" s="2">
+        <v>20374730429</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M10" s="4">
-        <v>9.01</v>
-      </c>
-      <c r="N10" s="2">
-        <v>8851.52</v>
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="N10" s="5">
+        <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <v>79752.070000000007</v>
+        <f t="shared" si="17"/>
+        <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>38</v>
@@ -2220,106 +2625,146 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="1" t="str">
+      <c r="T10" s="12"/>
+      <c r="U10" s="14">
+        <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.043932</v>
+      </c>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA10" s="13">
+        <f t="shared" si="7"/>
+        <v>4165.29</v>
+      </c>
+      <c r="AB10" s="13">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="AC10" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>19834.71</v>
+      </c>
+      <c r="AD10" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.00</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AG10" s="15" t="str">
+        <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
+        <v>20374730429-1</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V10" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W10" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="13">
+        <f t="shared" si="21"/>
+        <v>24000</v>
+      </c>
+      <c r="AN10" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X10" s="14">
+        <v>19834.71</v>
+      </c>
+      <c r="AO10" s="20">
         <f t="shared" si="14"/>
-        <v>16747.93</v>
-      </c>
-      <c r="Y10" s="14">
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AP10" s="13">
         <f t="shared" si="15"/>
-        <v>96500</v>
-      </c>
-      <c r="Z10" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>79.752</v>
-      </c>
-      <c r="AA10" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="AD10" s="1" t="str">
-        <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
-        <v>30525390086-1</v>
-      </c>
-      <c r="AF10" s="15">
-        <f t="shared" si="19"/>
-        <v>97000</v>
-      </c>
-      <c r="AG10" s="15">
-        <f t="shared" si="20"/>
-        <v>80165.289999999994</v>
-      </c>
-      <c r="AH10" s="16">
-        <f t="shared" si="21"/>
-        <v>9.0566999999999993</v>
-      </c>
+        <v>24000</v>
+      </c>
+      <c r="AQ10" s="20">
+        <f t="shared" si="22"/>
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AR10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B11" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2">
-        <v>20374730429</v>
+        <v>37473042</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B11,"mmmm"))</f>
-        <v>#VALUE!</v>
+      <c r="L11" s="1" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M11" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8851.52</v>
+        <v>1.3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <v>9090.91</v>
+        <f t="shared" si="17"/>
+        <v>13000</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>38</v>
@@ -2327,106 +2772,146 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="1" t="str">
+      <c r="T11" s="12"/>
+      <c r="U11" s="14">
+        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>10000.00</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="7"/>
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="AB11" s="13">
+        <f t="shared" si="19"/>
+        <v>13000</v>
+      </c>
+      <c r="AC11" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>13000.00</v>
+      </c>
+      <c r="AD11" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.00</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AG11" s="15" t="str">
+        <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
+        <v>37473042-1</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V11" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W11" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="13">
+        <f t="shared" si="21"/>
+        <v>13000</v>
+      </c>
+      <c r="AN11" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X11" s="14">
+        <v>10743.8</v>
+      </c>
+      <c r="AO11" s="20">
         <f t="shared" si="14"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y11" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="AP11" s="13">
         <f t="shared" si="15"/>
-        <v>11000</v>
-      </c>
-      <c r="Z11" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>9.091</v>
-      </c>
-      <c r="AA11" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="AD11" s="1" t="str">
-        <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
-        <v>20374730429-1</v>
-      </c>
-      <c r="AF11" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG11" s="15">
-        <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH11" s="16">
-        <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>13000</v>
+      </c>
+      <c r="AQ11" s="20">
+        <f t="shared" si="22"/>
+        <v>1.3</v>
+      </c>
+      <c r="AR11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B12" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="2">
-        <v>20147130202</v>
+        <v>30707354719</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B12,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>60</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M12" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N12" s="2">
-        <v>8851.52</v>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="N12" s="5">
+        <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <v>9090.91</v>
+        <f t="shared" si="17"/>
+        <v>23000</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>38</v>
@@ -2434,286 +2919,408 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="1" t="str">
+      <c r="T12" s="12"/>
+      <c r="U12" s="14">
+        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W12" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA12" s="13">
+        <f t="shared" si="7"/>
+        <v>3991.74</v>
+      </c>
+      <c r="AB12" s="13">
+        <f t="shared" si="19"/>
+        <v>23000</v>
+      </c>
+      <c r="AC12" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>23000.00</v>
+      </c>
+      <c r="AD12" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.00</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AG12" s="15" t="str">
+        <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
+        <v>30707354719-1</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V12" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W12" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="13">
+        <f t="shared" si="21"/>
+        <v>23000</v>
+      </c>
+      <c r="AN12" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X12" s="14">
+        <v>19008.259999999998</v>
+      </c>
+      <c r="AO12" s="20">
         <f t="shared" si="14"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y12" s="14">
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AP12" s="13">
         <f t="shared" si="15"/>
-        <v>11000</v>
-      </c>
-      <c r="Z12" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>9.091</v>
-      </c>
-      <c r="AA12" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="AD12" s="1" t="str">
-        <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
-        <v>20147130202-1</v>
-      </c>
-      <c r="AF12" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG12" s="15">
-        <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH12" s="16">
-        <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>23000</v>
+      </c>
+      <c r="AQ12" s="20">
+        <f t="shared" si="22"/>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AR12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B13" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2">
-        <v>30707354719</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B13,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M13" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N13" s="2">
-        <v>8851.52</v>
+        <v>1.5</v>
+      </c>
+      <c r="N13" s="5">
+        <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <v>9090.91</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>28500</v>
+      </c>
+      <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="1" t="str">
+      <c r="T13" s="12"/>
+      <c r="U13" s="14">
+        <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="W13" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA13" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <f t="shared" si="19"/>
+        <v>28500</v>
+      </c>
+      <c r="AC13" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AD13" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.00</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AG13" s="15" t="str">
+        <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
+        <v>-0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V13" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W13" s="1" t="str">
+        <v>C</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="13">
+        <f t="shared" si="21"/>
+        <v>28500</v>
+      </c>
+      <c r="AN13" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X13" s="14">
+        <v>28500</v>
+      </c>
+      <c r="AO13" s="20">
         <f t="shared" si="14"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AP13" s="13">
         <f t="shared" si="15"/>
-        <v>11000</v>
-      </c>
-      <c r="Z13" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>11.000</v>
-      </c>
-      <c r="AA13" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="AD13" s="1" t="str">
-        <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
-        <v>30707354719-1</v>
-      </c>
-      <c r="AF13" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG13" s="15">
-        <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH13" s="16">
-        <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>28500</v>
+      </c>
+      <c r="AQ13" s="20">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR13" s="2"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B14" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="2">
-        <v>37473042</v>
+        <v>9</v>
+      </c>
+      <c r="J14" s="3">
+        <v>30684125792</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B14,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>44</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="M14" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N14" s="2">
-        <v>8851.52</v>
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="N14" s="5">
+        <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <v>9090.91</v>
+        <f t="shared" si="17"/>
+        <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="1" t="str">
+      <c r="Q14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="12">
+        <v>44816</v>
+      </c>
+      <c r="U14" s="14">
+        <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>7.024793</v>
+      </c>
+      <c r="W14" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000150</v>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" si="7"/>
+        <v>28028.92</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" si="19"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AC14" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>133471.07</v>
+      </c>
+      <c r="AD14" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AG14" s="15" t="str">
+        <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
+        <v>30684125792-1</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V14" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W14" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="13">
+        <f t="shared" si="21"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AN14" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X14" s="14">
+        <v>133471.07</v>
+      </c>
+      <c r="AO14" s="20">
         <f t="shared" si="14"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y14" s="14">
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AP14" s="13">
         <f t="shared" si="15"/>
-        <v>11000</v>
-      </c>
-      <c r="Z14" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>11.000</v>
-      </c>
-      <c r="AA14" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="AD14" s="1" t="str">
-        <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
-        <v>37473042-1</v>
-      </c>
-      <c r="AF14" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG14" s="15">
-        <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH14" s="16">
-        <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>161500</v>
+      </c>
+      <c r="AQ14" s="20">
+        <f t="shared" si="22"/>
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AR14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B15" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -2740,13 +3347,14 @@
         <v>64</v>
       </c>
       <c r="M15" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N15" s="2">
-        <v>8851.52</v>
+        <v>1.5</v>
+      </c>
+      <c r="N15" s="5">
+        <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <v>9090.91</v>
+        <f t="shared" si="17"/>
+        <v>28500</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>38</v>
@@ -2760,194 +3368,273 @@
       <c r="S15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>44816</v>
       </c>
-      <c r="U15" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="U15" s="14">
+        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="W15" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
-      <c r="V15" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>00000152</v>
       </c>
-      <c r="W15" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>12/09/YYYY</v>
-      </c>
-      <c r="X15" s="14">
-        <f t="shared" si="14"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y15" s="14">
-        <f t="shared" si="15"/>
-        <v>11000</v>
-      </c>
-      <c r="Z15" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>11.000</v>
-      </c>
-      <c r="AA15" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
-        <f t="shared" si="18"/>
+      <c r="Z15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA15" s="13">
+        <f t="shared" si="7"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="19"/>
+        <v>28500</v>
+      </c>
+      <c r="AC15" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AD15" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.00</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="AD15" s="1" t="str">
+      <c r="AG15" s="15" t="str">
         <f>J15&amp;"-"&amp;COUNTIF($J$1:J15,J15)</f>
         <v>30707354719-2</v>
       </c>
-      <c r="AF15" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG15" s="15">
+      <c r="AH15" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="AK15" s="1">
         <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="13">
         <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>28500</v>
+      </c>
+      <c r="AN15" s="13">
+        <f t="shared" si="13"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AO15" s="20">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP15" s="13">
+        <f t="shared" si="15"/>
+        <v>28500</v>
+      </c>
+      <c r="AQ15" s="20">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B16" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B16" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="2">
-        <v>37473042</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="3">
+        <v>30684125792</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M16" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8851.52</v>
+        <v>7.003044</v>
+      </c>
+      <c r="N16" s="5">
+        <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <v>9090.91</v>
+        <f t="shared" si="17"/>
+        <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T16" s="13">
+        <v>49</v>
+      </c>
+      <c r="T16" s="12">
         <v>44816</v>
       </c>
-      <c r="U16" s="1" t="str">
+      <c r="U16" s="14">
+        <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>7.003044</v>
+      </c>
+      <c r="W16" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000151</v>
+      </c>
+      <c r="Z16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA16" s="13">
+        <f t="shared" si="7"/>
+        <v>27942.15</v>
+      </c>
+      <c r="AB16" s="13">
+        <f t="shared" si="19"/>
+        <v>160999.99</v>
+      </c>
+      <c r="AC16" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>133057.84</v>
+      </c>
+      <c r="AD16" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="AG16" s="15" t="str">
+        <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
+        <v>30684125792-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
         <f t="shared" si="11"/>
-        <v>00002</v>
-      </c>
-      <c r="V16" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000153</v>
-      </c>
-      <c r="W16" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="13">
+        <f t="shared" si="21"/>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AN16" s="13">
         <f t="shared" si="13"/>
-        <v>12/09/YYYY</v>
-      </c>
-      <c r="X16" s="14">
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AO16" s="20">
         <f t="shared" si="14"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y16" s="14">
+        <v>7.003044</v>
+      </c>
+      <c r="AP16" s="13">
         <f t="shared" si="15"/>
-        <v>11000</v>
-      </c>
-      <c r="Z16" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>11.000</v>
-      </c>
-      <c r="AA16" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="AD16" s="1" t="str">
-        <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
-        <v>37473042-2</v>
-      </c>
-      <c r="AF16" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG16" s="15">
-        <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH16" s="16">
-        <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>161000</v>
+      </c>
+      <c r="AQ16" s="20">
+        <f t="shared" si="22"/>
+        <v>7.003044</v>
+      </c>
+      <c r="AR16" s="2"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>44992</v>
-      </c>
-      <c r="B17" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v>28/02/yyyy</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>21/03/yyyy</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
@@ -2958,86 +3645,134 @@
       <c r="I17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>37473042</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="1" t="e">
-        <f>"Honorarios "&amp;PROPER(TEXT(B17,"mmmm"))</f>
-        <v>#VALUE!</v>
+        <v>56</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="M17" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N17" s="2">
-        <v>8851.52</v>
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="5">
+        <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>28500</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="1" t="str">
+      <c r="Q17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" s="12">
+        <v>44816</v>
+      </c>
+      <c r="U17" s="14">
+        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="W17" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000153</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="7"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="19"/>
+        <v>28500</v>
+      </c>
+      <c r="AC17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AD17" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>0.00</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="AG17" s="15" t="str">
+        <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
+        <v>37473042-2</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
         <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V17" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>00000000</v>
-      </c>
-      <c r="W17" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="13">
+        <f t="shared" si="21"/>
+        <v>28500</v>
+      </c>
+      <c r="AN17" s="13">
         <f t="shared" si="13"/>
-        <v>00/01/YYYY</v>
-      </c>
-      <c r="X17" s="14">
+        <v>23553.72</v>
+      </c>
+      <c r="AO17" s="20">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AP17" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>000</v>
-      </c>
-      <c r="AA17" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>000</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1">
-        <f t="shared" si="18"/>
-        <v>17</v>
-      </c>
-      <c r="AD17" s="1" t="str">
-        <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
-        <v>-0</v>
-      </c>
-      <c r="AF17" s="15">
-        <f t="shared" si="19"/>
-        <v>11500</v>
-      </c>
-      <c r="AG17" s="15">
-        <f t="shared" si="20"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH17" s="16">
-        <f t="shared" si="21"/>
-        <v>1.0737000000000001</v>
-      </c>
+        <v>28500</v>
+      </c>
+      <c r="AQ17" s="20">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB13">
-    <sortCondition ref="F2:F13"/>
-    <sortCondition ref="H2:H13"/>
-    <sortCondition ref="J2:J13"/>
+  <autoFilter ref="A1:AP17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO17">
+    <sortCondition ref="F2:F17"/>
+    <sortCondition ref="H2:H17"/>
+    <sortCondition ref="J2:J17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4A983-B810-488F-AA74-E7D42F96C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD680BF-2722-4D9A-9832-AD34BA28294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1213,10 +1213,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A17"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1233,8 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" customWidth="1"/>
+    <col min="16" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
@@ -1388,19 +1389,19 @@
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45051</v>
-      </c>
-      <c r="B2" s="9" t="str">
-        <f t="shared" ref="B2:B17" ca="1" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f t="shared" ref="C2:C17" ca="1" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D2" s="9" t="str">
-        <f t="shared" ref="D2:D17" ca="1" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
-        <v>19/05/2023</v>
+        <v>45108</v>
+      </c>
+      <c r="B2" s="9">
+        <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
+        <v>45078</v>
+      </c>
+      <c r="C2" s="9">
+        <f ca="1">EOMONTH(A2,-1)</f>
+        <v>45107</v>
+      </c>
+      <c r="D2" s="9">
+        <f ca="1">A2+14</f>
+        <v>45122</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1448,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="V2" s="18" t="str">
-        <f t="shared" ref="V2:V17" si="3">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
+        <f t="shared" ref="V2:V17" si="0">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="W2" s="18" t="str">
@@ -1456,19 +1457,19 @@
         <v>19000.00</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
+        <f t="shared" ref="X2:X17" si="1">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="5">TEXT(S2,"00000000")</f>
+        <f t="shared" ref="Y2:Y17" si="2">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="Z2" s="1" t="str">
-        <f t="shared" ref="Z2:Z17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
-        <v>00/01/1900</v>
+      <c r="Z2" s="9">
+        <f>T2</f>
+        <v>0</v>
       </c>
       <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="7">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
+        <f t="shared" ref="AA2:AA17" si="3">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AB2" s="13">
@@ -1476,7 +1477,7 @@
         <v>160999.99</v>
       </c>
       <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="8">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+        <f t="shared" ref="AC2:AC17" si="4">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AD2" s="10" t="str">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="9">ROW(K2)</f>
+        <f t="shared" ref="AF2:AF17" si="5">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AG2" s="15" t="str">
@@ -1493,15 +1494,15 @@
         <v>30525390086-1</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="10">IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AH2:AH17" si="6">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="11">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AI2:AI17" si="7">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="12">RIGHT(F2)</f>
+        <f t="shared" ref="AJ2:AJ17" si="8">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AK2" s="1">
@@ -1514,15 +1515,15 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="13">ROUND((AM2/(1+P2)),2)</f>
+        <f t="shared" ref="AN2:AN17" si="9">ROUND((AM2/(1+P2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AO2" s="20">
-        <f t="shared" ref="AO2:AO17" si="14">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+        <f t="shared" ref="AO2:AO17" si="10">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
         <v>7.003044</v>
       </c>
       <c r="AP2" s="13">
-        <f t="shared" ref="AP2:AP17" si="15">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+        <f t="shared" ref="AP2:AP17" si="11">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AQ2" s="20">
@@ -1533,20 +1534,20 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
-        <v>45051</v>
-      </c>
-      <c r="B3" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ref="A3:A17" ca="1" si="12">TODAY()</f>
+        <v>45108</v>
+      </c>
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B17" ca="1" si="13">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <v>45078</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C17" ca="1" si="14">EOMONTH(A3,-1)</f>
+        <v>45107</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D17" ca="1" si="15">A3+14</f>
+        <v>45122</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="L3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M3" s="4">
         <v>8.0252280000000003</v>
@@ -1580,7 +1581,7 @@
         <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
+        <f t="shared" ref="O3:O17" si="16">M3*N3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1595,27 +1596,27 @@
         <v>2</v>
       </c>
       <c r="V3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>8.025228</v>
+      </c>
+      <c r="W3" s="18" t="str">
+        <f t="shared" ref="W3:W17" si="17">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3:Z17" si="18">T3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
         <f t="shared" si="3"/>
-        <v>8.025228</v>
-      </c>
-      <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
-        <v>19000.00</v>
-      </c>
-      <c r="X3" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y3" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z3" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" si="7"/>
         <v>32020.66</v>
       </c>
       <c r="AB3" s="13">
@@ -1623,7 +1624,7 @@
         <v>184499.99</v>
       </c>
       <c r="AC3" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>152479.33</v>
       </c>
       <c r="AD3" s="10" t="str">
@@ -1632,7 +1633,7 @@
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AG3" s="15" t="str">
@@ -1640,15 +1641,15 @@
         <v>30525733870-1</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK3" s="1">
@@ -1661,15 +1662,15 @@
         <v>184499.99</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AO3" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AP3" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>184500</v>
       </c>
       <c r="AQ3" s="20">
@@ -1680,20 +1681,20 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B4" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1718,7 +1719,7 @@
       </c>
       <c r="L4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M4" s="4">
         <v>10.004348999999999</v>
@@ -1727,7 +1728,7 @@
         <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1742,27 +1743,27 @@
         <v>2</v>
       </c>
       <c r="V4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W4" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
         <f t="shared" si="3"/>
-        <v>10.004349</v>
-      </c>
-      <c r="W4" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA4" s="13">
-        <f t="shared" si="7"/>
         <v>39917.35</v>
       </c>
       <c r="AB4" s="13">
@@ -1770,7 +1771,7 @@
         <v>229999.98</v>
       </c>
       <c r="AC4" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>190082.63</v>
       </c>
       <c r="AD4" s="10" t="str">
@@ -1779,7 +1780,7 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AG4" s="15" t="str">
@@ -1787,15 +1788,15 @@
         <v>30610252334-1</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK4" s="1">
@@ -1808,15 +1809,15 @@
         <v>229999.98</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>190082.63</v>
       </c>
       <c r="AO4" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP4" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>230000</v>
       </c>
       <c r="AQ4" s="20">
@@ -1827,20 +1828,20 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C5" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1865,7 +1866,7 @@
       </c>
       <c r="L5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M5" s="4">
         <v>9.0256629999999998</v>
@@ -1874,7 +1875,7 @@
         <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1889,27 +1890,27 @@
         <v>2</v>
       </c>
       <c r="V5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>9.025663</v>
+      </c>
+      <c r="W5" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
         <f t="shared" si="3"/>
-        <v>9.025663</v>
-      </c>
-      <c r="W5" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA5" s="13">
-        <f t="shared" si="7"/>
         <v>36012.400000000001</v>
       </c>
       <c r="AB5" s="13">
@@ -1917,7 +1918,7 @@
         <v>207500</v>
       </c>
       <c r="AC5" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>171487.60</v>
       </c>
       <c r="AD5" s="10" t="str">
@@ -1926,7 +1927,7 @@
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AG5" s="15" t="str">
@@ -1934,15 +1935,15 @@
         <v>30710964277-1</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK5" s="1">
@@ -1955,15 +1956,15 @@
         <v>207499.99</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>171487.6</v>
       </c>
       <c r="AO5" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AP5" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>207500</v>
       </c>
       <c r="AQ5" s="20">
@@ -1974,20 +1975,20 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C6" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2012,7 +2013,7 @@
       </c>
       <c r="L6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M6" s="4">
         <v>5.0239229999999999</v>
@@ -2021,7 +2022,7 @@
         <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2044,27 +2045,27 @@
         <v>2</v>
       </c>
       <c r="V6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>5.023923</v>
+      </c>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000003</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA6" s="13">
         <f t="shared" si="3"/>
-        <v>5.023923</v>
-      </c>
-      <c r="W6" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000003</v>
-      </c>
-      <c r="Z6" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA6" s="13">
-        <f t="shared" si="7"/>
         <v>20045.45</v>
       </c>
       <c r="AB6" s="13">
@@ -2072,7 +2073,7 @@
         <v>115499.99</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>95454.54</v>
       </c>
       <c r="AD6" s="10" t="str">
@@ -2081,7 +2082,7 @@
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AG6" s="15" t="str">
@@ -2089,15 +2090,15 @@
         <v>33610006189-1</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK6" s="1">
@@ -2110,15 +2111,15 @@
         <v>115499.99</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>95454.54</v>
       </c>
       <c r="AO6" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AP6" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>115500</v>
       </c>
       <c r="AQ6" s="20">
@@ -2129,20 +2130,20 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2175,7 +2176,7 @@
         <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2190,27 +2191,27 @@
         <v>3</v>
       </c>
       <c r="V7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>5.002174</v>
+      </c>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
         <f t="shared" si="3"/>
-        <v>5.002174</v>
-      </c>
-      <c r="W7" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z7" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="7"/>
         <v>19958.669999999998</v>
       </c>
       <c r="AB7" s="13">
@@ -2218,7 +2219,7 @@
         <v>114999.98</v>
       </c>
       <c r="AC7" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>95041.31</v>
       </c>
       <c r="AD7" s="10" t="str">
@@ -2227,7 +2228,7 @@
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AG7" s="15" t="str">
@@ -2235,15 +2236,15 @@
         <v>33610006189-2</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK7" s="1">
@@ -2256,15 +2257,15 @@
         <v>114999.98</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>95041.31</v>
       </c>
       <c r="AO7" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AP7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>115000</v>
       </c>
       <c r="AQ7" s="20">
@@ -2275,20 +2276,20 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2313,7 +2314,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M8" s="4">
         <v>10.004348999999999</v>
@@ -2322,7 +2323,7 @@
         <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2337,27 +2338,27 @@
         <v>2</v>
       </c>
       <c r="V8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
         <f t="shared" si="3"/>
-        <v>10.004349</v>
-      </c>
-      <c r="W8" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z8" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA8" s="13">
-        <f t="shared" si="7"/>
         <v>39917.35</v>
       </c>
       <c r="AB8" s="13">
@@ -2365,7 +2366,7 @@
         <v>229999.98</v>
       </c>
       <c r="AC8" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>190082.63</v>
       </c>
       <c r="AD8" s="10" t="str">
@@ -2374,7 +2375,7 @@
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AG8" s="15" t="str">
@@ -2382,15 +2383,15 @@
         <v>33615420269-1</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK8" s="1">
@@ -2403,15 +2404,15 @@
         <v>229999.98</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>190082.63</v>
       </c>
       <c r="AO8" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP8" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>230000</v>
       </c>
       <c r="AQ8" s="20">
@@ -2422,20 +2423,20 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2460,7 +2461,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M9" s="4">
         <v>1.0221830000000001</v>
@@ -2469,7 +2470,7 @@
         <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
@@ -2484,27 +2485,27 @@
         <v>2</v>
       </c>
       <c r="V9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.022183</v>
+      </c>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
         <f t="shared" si="3"/>
-        <v>1.022183</v>
-      </c>
-      <c r="W9" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z9" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA9" s="13">
-        <f t="shared" si="7"/>
         <v>4078.51</v>
       </c>
       <c r="AB9" s="13">
@@ -2512,7 +2513,7 @@
         <v>23499.99</v>
       </c>
       <c r="AC9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>19421.48</v>
       </c>
       <c r="AD9" s="10" t="str">
@@ -2521,7 +2522,7 @@
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG9" s="15" t="str">
@@ -2529,15 +2530,15 @@
         <v>20147130202-1</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK9" s="1">
@@ -2550,15 +2551,15 @@
         <v>23499.99</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>19421.48</v>
       </c>
       <c r="AO9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AP9" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23500</v>
       </c>
       <c r="AQ9" s="20">
@@ -2569,20 +2570,20 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M10" s="4">
         <v>1.0439320000000001</v>
@@ -2616,7 +2617,7 @@
         <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2631,27 +2632,27 @@
         <v>2</v>
       </c>
       <c r="V10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.043932</v>
+      </c>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
         <f t="shared" si="3"/>
-        <v>1.043932</v>
-      </c>
-      <c r="W10" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y10" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z10" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA10" s="13">
-        <f t="shared" si="7"/>
         <v>4165.29</v>
       </c>
       <c r="AB10" s="13">
@@ -2659,7 +2660,7 @@
         <v>24000</v>
       </c>
       <c r="AC10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>19834.71</v>
       </c>
       <c r="AD10" s="10" t="str">
@@ -2668,7 +2669,7 @@
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AG10" s="15" t="str">
@@ -2676,15 +2677,15 @@
         <v>20374730429-1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK10" s="1">
@@ -2697,15 +2698,15 @@
         <v>24000</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>19834.71</v>
       </c>
       <c r="AO10" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AP10" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="AQ10" s="20">
@@ -2716,20 +2717,20 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2754,7 +2755,7 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M11" s="4">
         <v>1.3</v>
@@ -2763,7 +2764,7 @@
         <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13000</v>
       </c>
       <c r="P11" s="11" t="s">
@@ -2778,27 +2779,27 @@
         <v>2</v>
       </c>
       <c r="V11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>10000.00</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
         <f t="shared" si="3"/>
-        <v>1.3</v>
-      </c>
-      <c r="W11" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>10000.00</v>
-      </c>
-      <c r="X11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="7"/>
         <v>2256.1999999999998</v>
       </c>
       <c r="AB11" s="13">
@@ -2806,7 +2807,7 @@
         <v>13000</v>
       </c>
       <c r="AC11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>13000.00</v>
       </c>
       <c r="AD11" s="10" t="str">
@@ -2815,7 +2816,7 @@
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AG11" s="15" t="str">
@@ -2823,15 +2824,15 @@
         <v>37473042-1</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK11" s="1">
@@ -2844,15 +2845,15 @@
         <v>13000</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>10743.8</v>
       </c>
       <c r="AO11" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.3</v>
       </c>
       <c r="AP11" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>13000</v>
       </c>
       <c r="AQ11" s="20">
@@ -2863,20 +2864,20 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M12" s="4">
         <v>1.2105263157894737</v>
@@ -2910,7 +2911,7 @@
         <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>23000</v>
       </c>
       <c r="P12" s="11" t="s">
@@ -2925,27 +2926,27 @@
         <v>2</v>
       </c>
       <c r="V12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W12" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
         <f t="shared" si="3"/>
-        <v>1.210526</v>
-      </c>
-      <c r="W12" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z12" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="7"/>
         <v>3991.74</v>
       </c>
       <c r="AB12" s="13">
@@ -2953,7 +2954,7 @@
         <v>23000</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>23000.00</v>
       </c>
       <c r="AD12" s="10" t="str">
@@ -2962,7 +2963,7 @@
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AG12" s="15" t="str">
@@ -2970,15 +2971,15 @@
         <v>30707354719-1</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK12" s="1">
@@ -2991,15 +2992,15 @@
         <v>23000</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>19008.259999999998</v>
       </c>
       <c r="AO12" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AP12" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="AQ12" s="20">
@@ -3010,20 +3011,20 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Junio</v>
       </c>
       <c r="M13" s="4">
         <v>1.5</v>
@@ -3055,7 +3056,7 @@
         <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="P13" s="11"/>
@@ -3068,27 +3069,27 @@
         <v>2</v>
       </c>
       <c r="V13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W13" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W13" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z13" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB13" s="13">
@@ -3096,7 +3097,7 @@
         <v>28500</v>
       </c>
       <c r="AC13" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28500.00</v>
       </c>
       <c r="AD13" s="10" t="str">
@@ -3105,7 +3106,7 @@
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AG13" s="15" t="str">
@@ -3113,15 +3114,15 @@
         <v>-0</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="AK13" s="1">
@@ -3134,15 +3135,15 @@
         <v>28500</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>28500</v>
       </c>
       <c r="AO13" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AQ13" s="20">
@@ -3153,20 +3154,20 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3199,7 +3200,7 @@
         <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3222,27 +3223,27 @@
         <v>2</v>
       </c>
       <c r="V14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>7.024793</v>
+      </c>
+      <c r="W14" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000150</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA14" s="13">
         <f t="shared" si="3"/>
-        <v>7.024793</v>
-      </c>
-      <c r="W14" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000150</v>
-      </c>
-      <c r="Z14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="7"/>
         <v>28028.92</v>
       </c>
       <c r="AB14" s="13">
@@ -3250,7 +3251,7 @@
         <v>161499.99</v>
       </c>
       <c r="AC14" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>133471.07</v>
       </c>
       <c r="AD14" s="10" t="str">
@@ -3259,7 +3260,7 @@
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AG14" s="15" t="str">
@@ -3267,15 +3268,15 @@
         <v>30684125792-1</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK14" s="1">
@@ -3288,15 +3289,15 @@
         <v>161499.99</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>133471.07</v>
       </c>
       <c r="AO14" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AP14" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>161500</v>
       </c>
       <c r="AQ14" s="20">
@@ -3307,20 +3308,20 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3353,7 +3354,7 @@
         <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="P15" s="11" t="s">
@@ -3376,27 +3377,27 @@
         <v>2</v>
       </c>
       <c r="V15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W15" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000152</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA15" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W15" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000152</v>
-      </c>
-      <c r="Z15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="7"/>
         <v>4946.28</v>
       </c>
       <c r="AB15" s="13">
@@ -3404,7 +3405,7 @@
         <v>28500</v>
       </c>
       <c r="AC15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28500.00</v>
       </c>
       <c r="AD15" s="10" t="str">
@@ -3413,7 +3414,7 @@
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AG15" s="15" t="str">
@@ -3421,15 +3422,15 @@
         <v>30707354719-2</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK15" s="1">
@@ -3442,15 +3443,15 @@
         <v>28500</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>23553.72</v>
       </c>
       <c r="AO15" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AP15" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AQ15" s="20">
@@ -3461,20 +3462,20 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B16" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3507,7 +3508,7 @@
         <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3530,27 +3531,27 @@
         <v>2</v>
       </c>
       <c r="V16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>7.003044</v>
+      </c>
+      <c r="W16" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000151</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA16" s="13">
         <f t="shared" si="3"/>
-        <v>7.003044</v>
-      </c>
-      <c r="W16" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000151</v>
-      </c>
-      <c r="Z16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA16" s="13">
-        <f t="shared" si="7"/>
         <v>27942.15</v>
       </c>
       <c r="AB16" s="13">
@@ -3558,7 +3559,7 @@
         <v>160999.99</v>
       </c>
       <c r="AC16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>133057.84</v>
       </c>
       <c r="AD16" s="10" t="str">
@@ -3567,7 +3568,7 @@
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AG16" s="15" t="str">
@@ -3575,15 +3576,15 @@
         <v>30684125792-2</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK16" s="1">
@@ -3596,15 +3597,15 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>133057.82999999999</v>
       </c>
       <c r="AO16" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>7.003044</v>
       </c>
       <c r="AP16" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>161000</v>
       </c>
       <c r="AQ16" s="20">
@@ -3615,20 +3616,20 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B17" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45108</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45078</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45107</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45122</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3661,7 +3662,7 @@
         <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -3684,27 +3685,27 @@
         <v>2</v>
       </c>
       <c r="V17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W17" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000153</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA17" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W17" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000153</v>
-      </c>
-      <c r="Z17" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="7"/>
         <v>4946.28</v>
       </c>
       <c r="AB17" s="13">
@@ -3712,7 +3713,7 @@
         <v>28500</v>
       </c>
       <c r="AC17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28500.00</v>
       </c>
       <c r="AD17" s="10" t="str">
@@ -3721,7 +3722,7 @@
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AG17" s="15" t="str">
@@ -3729,15 +3730,15 @@
         <v>37473042-2</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK17" s="1">
@@ -3750,15 +3751,15 @@
         <v>28500</v>
       </c>
       <c r="AN17" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>23553.72</v>
       </c>
       <c r="AO17" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AP17" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AQ17" s="20">

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD680BF-2722-4D9A-9832-AD34BA28294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54E1BB-2FE6-400B-98BA-4EAA00B97F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AP$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AU$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>AUX unidades mult</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Bonif</t>
+  </si>
+  <si>
+    <t>% Bonif</t>
+  </si>
+  <si>
+    <t>% Bonif (Facturador)</t>
+  </si>
+  <si>
+    <t>Bonif Facturador</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -849,6 +864,7 @@
     <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,12 +1227,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR17"/>
+  <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,29 +1246,32 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6" customWidth="1"/>
-    <col min="35" max="35" width="5.85546875" customWidth="1"/>
-    <col min="36" max="36" width="4" customWidth="1"/>
-    <col min="37" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="25" width="8" customWidth="1"/>
+    <col min="26" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1290,118 +1309,133 @@
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AS1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AW1" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45108</v>
+        <v>45140</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">EOMONTH(A2,-1)</f>
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45122</v>
+        <v>45154</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1427,127 +1461,138 @@
       <c r="L2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2"/>
+      <c r="N2" s="4">
         <v>7.003044</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>19000</v>
       </c>
-      <c r="O2" s="5">
-        <f>M2*N2</f>
+      <c r="P2" s="5">
+        <f>N2*O2</f>
         <v>133057.83600000001</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14">
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="1" t="str">
+        <f>SUBSTITUTE(V2,",",".")</f>
+        <v/>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <f t="shared" ref="Y2:Y17" si="0">SUBSTITUTE(W2,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z2" s="14">
         <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
         <v>2</v>
       </c>
-      <c r="V2" s="18" t="str">
-        <f t="shared" ref="V2:V17" si="0">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
+      <c r="AA2" s="18" t="str">
+        <f t="shared" ref="AA2:AA17" si="1">SUBSTITUTE(IF(AO2="A",ROUND(P2/O2,6),ROUND(AG2/O2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
-      <c r="W2" s="18" t="str">
-        <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
+      <c r="AB2" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(O2,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="1">TEXT(R2,"00000")</f>
+      <c r="AC2" s="1" t="str">
+        <f t="shared" ref="AC2:AC17" si="2">TEXT(S2,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="2">TEXT(S2,"00000000")</f>
+      <c r="AD2" s="1" t="str">
+        <f t="shared" ref="AD2:AD17" si="3">TEXT(T2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="Z2" s="9">
-        <f>T2</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="3">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
+      <c r="AE2" s="9">
+        <f>U2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="13">
+        <f t="shared" ref="AF2:AF17" si="4">IF(AO2="A",ROUND(P2*Q2,2),ROUND(P2*Q2/(1+Q2),2))</f>
         <v>27942.15</v>
       </c>
-      <c r="AB2" s="13">
-        <f>IF(AJ2="A",ROUND(O2+AA2,2),ROUND(O2,2))</f>
+      <c r="AG2" s="13">
+        <f>IF(AO2="A",ROUND(P2+AF2,2),ROUND(P2,2))</f>
         <v>160999.99</v>
       </c>
-      <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="4">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+      <c r="AH2" s="10" t="str">
+        <f>IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
-      <c r="AD2" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB2,0)-AB2,"0,00"),",",".")</f>
+      <c r="AI2" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG2,0)-AG2,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="5">ROW(K2)</f>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1">
+        <f>ROW(K2)</f>
         <v>2</v>
       </c>
-      <c r="AG2" s="15" t="str">
+      <c r="AL2" s="15" t="str">
         <f>J2&amp;"-"&amp;COUNTIF($J$1:J2,J2)</f>
         <v>30525390086-1</v>
       </c>
-      <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="6">IF(K1=K2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="7">IF(K2=K3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="8">RIGHT(F2)</f>
+      <c r="AM2" s="1">
+        <f>IF(K1=K2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <f>IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="str">
+        <f>RIGHT(F2)</f>
         <v>A</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AP2" s="1">
         <f>IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="13">
-        <f>IF(RIGHT(F2,1)="A",ROUND(N2*M2*(1+P2),2),AB2)</f>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="13">
+        <f>IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
-      <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="9">ROUND((AM2/(1+P2)),2)</f>
+      <c r="AS2" s="13">
+        <f t="shared" ref="AS2:AS17" si="5">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
-      <c r="AO2" s="20">
-        <f t="shared" ref="AO2:AO17" si="10">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+      <c r="AT2" s="20">
+        <f t="shared" ref="AT2:AT17" si="6">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
-      <c r="AP2" s="13">
-        <f t="shared" ref="AP2:AP17" si="11">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+      <c r="AU2" s="13">
+        <f t="shared" ref="AU2:AU17" si="7">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
-      <c r="AQ2" s="20">
-        <f>IF(AJ2="A",ROUND(AN2/N2,6),AP2/N2)</f>
+      <c r="AV2" s="20">
+        <f>IF(AO2="A",ROUND(AS2/O2,6),AU2/O2)</f>
         <v>7.003044</v>
       </c>
-      <c r="AR2" s="2"/>
+      <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="12">TODAY()</f>
+        <f t="shared" ref="A3:A17" ca="1" si="8">TODAY()</f>
+        <v>45140</v>
+      </c>
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B17" ca="1" si="9">DATE(YEAR(C3),MONTH(C3),1)</f>
         <v>45108</v>
       </c>
-      <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="13">DATE(YEAR(C3),MONTH(C3),1)</f>
-        <v>45078</v>
-      </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="14">EOMONTH(A3,-1)</f>
-        <v>45107</v>
+        <f t="shared" ref="C3:C17" ca="1" si="10">EOMONTH(A3,-1)</f>
+        <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="15">A3+14</f>
-        <v>45122</v>
+        <f t="shared" ref="D3:D17" ca="1" si="11">A3+14</f>
+        <v>45154</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1572,129 +1617,140 @@
       </c>
       <c r="L3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M3" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="4">
         <v>8.0252280000000003</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>19000</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="16">M3*N3</f>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P17" si="12">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="14">
+      <c r="T3" s="11"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="1" t="str">
+        <f t="shared" ref="X3:X17" si="13">SUBSTITUTE(V3,",",".")</f>
+        <v/>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f>SUBSTITUTE(W3,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z3" s="14">
         <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
         <v>2</v>
       </c>
-      <c r="V3" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA3" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>8.025228</v>
       </c>
-      <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W17" si="17">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+      <c r="AB3" s="18" t="str">
+        <f t="shared" ref="AB3:AB17" si="14">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="X3" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC3" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD3" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z17" si="18">T3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE3" s="9">
+        <f t="shared" ref="AE3:AE17" si="15">U3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13">
+        <f t="shared" si="4"/>
         <v>32020.66</v>
       </c>
-      <c r="AB3" s="13">
-        <f t="shared" ref="AB3:AB17" si="19">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
+      <c r="AG3" s="13">
+        <f t="shared" ref="AG3:AG17" si="16">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
-      <c r="AC3" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH3" s="10" t="str">
+        <f>IF(RIGHT(F3,1)="A",SUBSTITUTE(TEXT(P3,"0,00"),",","."),SUBSTITUTE(TEXT(AG3,"0,00"),",","."))</f>
         <v>152479.33</v>
       </c>
-      <c r="AD3" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB3,0)-AB3,"0,00"),",",".")</f>
+      <c r="AI3" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG3,0)-AG3,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1">
+        <f>ROW(K3)</f>
         <v>3</v>
       </c>
-      <c r="AG3" s="15" t="str">
+      <c r="AL3" s="15" t="str">
         <f>J3&amp;"-"&amp;COUNTIF($J$1:J3,J3)</f>
         <v>30525733870-1</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AM3" s="1">
+        <f>IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <f>IF(K3=K4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <f>RIGHT(F3)</f>
+        <v>A</v>
+      </c>
+      <c r="AP3" s="1">
+        <f>IF(LEFT(F3,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="13">
+        <f>IF(RIGHT(F3,1)="A",ROUND(O3*N3*(1+Q3),2),AG3)</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AS3" s="13">
+        <f t="shared" si="5"/>
+        <v>152479.32999999999</v>
+      </c>
+      <c r="AT3" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AU3" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK17" si="20">IF(LEFT(F3,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="13">
-        <f t="shared" ref="AM3:AM17" si="21">IF(RIGHT(F3,1)="A",ROUND(N3*M3*(1+P3),2),AB3)</f>
-        <v>184499.99</v>
-      </c>
-      <c r="AN3" s="13">
-        <f t="shared" si="9"/>
-        <v>152479.32999999999</v>
-      </c>
-      <c r="AO3" s="20">
-        <f t="shared" si="10"/>
+        <v>184500</v>
+      </c>
+      <c r="AV3" s="20">
+        <f t="shared" ref="AV3:AV17" si="17">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
-      <c r="AP3" s="13">
-        <f t="shared" si="11"/>
-        <v>184500</v>
-      </c>
-      <c r="AQ3" s="20">
-        <f t="shared" ref="AQ3:AQ17" si="22">IF(AJ3="A",ROUND(AN3/N3,6),AP3/N3)</f>
-        <v>8.0252280000000003</v>
-      </c>
-      <c r="AR3" s="2"/>
+      <c r="AW3" s="2"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B4" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C4" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1719,129 +1775,140 @@
       </c>
       <c r="L4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M4" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="4">
         <v>10.004348999999999</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>19000</v>
       </c>
-      <c r="O4" s="5">
-        <f t="shared" si="16"/>
+      <c r="P4" s="5">
+        <f t="shared" si="12"/>
         <v>190082.63099999999</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="14">
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" ref="Y4:Y17" si="18">SUBSTITUTE(W4,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z4" s="14">
         <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
         <v>2</v>
       </c>
-      <c r="V4" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>10.004349</v>
       </c>
-      <c r="W4" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB4" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X4" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC4" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD4" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z4" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE4" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="13">
+        <f t="shared" si="4"/>
         <v>39917.35</v>
       </c>
-      <c r="AB4" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG4" s="13">
+        <f t="shared" si="16"/>
         <v>229999.98</v>
       </c>
-      <c r="AC4" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH4" s="10" t="str">
+        <f>IF(RIGHT(F4,1)="A",SUBSTITUTE(TEXT(P4,"0,00"),",","."),SUBSTITUTE(TEXT(AG4,"0,00"),",","."))</f>
         <v>190082.63</v>
       </c>
-      <c r="AD4" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB4,0)-AB4,"0,00"),",",".")</f>
+      <c r="AI4" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG4,0)-AG4,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1">
+        <f>ROW(K4)</f>
         <v>4</v>
       </c>
-      <c r="AG4" s="15" t="str">
+      <c r="AL4" s="15" t="str">
         <f>J4&amp;"-"&amp;COUNTIF($J$1:J4,J4)</f>
         <v>30610252334-1</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AM4" s="1">
+        <f>IF(K3=K4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <f>IF(K4=K5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f>RIGHT(F4)</f>
+        <v>A</v>
+      </c>
+      <c r="AP4" s="1">
+        <f>IF(LEFT(F4,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="13">
+        <f>IF(RIGHT(F4,1)="A",ROUND(O4*N4*(1+Q4),2),AG4)</f>
+        <v>229999.98</v>
+      </c>
+      <c r="AS4" s="13">
+        <f t="shared" si="5"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AT4" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU4" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK4" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="13">
-        <f t="shared" si="21"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AN4" s="13">
-        <f t="shared" si="9"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AO4" s="20">
-        <f t="shared" si="10"/>
+        <v>230000</v>
+      </c>
+      <c r="AV4" s="20">
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AP4" s="13">
-        <f t="shared" si="11"/>
-        <v>230000</v>
-      </c>
-      <c r="AQ4" s="20">
-        <f t="shared" si="22"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AR4" s="2"/>
+      <c r="AW4" s="2"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B5" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C5" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1866,129 +1933,140 @@
       </c>
       <c r="L5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M5" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4">
         <v>9.0256629999999998</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>19000</v>
       </c>
-      <c r="O5" s="5">
-        <f t="shared" si="16"/>
+      <c r="P5" s="5">
+        <f t="shared" si="12"/>
         <v>171487.59700000001</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="14">
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z5" s="14">
         <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
         <v>2</v>
       </c>
-      <c r="V5" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>9.025663</v>
       </c>
-      <c r="W5" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB5" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD5" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE5" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13">
+        <f t="shared" si="4"/>
         <v>36012.400000000001</v>
       </c>
-      <c r="AB5" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG5" s="13">
+        <f t="shared" si="16"/>
         <v>207500</v>
       </c>
-      <c r="AC5" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH5" s="10" t="str">
+        <f>IF(RIGHT(F5,1)="A",SUBSTITUTE(TEXT(P5,"0,00"),",","."),SUBSTITUTE(TEXT(AG5,"0,00"),",","."))</f>
         <v>171487.60</v>
       </c>
-      <c r="AD5" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB5,0)-AB5,"0,00"),",",".")</f>
+      <c r="AI5" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG5,0)-AG5,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1">
+        <f>ROW(K5)</f>
         <v>5</v>
       </c>
-      <c r="AG5" s="15" t="str">
+      <c r="AL5" s="15" t="str">
         <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
         <v>30710964277-1</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AM5" s="1">
+        <f>IF(K4=K5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <f>IF(K5=K6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <f>RIGHT(F5)</f>
+        <v>A</v>
+      </c>
+      <c r="AP5" s="1">
+        <f>IF(LEFT(F5,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="13">
+        <f>IF(RIGHT(F5,1)="A",ROUND(O5*N5*(1+Q5),2),AG5)</f>
+        <v>207499.99</v>
+      </c>
+      <c r="AS5" s="13">
+        <f t="shared" si="5"/>
+        <v>171487.6</v>
+      </c>
+      <c r="AT5" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AU5" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="13">
-        <f t="shared" si="21"/>
-        <v>207499.99</v>
-      </c>
-      <c r="AN5" s="13">
-        <f t="shared" si="9"/>
-        <v>171487.6</v>
-      </c>
-      <c r="AO5" s="20">
-        <f t="shared" si="10"/>
+        <v>207500</v>
+      </c>
+      <c r="AV5" s="20">
+        <f t="shared" si="17"/>
         <v>9.0256629999999998</v>
       </c>
-      <c r="AP5" s="13">
-        <f t="shared" si="11"/>
-        <v>207500</v>
-      </c>
-      <c r="AQ5" s="20">
-        <f t="shared" si="22"/>
-        <v>9.0256629999999998</v>
-      </c>
-      <c r="AR5" s="2"/>
+      <c r="AW5" s="2"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B6" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C6" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2013,137 +2091,148 @@
       </c>
       <c r="L6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M6" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="4">
         <v>5.0239229999999999</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>19000</v>
       </c>
-      <c r="O6" s="5">
-        <f t="shared" si="16"/>
+      <c r="P6" s="5">
+        <f t="shared" si="12"/>
         <v>95454.536999999997</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="12">
+      <c r="U6" s="12">
         <v>44816</v>
       </c>
-      <c r="U6" s="14">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z6" s="14">
         <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
         <v>2</v>
       </c>
-      <c r="V6" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA6" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>5.023923</v>
       </c>
-      <c r="W6" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB6" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC6" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00002</v>
       </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD6" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000003</v>
       </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="18"/>
+      <c r="AE6" s="9">
+        <f t="shared" si="15"/>
         <v>44816</v>
       </c>
-      <c r="AA6" s="13">
-        <f t="shared" si="3"/>
+      <c r="AF6" s="13">
+        <f t="shared" si="4"/>
         <v>20045.45</v>
       </c>
-      <c r="AB6" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG6" s="13">
+        <f t="shared" si="16"/>
         <v>115499.99</v>
       </c>
-      <c r="AC6" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH6" s="10" t="str">
+        <f>IF(RIGHT(F6,1)="A",SUBSTITUTE(TEXT(P6,"0,00"),",","."),SUBSTITUTE(TEXT(AG6,"0,00"),",","."))</f>
         <v>95454.54</v>
       </c>
-      <c r="AD6" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB6,0)-AB6,"0,00"),",",".")</f>
+      <c r="AI6" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG6,0)-AG6,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1">
+        <f>ROW(K6)</f>
         <v>6</v>
       </c>
-      <c r="AG6" s="15" t="str">
+      <c r="AL6" s="15" t="str">
         <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
         <v>33610006189-1</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AM6" s="1">
+        <f>IF(K5=K6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <f>IF(K6=K7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <f>RIGHT(F6)</f>
+        <v>A</v>
+      </c>
+      <c r="AP6" s="1">
+        <f>IF(LEFT(F6,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="13">
+        <f>IF(RIGHT(F6,1)="A",ROUND(O6*N6*(1+Q6),2),AG6)</f>
+        <v>115499.99</v>
+      </c>
+      <c r="AS6" s="13">
+        <f t="shared" si="5"/>
+        <v>95454.54</v>
+      </c>
+      <c r="AT6" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AU6" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="13">
-        <f t="shared" si="21"/>
-        <v>115499.99</v>
-      </c>
-      <c r="AN6" s="13">
-        <f t="shared" si="9"/>
-        <v>95454.54</v>
-      </c>
-      <c r="AO6" s="20">
-        <f t="shared" si="10"/>
+        <v>115500</v>
+      </c>
+      <c r="AV6" s="20">
+        <f t="shared" si="17"/>
         <v>5.0239229999999999</v>
       </c>
-      <c r="AP6" s="13">
-        <f t="shared" si="11"/>
-        <v>115500</v>
-      </c>
-      <c r="AQ6" s="20">
-        <f t="shared" si="22"/>
-        <v>5.0239229999999999</v>
-      </c>
-      <c r="AR6" s="2"/>
+      <c r="AW6" s="2"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B7" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C7" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2169,127 +2258,138 @@
       <c r="L7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2"/>
+      <c r="N7" s="4">
         <v>5.0021740000000001</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>19000</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" si="16"/>
+      <c r="P7" s="5">
+        <f t="shared" si="12"/>
         <v>95041.305999999997</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14">
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z7" s="14">
         <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
         <v>3</v>
       </c>
-      <c r="V7" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA7" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>5.002174</v>
       </c>
-      <c r="W7" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB7" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X7" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC7" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD7" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE7" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <f t="shared" si="4"/>
         <v>19958.669999999998</v>
       </c>
-      <c r="AB7" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG7" s="13">
+        <f t="shared" si="16"/>
         <v>114999.98</v>
       </c>
-      <c r="AC7" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH7" s="10" t="str">
+        <f>IF(RIGHT(F7,1)="A",SUBSTITUTE(TEXT(P7,"0,00"),",","."),SUBSTITUTE(TEXT(AG7,"0,00"),",","."))</f>
         <v>95041.31</v>
       </c>
-      <c r="AD7" s="10" t="str">
-        <f t="shared" ref="AD7:AD17" si="23">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
+      <c r="AI7" s="10" t="str">
+        <f t="shared" ref="AI7:AI17" si="19">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1">
+        <f>ROW(K7)</f>
         <v>7</v>
       </c>
-      <c r="AG7" s="15" t="str">
+      <c r="AL7" s="15" t="str">
         <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
         <v>33610006189-2</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AM7" s="1">
+        <f>IF(K6=K7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <f>IF(K7=K8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <f>RIGHT(F7)</f>
+        <v>A</v>
+      </c>
+      <c r="AP7" s="1">
+        <f>IF(LEFT(F7,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="13">
+        <f>IF(RIGHT(F7,1)="A",ROUND(O7*N7*(1+Q7),2),AG7)</f>
+        <v>114999.98</v>
+      </c>
+      <c r="AS7" s="13">
+        <f t="shared" si="5"/>
+        <v>95041.31</v>
+      </c>
+      <c r="AT7" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AU7" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="13">
-        <f t="shared" si="21"/>
-        <v>114999.98</v>
-      </c>
-      <c r="AN7" s="13">
-        <f t="shared" si="9"/>
-        <v>95041.31</v>
-      </c>
-      <c r="AO7" s="20">
-        <f t="shared" si="10"/>
+        <v>115000</v>
+      </c>
+      <c r="AV7" s="20">
+        <f t="shared" si="17"/>
         <v>5.0021740000000001</v>
       </c>
-      <c r="AP7" s="13">
-        <f t="shared" si="11"/>
-        <v>115000</v>
-      </c>
-      <c r="AQ7" s="20">
-        <f t="shared" si="22"/>
-        <v>5.0021740000000001</v>
-      </c>
-      <c r="AR7" s="2"/>
+      <c r="AW7" s="2"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B8" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C8" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2313,130 +2413,141 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M8" s="4">
+        <f t="shared" ref="L8:L13" ca="1" si="20">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4">
         <v>10.004348999999999</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>19000</v>
       </c>
-      <c r="O8" s="5">
-        <f t="shared" si="16"/>
+      <c r="P8" s="5">
+        <f t="shared" si="12"/>
         <v>190082.63099999999</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="14">
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z8" s="14">
         <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
         <v>2</v>
       </c>
-      <c r="V8" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>10.004349</v>
       </c>
-      <c r="W8" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB8" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X8" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y8" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD8" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE8" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="4"/>
         <v>39917.35</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AG8" s="13">
+        <f t="shared" si="16"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AH8" s="10" t="str">
+        <f>IF(RIGHT(F8,1)="A",SUBSTITUTE(TEXT(P8,"0,00"),",","."),SUBSTITUTE(TEXT(AG8,"0,00"),",","."))</f>
+        <v>190082.63</v>
+      </c>
+      <c r="AI8" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AC8" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AD8" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.02</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1">
+        <f>ROW(K8)</f>
         <v>8</v>
       </c>
-      <c r="AG8" s="15" t="str">
+      <c r="AL8" s="15" t="str">
         <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
         <v>33615420269-1</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AM8" s="1">
+        <f>IF(K7=K8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <f>IF(K8=K9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <f>RIGHT(F8)</f>
+        <v>A</v>
+      </c>
+      <c r="AP8" s="1">
+        <f>IF(LEFT(F8,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="13">
+        <f>IF(RIGHT(F8,1)="A",ROUND(O8*N8*(1+Q8),2),AG8)</f>
+        <v>229999.98</v>
+      </c>
+      <c r="AS8" s="13">
+        <f t="shared" si="5"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AT8" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU8" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK8" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="13">
-        <f t="shared" si="21"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AN8" s="13">
-        <f t="shared" si="9"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AO8" s="20">
-        <f t="shared" si="10"/>
+        <v>230000</v>
+      </c>
+      <c r="AV8" s="20">
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AP8" s="13">
-        <f t="shared" si="11"/>
-        <v>230000</v>
-      </c>
-      <c r="AQ8" s="20">
-        <f t="shared" si="22"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AR8" s="2"/>
+      <c r="AW8" s="2"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B9" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C9" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2460,130 +2571,141 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M9" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4">
         <v>1.0221830000000001</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>19000</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="16"/>
+      <c r="P9" s="5">
+        <f t="shared" si="12"/>
         <v>19421.477000000003</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="14">
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z9" s="14">
         <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
         <v>2</v>
       </c>
-      <c r="V9" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA9" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.022183</v>
       </c>
-      <c r="W9" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB9" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X9" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC9" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD9" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z9" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE9" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="4"/>
         <v>4078.51</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AG9" s="13">
+        <f t="shared" si="16"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AH9" s="10" t="str">
+        <f>IF(RIGHT(F9,1)="A",SUBSTITUTE(TEXT(P9,"0,00"),",","."),SUBSTITUTE(TEXT(AG9,"0,00"),",","."))</f>
+        <v>19421.48</v>
+      </c>
+      <c r="AI9" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AC9" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AD9" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1">
+        <f>ROW(K9)</f>
         <v>9</v>
       </c>
-      <c r="AG9" s="15" t="str">
+      <c r="AL9" s="15" t="str">
         <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
         <v>20147130202-1</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AM9" s="1">
+        <f>IF(K8=K9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <f>IF(K9=K10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <f>RIGHT(F9)</f>
+        <v>A</v>
+      </c>
+      <c r="AP9" s="1">
+        <f>IF(LEFT(F9,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="13">
+        <f>IF(RIGHT(F9,1)="A",ROUND(O9*N9*(1+Q9),2),AG9)</f>
+        <v>23499.99</v>
+      </c>
+      <c r="AS9" s="13">
+        <f t="shared" si="5"/>
+        <v>19421.48</v>
+      </c>
+      <c r="AT9" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AU9" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK9" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="13">
-        <f t="shared" si="21"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AN9" s="13">
-        <f t="shared" si="9"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AO9" s="20">
-        <f t="shared" si="10"/>
+        <v>23500</v>
+      </c>
+      <c r="AV9" s="20">
+        <f t="shared" si="17"/>
         <v>1.0221830000000001</v>
       </c>
-      <c r="AP9" s="13">
-        <f t="shared" si="11"/>
-        <v>23500</v>
-      </c>
-      <c r="AQ9" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0221830000000001</v>
-      </c>
-      <c r="AR9" s="2"/>
+      <c r="AW9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B10" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C10" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2607,130 +2729,141 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M10" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4">
         <v>1.0439320000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>19000</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="16"/>
+      <c r="P10" s="5">
+        <f t="shared" si="12"/>
         <v>19834.708000000002</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="14">
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z10" s="14">
         <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
         <v>2</v>
       </c>
-      <c r="V10" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.043932</v>
       </c>
-      <c r="W10" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB10" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X10" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC10" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y10" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD10" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE10" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <f t="shared" si="4"/>
         <v>4165.29</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AG10" s="13">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="AH10" s="10" t="str">
+        <f>IF(RIGHT(F10,1)="A",SUBSTITUTE(TEXT(P10,"0,00"),",","."),SUBSTITUTE(TEXT(AG10,"0,00"),",","."))</f>
+        <v>19834.71</v>
+      </c>
+      <c r="AI10" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>24000</v>
-      </c>
-      <c r="AC10" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AD10" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1">
+        <f>ROW(K10)</f>
         <v>10</v>
       </c>
-      <c r="AG10" s="15" t="str">
+      <c r="AL10" s="15" t="str">
         <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
         <v>20374730429-1</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AM10" s="1">
+        <f>IF(K9=K10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <f>IF(K10=K11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1" t="str">
+        <f>RIGHT(F10)</f>
+        <v>A</v>
+      </c>
+      <c r="AP10" s="1">
+        <f>IF(LEFT(F10,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="13">
+        <f>IF(RIGHT(F10,1)="A",ROUND(O10*N10*(1+Q10),2),AG10)</f>
+        <v>24000</v>
+      </c>
+      <c r="AS10" s="13">
+        <f t="shared" si="5"/>
+        <v>19834.71</v>
+      </c>
+      <c r="AT10" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AU10" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="13">
-        <f t="shared" si="21"/>
         <v>24000</v>
       </c>
-      <c r="AN10" s="13">
-        <f t="shared" si="9"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AO10" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV10" s="20">
+        <f t="shared" si="17"/>
         <v>1.0439320000000001</v>
       </c>
-      <c r="AP10" s="13">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="AQ10" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0439320000000001</v>
-      </c>
-      <c r="AR10" s="2"/>
+      <c r="AW10" s="2"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B11" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C11" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2754,130 +2887,141 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M11" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4">
         <v>1.3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>10000</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
+        <f t="shared" si="12"/>
+        <v>13000</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z11" s="14">
+        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="AB11" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>10000.00</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <f t="shared" si="4"/>
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="AG11" s="13">
         <f t="shared" si="16"/>
         <v>13000</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="14">
-        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="W11" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>10000.00</v>
-      </c>
-      <c r="X11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="3"/>
-        <v>2256.1999999999998</v>
-      </c>
-      <c r="AB11" s="13">
+      <c r="AH11" s="10" t="str">
+        <f>IF(RIGHT(F11,1)="A",SUBSTITUTE(TEXT(P11,"0,00"),",","."),SUBSTITUTE(TEXT(AG11,"0,00"),",","."))</f>
+        <v>13000.00</v>
+      </c>
+      <c r="AI11" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>13000</v>
-      </c>
-      <c r="AC11" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>13000.00</v>
-      </c>
-      <c r="AD11" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1">
+        <f>ROW(K11)</f>
         <v>11</v>
       </c>
-      <c r="AG11" s="15" t="str">
+      <c r="AL11" s="15" t="str">
         <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
         <v>37473042-1</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AM11" s="1">
+        <f>IF(K10=K11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <f>IF(K11=K12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1" t="str">
+        <f>RIGHT(F11)</f>
+        <v>B</v>
+      </c>
+      <c r="AP11" s="1">
+        <f>IF(LEFT(F11,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="13">
+        <f>IF(RIGHT(F11,1)="A",ROUND(O11*N11*(1+Q11),2),AG11)</f>
+        <v>13000</v>
+      </c>
+      <c r="AS11" s="13">
+        <f t="shared" si="5"/>
+        <v>10743.8</v>
+      </c>
+      <c r="AT11" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AU11" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK11" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="13">
-        <f t="shared" si="21"/>
         <v>13000</v>
       </c>
-      <c r="AN11" s="13">
-        <f t="shared" si="9"/>
-        <v>10743.8</v>
-      </c>
-      <c r="AO11" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV11" s="20">
+        <f t="shared" si="17"/>
         <v>1.3</v>
       </c>
-      <c r="AP11" s="13">
-        <f t="shared" si="11"/>
-        <v>13000</v>
-      </c>
-      <c r="AQ11" s="20">
-        <f t="shared" si="22"/>
-        <v>1.3</v>
-      </c>
-      <c r="AR11" s="2"/>
+      <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B12" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C12" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2901,130 +3045,141 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M12" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4">
         <v>1.2105263157894737</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>19000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
+        <f t="shared" si="12"/>
+        <v>23000</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z12" s="14">
+        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.210526</v>
+      </c>
+      <c r="AB12" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <f t="shared" si="4"/>
+        <v>3991.74</v>
+      </c>
+      <c r="AG12" s="13">
         <f t="shared" si="16"/>
         <v>23000</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="14">
-        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.210526</v>
-      </c>
-      <c r="W12" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
-      </c>
-      <c r="Y12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="3"/>
-        <v>3991.74</v>
-      </c>
-      <c r="AB12" s="13">
+      <c r="AH12" s="10" t="str">
+        <f>IF(RIGHT(F12,1)="A",SUBSTITUTE(TEXT(P12,"0,00"),",","."),SUBSTITUTE(TEXT(AG12,"0,00"),",","."))</f>
+        <v>23000.00</v>
+      </c>
+      <c r="AI12" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>23000</v>
-      </c>
-      <c r="AC12" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>23000.00</v>
-      </c>
-      <c r="AD12" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1">
+        <f>ROW(K12)</f>
         <v>12</v>
       </c>
-      <c r="AG12" s="15" t="str">
+      <c r="AL12" s="15" t="str">
         <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
         <v>30707354719-1</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AM12" s="1">
+        <f>IF(K11=K12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <f>IF(K12=K13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <f>RIGHT(F12)</f>
+        <v>B</v>
+      </c>
+      <c r="AP12" s="1">
+        <f>IF(LEFT(F12,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="13">
+        <f>IF(RIGHT(F12,1)="A",ROUND(O12*N12*(1+Q12),2),AG12)</f>
+        <v>23000</v>
+      </c>
+      <c r="AS12" s="13">
+        <f t="shared" si="5"/>
+        <v>19008.259999999998</v>
+      </c>
+      <c r="AT12" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AU12" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="13">
-        <f t="shared" si="21"/>
         <v>23000</v>
       </c>
-      <c r="AN12" s="13">
-        <f t="shared" si="9"/>
-        <v>19008.259999999998</v>
-      </c>
-      <c r="AO12" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV12" s="20">
+        <f t="shared" si="17"/>
         <v>1.2105263157894737</v>
       </c>
-      <c r="AP12" s="13">
-        <f t="shared" si="11"/>
-        <v>23000</v>
-      </c>
-      <c r="AQ12" s="20">
-        <f t="shared" si="22"/>
-        <v>1.2105263157894737</v>
-      </c>
-      <c r="AR12" s="2"/>
+      <c r="AW12" s="2"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B13" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C13" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3046,128 +3201,139 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Junio</v>
-      </c>
-      <c r="M13" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4">
         <v>1.5</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>19000</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="16"/>
+      <c r="P13" s="5">
+        <f t="shared" si="12"/>
         <v>28500</v>
       </c>
-      <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="14">
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z13" s="14">
         <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
         <v>2</v>
       </c>
-      <c r="V13" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA13" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="W13" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB13" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X13" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD13" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z13" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
+      <c r="AE13" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <f t="shared" si="16"/>
+        <v>28500</v>
+      </c>
+      <c r="AH13" s="10" t="str">
+        <f>IF(RIGHT(F13,1)="A",SUBSTITUTE(TEXT(P13,"0,00"),",","."),SUBSTITUTE(TEXT(AG13,"0,00"),",","."))</f>
+        <v>28500.00</v>
+      </c>
+      <c r="AI13" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>28500</v>
-      </c>
-      <c r="AC13" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AD13" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1">
+        <f>ROW(K13)</f>
         <v>13</v>
       </c>
-      <c r="AG13" s="15" t="str">
+      <c r="AL13" s="15" t="str">
         <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
         <v>-0</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AM13" s="1">
+        <f>IF(K12=K13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <f>IF(K13=K14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1" t="str">
+        <f>RIGHT(F13)</f>
+        <v>C</v>
+      </c>
+      <c r="AP13" s="1">
+        <f>IF(LEFT(F13,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="13">
+        <f>IF(RIGHT(F13,1)="A",ROUND(O13*N13*(1+Q13),2),AG13)</f>
+        <v>28500</v>
+      </c>
+      <c r="AS13" s="13">
+        <f t="shared" si="5"/>
+        <v>28500</v>
+      </c>
+      <c r="AT13" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AU13" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>C</v>
-      </c>
-      <c r="AK13" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="13">
-        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
-      <c r="AN13" s="13">
-        <f t="shared" si="9"/>
-        <v>28500</v>
-      </c>
-      <c r="AO13" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV13" s="20">
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="AP13" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AQ13" s="20">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR13" s="2"/>
+      <c r="AW13" s="2"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B14" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C14" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3193,135 +3359,146 @@
       <c r="L14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2"/>
+      <c r="N14" s="4">
         <v>7.0247929999999998</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>19000</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="16"/>
+      <c r="P14" s="5">
+        <f t="shared" si="12"/>
         <v>133471.06700000001</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="12">
+      <c r="U14" s="12">
         <v>44816</v>
       </c>
-      <c r="U14" s="14">
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z14" s="14">
         <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
         <v>2</v>
       </c>
-      <c r="V14" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA14" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>7.024793</v>
       </c>
-      <c r="W14" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB14" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X14" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC14" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00002</v>
       </c>
-      <c r="Y14" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD14" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000150</v>
       </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="18"/>
+      <c r="AE14" s="9">
+        <f t="shared" si="15"/>
         <v>44816</v>
       </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="3"/>
+      <c r="AF14" s="13">
+        <f t="shared" si="4"/>
         <v>28028.92</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AG14" s="13">
+        <f t="shared" si="16"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AH14" s="10" t="str">
+        <f>IF(RIGHT(F14,1)="A",SUBSTITUTE(TEXT(P14,"0,00"),",","."),SUBSTITUTE(TEXT(AG14,"0,00"),",","."))</f>
+        <v>133471.07</v>
+      </c>
+      <c r="AI14" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AC14" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AD14" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1">
+        <f>ROW(K14)</f>
         <v>14</v>
       </c>
-      <c r="AG14" s="15" t="str">
+      <c r="AL14" s="15" t="str">
         <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
         <v>30684125792-1</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AM14" s="1">
+        <f>IF(K13=K14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <f>IF(K14=K15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <f>RIGHT(F14)</f>
+        <v>A</v>
+      </c>
+      <c r="AP14" s="1">
+        <f>IF(LEFT(F14,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="13">
+        <f>IF(RIGHT(F14,1)="A",ROUND(O14*N14*(1+Q14),2),AG14)</f>
+        <v>161499.99</v>
+      </c>
+      <c r="AS14" s="13">
+        <f t="shared" si="5"/>
+        <v>133471.07</v>
+      </c>
+      <c r="AT14" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AU14" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="13">
-        <f t="shared" si="21"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AN14" s="13">
-        <f t="shared" si="9"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AO14" s="20">
-        <f t="shared" si="10"/>
+        <v>161500</v>
+      </c>
+      <c r="AV14" s="20">
+        <f t="shared" si="17"/>
         <v>7.0247929999999998</v>
       </c>
-      <c r="AP14" s="13">
-        <f t="shared" si="11"/>
-        <v>161500</v>
-      </c>
-      <c r="AQ14" s="20">
-        <f t="shared" si="22"/>
-        <v>7.0247929999999998</v>
-      </c>
-      <c r="AR14" s="2"/>
+      <c r="AW14" s="2"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B15" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C15" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3347,135 +3524,146 @@
       <c r="L15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2"/>
+      <c r="N15" s="4">
         <v>1.5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>19000</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
+        <f t="shared" si="12"/>
+        <v>28500</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="12">
+        <v>44816</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z15" s="14">
+        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB15" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000152</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="15"/>
+        <v>44816</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="4"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AG15" s="13">
         <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="12">
-        <v>44816</v>
-      </c>
-      <c r="U15" s="14">
-        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="W15" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
-      </c>
-      <c r="Y15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000152</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="18"/>
-        <v>44816</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="3"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AB15" s="13">
+      <c r="AH15" s="10" t="str">
+        <f>IF(RIGHT(F15,1)="A",SUBSTITUTE(TEXT(P15,"0,00"),",","."),SUBSTITUTE(TEXT(AG15,"0,00"),",","."))</f>
+        <v>28500.00</v>
+      </c>
+      <c r="AI15" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>28500</v>
-      </c>
-      <c r="AC15" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AD15" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1">
+        <f>ROW(K15)</f>
         <v>15</v>
       </c>
-      <c r="AG15" s="15" t="str">
+      <c r="AL15" s="15" t="str">
         <f>J15&amp;"-"&amp;COUNTIF($J$1:J15,J15)</f>
         <v>30707354719-2</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AM15" s="1">
+        <f>IF(K14=K15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <f>IF(K15=K16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1" t="str">
+        <f>RIGHT(F15)</f>
+        <v>B</v>
+      </c>
+      <c r="AP15" s="1">
+        <f>IF(LEFT(F15,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="13">
+        <f>IF(RIGHT(F15,1)="A",ROUND(O15*N15*(1+Q15),2),AG15)</f>
+        <v>28500</v>
+      </c>
+      <c r="AS15" s="13">
+        <f t="shared" si="5"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT15" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AU15" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK15" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="13">
-        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
-      <c r="AN15" s="13">
-        <f t="shared" si="9"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AO15" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV15" s="20">
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="AP15" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AQ15" s="20">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR15" s="2"/>
+      <c r="AW15" s="2"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B16" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C16" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3501,135 +3689,146 @@
       <c r="L16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2"/>
+      <c r="N16" s="4">
         <v>7.003044</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>19000</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="16"/>
+      <c r="P16" s="5">
+        <f t="shared" si="12"/>
         <v>133057.83600000001</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="12">
+      <c r="U16" s="12">
         <v>44816</v>
       </c>
-      <c r="U16" s="14">
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z16" s="14">
         <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
         <v>2</v>
       </c>
-      <c r="V16" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA16" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>7.003044</v>
       </c>
-      <c r="W16" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB16" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X16" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC16" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00002</v>
       </c>
-      <c r="Y16" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD16" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000151</v>
       </c>
-      <c r="Z16" s="9">
-        <f t="shared" si="18"/>
+      <c r="AE16" s="9">
+        <f t="shared" si="15"/>
         <v>44816</v>
       </c>
-      <c r="AA16" s="13">
-        <f t="shared" si="3"/>
+      <c r="AF16" s="13">
+        <f t="shared" si="4"/>
         <v>27942.15</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AG16" s="13">
+        <f t="shared" si="16"/>
+        <v>160999.99</v>
+      </c>
+      <c r="AH16" s="10" t="str">
+        <f>IF(RIGHT(F16,1)="A",SUBSTITUTE(TEXT(P16,"0,00"),",","."),SUBSTITUTE(TEXT(AG16,"0,00"),",","."))</f>
+        <v>133057.84</v>
+      </c>
+      <c r="AI16" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>160999.99</v>
-      </c>
-      <c r="AC16" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>133057.84</v>
-      </c>
-      <c r="AD16" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1">
+        <f>ROW(K16)</f>
         <v>16</v>
       </c>
-      <c r="AG16" s="15" t="str">
+      <c r="AL16" s="15" t="str">
         <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
         <v>30684125792-2</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AM16" s="1">
+        <f>IF(K15=K16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <f>IF(K16=K17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1" t="str">
+        <f>RIGHT(F16)</f>
+        <v>A</v>
+      </c>
+      <c r="AP16" s="1">
+        <f>IF(LEFT(F16,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="13">
+        <f>IF(RIGHT(F16,1)="A",ROUND(O16*N16*(1+Q16),2),AG16)</f>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AS16" s="13">
+        <f t="shared" si="5"/>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AT16" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>7.003044</v>
+      </c>
+      <c r="AU16" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK16" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="13">
-        <f t="shared" si="21"/>
-        <v>160999.98000000001</v>
-      </c>
-      <c r="AN16" s="13">
-        <f t="shared" si="9"/>
-        <v>133057.82999999999</v>
-      </c>
-      <c r="AO16" s="20">
-        <f t="shared" si="10"/>
+        <v>161000</v>
+      </c>
+      <c r="AV16" s="20">
+        <f t="shared" si="17"/>
         <v>7.003044</v>
       </c>
-      <c r="AP16" s="13">
-        <f t="shared" si="11"/>
-        <v>161000</v>
-      </c>
-      <c r="AQ16" s="20">
-        <f t="shared" si="22"/>
-        <v>7.003044</v>
-      </c>
-      <c r="AR16" s="2"/>
+      <c r="AW16" s="2"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" ca="1" si="9"/>
         <v>45108</v>
       </c>
-      <c r="B17" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45078</v>
-      </c>
       <c r="C17" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45122</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3655,122 +3854,133 @@
       <c r="L17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="2"/>
+      <c r="N17" s="4">
         <v>1.5</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>19000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
+        <f t="shared" si="12"/>
+        <v>28500</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="12">
+        <v>44816</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z17" s="14">
+        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB17" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000153</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="15"/>
+        <v>44816</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="4"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AG17" s="13">
         <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" s="12">
-        <v>44816</v>
-      </c>
-      <c r="U17" s="14">
-        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V17" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="W17" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000153</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="18"/>
-        <v>44816</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="3"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AB17" s="13">
+      <c r="AH17" s="10" t="str">
+        <f>IF(RIGHT(F17,1)="A",SUBSTITUTE(TEXT(P17,"0,00"),",","."),SUBSTITUTE(TEXT(AG17,"0,00"),",","."))</f>
+        <v>28500.00</v>
+      </c>
+      <c r="AI17" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>28500</v>
-      </c>
-      <c r="AC17" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AD17" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1">
+        <f>ROW(K17)</f>
         <v>17</v>
       </c>
-      <c r="AG17" s="15" t="str">
+      <c r="AL17" s="15" t="str">
         <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
         <v>37473042-2</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AM17" s="1">
+        <f>IF(K16=K17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <f>IF(K17=K18,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <f>RIGHT(F17)</f>
+        <v>B</v>
+      </c>
+      <c r="AP17" s="1">
+        <f>IF(LEFT(F17,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="13">
+        <f>IF(RIGHT(F17,1)="A",ROUND(O17*N17*(1+Q17),2),AG17)</f>
+        <v>28500</v>
+      </c>
+      <c r="AS17" s="13">
+        <f t="shared" si="5"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT17" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AU17" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK17" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="13">
-        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
-      <c r="AN17" s="13">
-        <f t="shared" si="9"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AO17" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV17" s="20">
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="AP17" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AQ17" s="20">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR17" s="2"/>
+      <c r="AW17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO17">
+  <autoFilter ref="A1:AU17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT17">
     <sortCondition ref="F2:F17"/>
     <sortCondition ref="H2:H17"/>
     <sortCondition ref="J2:J17"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D8F79-BB93-4A98-95BE-CE9A56432F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF66440F-5AB1-4C85-A240-9A8C4C47124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,10 +1247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AY12" sqref="AY12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45155</v>
+        <v>45160</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1517,11 +1517,11 @@
         <v/>
       </c>
       <c r="Z2" s="14">
-        <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
+        <f t="shared" ref="Z2:Z17" si="1">COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)+1</f>
         <v>2</v>
       </c>
       <c r="AA2" s="18" t="str">
-        <f t="shared" ref="AA2:AA17" si="1">SUBSTITUTE(IF(AO2="A",ROUND(P2/O2,6),ROUND(AG2/O2,6)),",",".")</f>
+        <f t="shared" ref="AA2:AA17" si="2">SUBSTITUTE(IF(AO2="A",ROUND(P2/O2,6),ROUND(AG2/O2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="AB2" s="18" t="str">
@@ -1529,11 +1529,11 @@
         <v>19000.00</v>
       </c>
       <c r="AC2" s="1" t="str">
-        <f t="shared" ref="AC2:AC17" si="2">TEXT(S2,"00000")</f>
+        <f t="shared" ref="AC2:AC17" si="3">TEXT(S2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AD2" s="1" t="str">
-        <f t="shared" ref="AD2:AD17" si="3">TEXT(T2,"00000000")</f>
+        <f t="shared" ref="AD2:AD17" si="4">TEXT(T2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AE2" s="9">
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="13">
-        <f t="shared" ref="AF2:AF17" si="4">IF(AO2="A",ROUND(P2*Q2,2),ROUND(P2*Q2/(1+Q2),2))</f>
+        <f t="shared" ref="AF2:AF17" si="5">IF(AO2="A",ROUND(P2*Q2,2),ROUND(P2*Q2/(1+Q2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AG2" s="13">
@@ -1549,7 +1549,7 @@
         <v>160999.99</v>
       </c>
       <c r="AH2" s="10" t="str">
-        <f t="shared" ref="AH2:AH17" si="5">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
+        <f t="shared" ref="AH2:AH17" si="6">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AI2" s="10" t="str">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK17" si="6">ROW(K2)</f>
+        <f t="shared" ref="AK2:AK17" si="7">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AL2" s="15" t="str">
@@ -1566,36 +1566,36 @@
         <v>30525390086-1</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AM17" si="7">IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AM2:AM17" si="8">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" ref="AN2:AN17" si="8">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AN2:AN17" si="9">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" ref="AO2:AO17" si="9">RIGHT(F2)</f>
+        <f t="shared" ref="AO2:AO17" si="10">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AP2" s="1">
-        <f t="shared" ref="AP2:AP17" si="10">IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AP2:AP17" si="11">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="13">
-        <f t="shared" ref="AR2:AR17" si="11">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
+        <f t="shared" ref="AR2:AR17" si="12">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AS2" s="13">
-        <f t="shared" ref="AS2:AS17" si="12">ROUND((AR2/(1+Q2)),2)</f>
+        <f t="shared" ref="AS2:AS17" si="13">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AT2" s="20">
-        <f t="shared" ref="AT2:AT17" si="13">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
+        <f t="shared" ref="AT2:AT17" si="14">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
       <c r="AU2" s="13">
-        <f t="shared" ref="AU2:AU17" si="14">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
+        <f t="shared" ref="AU2:AU17" si="15">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AV2" s="20">
@@ -1613,20 +1613,20 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
-        <v>45141</v>
+        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
+        <v>45146</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <f t="shared" ref="B3:B17" ca="1" si="17">DATE(YEAR(C3),MONTH(C3),1)</f>
         <v>45108</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="17">EOMONTH(A3,-1)</f>
+        <f t="shared" ref="C3:C17" ca="1" si="18">EOMONTH(A3,-1)</f>
         <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
-        <v>45155</v>
+        <f t="shared" ref="D3:D17" ca="1" si="19">A3+14</f>
+        <v>45160</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1661,7 +1661,7 @@
         <v>19000</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P17" si="19">N3*O3</f>
+        <f t="shared" ref="P3:P17" si="20">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="Q3" s="11" t="s">
@@ -1674,7 +1674,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X17" si="20">SUBSTITUTE(V3,",",".")</f>
+        <f t="shared" ref="X3:X17" si="21">SUBSTITUTE(V3,",",".")</f>
         <v/>
       </c>
       <c r="Y3" s="1" t="str">
@@ -1682,39 +1682,39 @@
         <v/>
       </c>
       <c r="Z3" s="14">
-        <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA3" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.025228</v>
       </c>
       <c r="AB3" s="18" t="str">
-        <f t="shared" ref="AB3:AB17" si="21">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
+        <f t="shared" ref="AB3:AB17" si="22">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AC3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD3" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="22">U3</f>
+        <f t="shared" ref="AE3:AE17" si="23">U3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32020.66</v>
       </c>
       <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG17" si="23">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
+        <f t="shared" ref="AG3:AG17" si="24">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AH3" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>152479.33</v>
       </c>
       <c r="AI3" s="10" t="str">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AL3" s="15" t="str">
@@ -1731,40 +1731,40 @@
         <v>30525733870-1</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO3" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP3" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184499.99</v>
       </c>
       <c r="AS3" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AT3" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AU3" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>184500</v>
       </c>
       <c r="AV3" s="20">
-        <f t="shared" ref="AV3:AV17" si="24">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
+        <f t="shared" ref="AV3:AV17" si="25">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AW3" s="2"/>
@@ -1778,20 +1778,20 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>19000</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -1839,47 +1839,47 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" ref="Y4:Y17" si="25">SUBSTITUTE(W4,",",".")</f>
+        <f t="shared" ref="Y4:Y17" si="26">SUBSTITUTE(W4,",",".")</f>
         <v/>
       </c>
       <c r="Z4" s="14">
-        <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA4" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.004349</v>
       </c>
       <c r="AB4" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD4" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39917.35</v>
       </c>
       <c r="AG4" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>229999.98</v>
       </c>
       <c r="AH4" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190082.63</v>
       </c>
       <c r="AI4" s="10" t="str">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AL4" s="15" t="str">
@@ -1896,40 +1896,40 @@
         <v>30610252334-1</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO4" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>229999.98</v>
       </c>
       <c r="AS4" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>190082.63</v>
       </c>
       <c r="AT4" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AU4" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>230000</v>
       </c>
       <c r="AV4" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW4" s="2"/>
@@ -1943,20 +1943,20 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>19000</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>171487.59700000001</v>
       </c>
       <c r="Q5" s="11" t="s">
@@ -2004,47 +2004,47 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z5" s="14">
-        <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA5" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.025663</v>
       </c>
       <c r="AB5" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36012.400000000001</v>
       </c>
       <c r="AG5" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>207500</v>
       </c>
       <c r="AH5" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>171487.60</v>
       </c>
       <c r="AI5" s="10" t="str">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AL5" s="15" t="str">
@@ -2061,40 +2061,40 @@
         <v>30710964277-1</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO5" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>207499.99</v>
       </c>
       <c r="AS5" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>171487.6</v>
       </c>
       <c r="AT5" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AU5" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>207500</v>
       </c>
       <c r="AV5" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AW5" s="2"/>
@@ -2108,20 +2108,20 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>19000</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95454.536999999997</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2177,47 +2177,47 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z6" s="14">
-        <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA6" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.023923</v>
       </c>
       <c r="AB6" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00002</v>
       </c>
       <c r="AD6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000003</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF6" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20045.45</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>115499.99</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95454.54</v>
       </c>
       <c r="AI6" s="10" t="str">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AL6" s="15" t="str">
@@ -2234,40 +2234,40 @@
         <v>33610006189-1</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AO6" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>115499.99</v>
       </c>
       <c r="AS6" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95454.54</v>
       </c>
       <c r="AT6" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AU6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>115500</v>
       </c>
       <c r="AV6" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AW6" s="2"/>
@@ -2281,20 +2281,20 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2328,7 +2328,7 @@
         <v>19000</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95041.305999999997</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -2341,56 +2341,56 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z7" s="14">
-        <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
+        <f>COUNTIFS(E6:E7,E7,F6:F7,F7,K6:K7,K7)+1</f>
         <v>3</v>
       </c>
       <c r="AA7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.002174</v>
       </c>
       <c r="AB7" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19958.669999999998</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>114999.98</v>
       </c>
       <c r="AH7" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95041.31</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
+        <f t="shared" ref="AI7:AI17" si="27">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AL7" s="15" t="str">
@@ -2398,40 +2398,40 @@
         <v>33610006189-2</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO7" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>114999.98</v>
       </c>
       <c r="AS7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95041.31</v>
       </c>
       <c r="AT7" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AU7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>115000</v>
       </c>
       <c r="AV7" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AW7" s="2"/>
@@ -2445,20 +2445,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2482,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="27">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" ca="1" si="28">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="M8" s="2"/>
@@ -2493,7 +2493,7 @@
         <v>19000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -2506,56 +2506,56 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y8" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z8" s="14">
-        <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
+        <f t="shared" ref="Z8:Z17" si="29">COUNTIFS(E7:E8,E8,F7:F8,F8,K7:K8,K8)+1</f>
         <v>2</v>
       </c>
       <c r="AA8" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.004349</v>
       </c>
       <c r="AB8" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39917.35</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>229999.98</v>
       </c>
       <c r="AH8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190082.63</v>
       </c>
       <c r="AI8" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AL8" s="15" t="str">
@@ -2563,40 +2563,40 @@
         <v>33615420269-1</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO8" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>229999.98</v>
       </c>
       <c r="AS8" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>190082.63</v>
       </c>
       <c r="AT8" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AU8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>230000</v>
       </c>
       <c r="AV8" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW8" s="2"/>
@@ -2610,20 +2610,20 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2647,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M9" s="2"/>
@@ -2658,7 +2658,7 @@
         <v>19000</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19421.477000000003</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -2671,56 +2671,56 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y9" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z9" s="14">
-        <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA9" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.022183</v>
       </c>
       <c r="AB9" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4078.51</v>
       </c>
       <c r="AG9" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23499.99</v>
       </c>
       <c r="AH9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19421.48</v>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AL9" s="15" t="str">
@@ -2728,40 +2728,40 @@
         <v>20147130202-1</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23499.99</v>
       </c>
       <c r="AS9" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19421.48</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AU9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23500</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AW9" s="2"/>
@@ -2775,20 +2775,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2812,7 +2812,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M10" s="2"/>
@@ -2823,7 +2823,7 @@
         <v>19000</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19834.708000000002</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -2836,56 +2836,56 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y10" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z10" s="14">
-        <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA10" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.043932</v>
       </c>
       <c r="AB10" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4165.29</v>
       </c>
       <c r="AG10" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24000</v>
       </c>
       <c r="AH10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19834.71</v>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AL10" s="15" t="str">
@@ -2893,40 +2893,40 @@
         <v>20374730429-1</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AO10" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24000</v>
       </c>
       <c r="AS10" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19834.71</v>
       </c>
       <c r="AT10" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AU10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
       <c r="AV10" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AW10" s="2"/>
@@ -2940,20 +2940,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M11" s="2"/>
@@ -2988,7 +2988,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13000</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -3001,56 +3001,56 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z11" s="14">
-        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA11" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10000.00</v>
       </c>
       <c r="AC11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2256.1999999999998</v>
       </c>
       <c r="AG11" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13000</v>
       </c>
       <c r="AH11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13000.00</v>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AL11" s="15" t="str">
@@ -3058,40 +3058,40 @@
         <v>37473042-1</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO11" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13000</v>
       </c>
       <c r="AS11" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10743.8</v>
       </c>
       <c r="AT11" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3</v>
       </c>
       <c r="AU11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13000</v>
       </c>
       <c r="AV11" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.3</v>
       </c>
       <c r="AW11" s="2"/>
@@ -3103,20 +3103,20 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3140,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M12" s="2"/>
@@ -3151,7 +3151,7 @@
         <v>19000</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23000</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -3164,56 +3164,56 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z12" s="14">
-        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA12" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.210526</v>
       </c>
       <c r="AB12" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3991.74</v>
       </c>
       <c r="AG12" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23000</v>
       </c>
       <c r="AH12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23000.00</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AL12" s="15" t="str">
@@ -3221,40 +3221,40 @@
         <v>30707354719-1</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23000</v>
       </c>
       <c r="AS12" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19008.259999999998</v>
       </c>
       <c r="AT12" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AU12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23000</v>
       </c>
       <c r="AV12" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AW12" s="2"/>
@@ -3266,20 +3266,20 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M13" s="2"/>
@@ -3312,7 +3312,7 @@
         <v>19000</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="Q13" s="11"/>
@@ -3323,56 +3323,56 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z13" s="14">
-        <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA13" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AB13" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="AD13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG13" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28500.00</v>
       </c>
       <c r="AI13" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AL13" s="15" t="str">
@@ -3380,40 +3380,40 @@
         <v>-0</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO13" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AS13" s="13">
         <f t="shared" si="12"/>
         <v>28500</v>
       </c>
+      <c r="AS13" s="13">
+        <f t="shared" si="13"/>
+        <v>28500</v>
+      </c>
       <c r="AT13" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28500</v>
       </c>
       <c r="AV13" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="AW13" s="2"/>
@@ -3425,20 +3425,20 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3472,7 +3472,7 @@
         <v>19000</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>133471.06700000001</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -3493,56 +3493,56 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z14" s="14">
-        <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA14" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.024793</v>
       </c>
       <c r="AB14" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00002</v>
       </c>
       <c r="AD14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000150</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28028.92</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>161499.99</v>
       </c>
       <c r="AH14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133471.07</v>
       </c>
       <c r="AI14" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AL14" s="15" t="str">
@@ -3550,40 +3550,40 @@
         <v>30684125792-1</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO14" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>161499.99</v>
       </c>
       <c r="AS14" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>133471.07</v>
       </c>
       <c r="AT14" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AU14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>161500</v>
       </c>
       <c r="AV14" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AW14" s="2"/>
@@ -3595,20 +3595,20 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3642,7 +3642,7 @@
         <v>19000</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -3663,56 +3663,56 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z15" s="14">
-        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA15" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AB15" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00002</v>
       </c>
       <c r="AD15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000152</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4946.28</v>
       </c>
       <c r="AG15" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH15" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28500.00</v>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AL15" s="15" t="str">
@@ -3720,40 +3720,40 @@
         <v>30707354719-2</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO15" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="AP15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28500</v>
       </c>
       <c r="AS15" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23553.72</v>
       </c>
       <c r="AT15" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="AU15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28500</v>
       </c>
       <c r="AV15" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="AW15" s="2"/>
@@ -3765,20 +3765,20 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>19000</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>133057.83600000001</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3833,56 +3833,56 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z16" s="14">
-        <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA16" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.003044</v>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00002</v>
       </c>
       <c r="AD16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000151</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF16" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27942.15</v>
       </c>
       <c r="AG16" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>160999.99</v>
       </c>
       <c r="AH16" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133057.84</v>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AL16" s="15" t="str">
@@ -3890,40 +3890,40 @@
         <v>30684125792-2</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO16" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="AP16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>160999.98000000001</v>
       </c>
       <c r="AS16" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>133057.82999999999</v>
       </c>
       <c r="AT16" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.003044</v>
       </c>
       <c r="AU16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>161000</v>
       </c>
       <c r="AV16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.003044</v>
       </c>
       <c r="AW16" s="2"/>
@@ -3935,20 +3935,20 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45146</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45108</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45138</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>45160</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3982,7 +3982,7 @@
         <v>19000</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -4003,56 +4003,56 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y17" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z17" s="14">
-        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA17" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AB17" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00002</v>
       </c>
       <c r="AD17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000153</v>
       </c>
       <c r="AE17" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4946.28</v>
       </c>
       <c r="AG17" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH17" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28500.00</v>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="AL17" s="15" t="str">
@@ -4060,40 +4060,40 @@
         <v>37473042-2</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO17" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="AP17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28500</v>
       </c>
       <c r="AS17" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23553.72</v>
       </c>
       <c r="AT17" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="AU17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28500</v>
       </c>
       <c r="AV17" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="AW17" s="2"/>
@@ -4110,7 +4110,7 @@
     <sortCondition ref="H2:H17"/>
     <sortCondition ref="J2:J17"/>
   </sortState>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY17" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
       <formula1>"SI,NO"</formula1>
     </dataValidation>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF66440F-5AB1-4C85-A240-9A8C4C47124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7482B-4B75-4CA1-B54C-8E624A9FBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1517,11 +1517,11 @@
         <v/>
       </c>
       <c r="Z2" s="14">
-        <f t="shared" ref="Z2:Z17" si="1">COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)+1</f>
+        <f>COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)+1</f>
         <v>2</v>
       </c>
       <c r="AA2" s="18" t="str">
-        <f t="shared" ref="AA2:AA17" si="2">SUBSTITUTE(IF(AO2="A",ROUND(P2/O2,6),ROUND(AG2/O2,6)),",",".")</f>
+        <f t="shared" ref="AA2:AA17" si="1">SUBSTITUTE(IF(AO2="A",ROUND(P2/O2,6),ROUND(AG2/O2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="AB2" s="18" t="str">
@@ -1529,11 +1529,11 @@
         <v>19000.00</v>
       </c>
       <c r="AC2" s="1" t="str">
-        <f t="shared" ref="AC2:AC17" si="3">TEXT(S2,"00000")</f>
+        <f t="shared" ref="AC2:AC17" si="2">TEXT(S2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AD2" s="1" t="str">
-        <f t="shared" ref="AD2:AD17" si="4">TEXT(T2,"00000000")</f>
+        <f t="shared" ref="AD2:AD17" si="3">TEXT(T2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AE2" s="9">
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="13">
-        <f t="shared" ref="AF2:AF17" si="5">IF(AO2="A",ROUND(P2*Q2,2),ROUND(P2*Q2/(1+Q2),2))</f>
+        <f t="shared" ref="AF2:AF17" si="4">IF(AO2="A",ROUND(P2*Q2,2),ROUND(P2*Q2/(1+Q2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AG2" s="13">
@@ -1549,7 +1549,7 @@
         <v>160999.99</v>
       </c>
       <c r="AH2" s="10" t="str">
-        <f t="shared" ref="AH2:AH17" si="6">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
+        <f t="shared" ref="AH2:AH17" si="5">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AI2" s="10" t="str">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK17" si="7">ROW(K2)</f>
+        <f t="shared" ref="AK2:AK17" si="6">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AL2" s="15" t="str">
@@ -1566,36 +1566,36 @@
         <v>30525390086-1</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AM17" si="8">IF(K1=K2,1,0)</f>
+        <f>COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)-1</f>
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" ref="AN2:AN17" si="9">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AN2:AN16" ca="1" si="7">IF(A3="",0,COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" ref="AO2:AO17" si="10">RIGHT(F2)</f>
+        <f t="shared" ref="AO2:AO17" si="8">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AP2" s="1">
-        <f t="shared" ref="AP2:AP17" si="11">IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AP2:AP17" si="9">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="13">
-        <f t="shared" ref="AR2:AR17" si="12">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
+        <f t="shared" ref="AR2:AR17" si="10">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AS2" s="13">
-        <f t="shared" ref="AS2:AS17" si="13">ROUND((AR2/(1+Q2)),2)</f>
+        <f t="shared" ref="AS2:AS17" si="11">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AT2" s="20">
-        <f t="shared" ref="AT2:AT17" si="14">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
+        <f t="shared" ref="AT2:AT17" si="12">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
       <c r="AU2" s="13">
-        <f t="shared" ref="AU2:AU17" si="15">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
+        <f t="shared" ref="AU2:AU17" si="13">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AV2" s="20">
@@ -1613,20 +1613,20 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
-        <v>45146</v>
+        <f t="shared" ref="A3:A17" ca="1" si="14">TODAY()</f>
+        <v>45147</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="17">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <f t="shared" ref="B3:B17" ca="1" si="15">DATE(YEAR(C3),MONTH(C3),1)</f>
         <v>45108</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="18">EOMONTH(A3,-1)</f>
+        <f t="shared" ref="C3:C17" ca="1" si="16">EOMONTH(A3,-1)</f>
         <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="19">A3+14</f>
-        <v>45160</v>
+        <f t="shared" ref="D3:D17" ca="1" si="17">A3+14</f>
+        <v>45161</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1661,7 +1661,7 @@
         <v>19000</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P17" si="20">N3*O3</f>
+        <f t="shared" ref="P3:P17" si="18">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="Q3" s="11" t="s">
@@ -1674,7 +1674,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X17" si="21">SUBSTITUTE(V3,",",".")</f>
+        <f t="shared" ref="X3:X17" si="19">SUBSTITUTE(V3,",",".")</f>
         <v/>
       </c>
       <c r="Y3" s="1" t="str">
@@ -1682,39 +1682,39 @@
         <v/>
       </c>
       <c r="Z3" s="14">
+        <f t="shared" ref="Z3:Z17" si="20">COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA3" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA3" s="18" t="str">
+        <v>8.025228</v>
+      </c>
+      <c r="AB3" s="18" t="str">
+        <f t="shared" ref="AB3:AB17" si="21">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="AC3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8.025228</v>
-      </c>
-      <c r="AB3" s="18" t="str">
-        <f t="shared" ref="AB3:AB17" si="22">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
-        <v>19000.00</v>
-      </c>
-      <c r="AC3" s="1" t="str">
+        <v>00000</v>
+      </c>
+      <c r="AD3" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD3" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="AE3" s="9">
+        <f t="shared" ref="AE3:AE17" si="22">U3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13">
         <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="23">U3</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="13">
+        <v>32020.66</v>
+      </c>
+      <c r="AG3" s="13">
+        <f t="shared" ref="AG3:AG17" si="23">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AH3" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>32020.66</v>
-      </c>
-      <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG17" si="24">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
-        <v>184499.99</v>
-      </c>
-      <c r="AH3" s="10" t="str">
-        <f t="shared" si="6"/>
         <v>152479.33</v>
       </c>
       <c r="AI3" s="10" t="str">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AL3" s="15" t="str">
@@ -1731,40 +1731,40 @@
         <v>30525733870-1</v>
       </c>
       <c r="AM3" s="1">
+        <f>COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP3" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP3" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="13">
+        <f t="shared" si="10"/>
+        <v>184499.99</v>
+      </c>
+      <c r="AS3" s="13">
+        <f t="shared" si="11"/>
+        <v>152479.32999999999</v>
+      </c>
+      <c r="AT3" s="20">
         <f t="shared" si="12"/>
-        <v>184499.99</v>
-      </c>
-      <c r="AS3" s="13">
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AU3" s="13">
         <f t="shared" si="13"/>
-        <v>152479.32999999999</v>
-      </c>
-      <c r="AT3" s="20">
-        <f t="shared" si="14"/>
-        <v>8.0252280000000003</v>
-      </c>
-      <c r="AU3" s="13">
-        <f t="shared" si="15"/>
         <v>184500</v>
       </c>
       <c r="AV3" s="20">
-        <f t="shared" ref="AV3:AV17" si="25">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
+        <f t="shared" ref="AV3:AV17" si="24">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AW3" s="2"/>
@@ -1778,20 +1778,20 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C4" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B4" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>19000</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -1839,47 +1839,47 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" ref="Y4:Y17" si="25">SUBSTITUTE(W4,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>10.004349</v>
+      </c>
+      <c r="AB4" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" ref="Y4:Y17" si="26">SUBSTITUTE(W4,",",".")</f>
-        <v/>
-      </c>
-      <c r="Z4" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA4" s="18" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10.004349</v>
-      </c>
-      <c r="AB4" s="18" t="str">
+        <v>00000</v>
+      </c>
+      <c r="AD4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE4" s="9">
         <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD4" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="13">
         <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE4" s="9">
+        <v>39917.35</v>
+      </c>
+      <c r="AG4" s="13">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="13">
+        <v>229999.98</v>
+      </c>
+      <c r="AH4" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>39917.35</v>
-      </c>
-      <c r="AG4" s="13">
-        <f t="shared" si="24"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AH4" s="10" t="str">
-        <f t="shared" si="6"/>
         <v>190082.63</v>
       </c>
       <c r="AI4" s="10" t="str">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AL4" s="15" t="str">
@@ -1896,40 +1896,40 @@
         <v>30610252334-1</v>
       </c>
       <c r="AM4" s="1">
+        <f>COUNTIFS(E3:E4,E4,F3:F4,F4,K3:K4,K4)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP4" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP4" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="13">
+        <f t="shared" si="10"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AS4" s="13">
+        <f t="shared" si="11"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AT4" s="20">
         <f t="shared" si="12"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AS4" s="13">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU4" s="13">
         <f t="shared" si="13"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AT4" s="20">
-        <f t="shared" si="14"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AU4" s="13">
-        <f t="shared" si="15"/>
         <v>230000</v>
       </c>
       <c r="AV4" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW4" s="2"/>
@@ -1943,20 +1943,20 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C5" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B5" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C5" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>19000</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>171487.59700000001</v>
       </c>
       <c r="Q5" s="11" t="s">
@@ -2004,47 +2004,47 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z5" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>9.025663</v>
+      </c>
+      <c r="AB5" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z5" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA5" s="18" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9.025663</v>
-      </c>
-      <c r="AB5" s="18" t="str">
+        <v>00000</v>
+      </c>
+      <c r="AD5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE5" s="9">
         <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC5" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD5" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13">
         <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE5" s="9">
+        <v>36012.400000000001</v>
+      </c>
+      <c r="AG5" s="13">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="13">
+        <v>207500</v>
+      </c>
+      <c r="AH5" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>36012.400000000001</v>
-      </c>
-      <c r="AG5" s="13">
-        <f t="shared" si="24"/>
-        <v>207500</v>
-      </c>
-      <c r="AH5" s="10" t="str">
-        <f t="shared" si="6"/>
         <v>171487.60</v>
       </c>
       <c r="AI5" s="10" t="str">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AL5" s="15" t="str">
@@ -2061,40 +2061,40 @@
         <v>30710964277-1</v>
       </c>
       <c r="AM5" s="1">
+        <f>COUNTIFS(E4:E5,E5,F4:F5,F5,K4:K5,K5)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP5" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP5" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="13">
+        <f t="shared" si="10"/>
+        <v>207499.99</v>
+      </c>
+      <c r="AS5" s="13">
+        <f t="shared" si="11"/>
+        <v>171487.6</v>
+      </c>
+      <c r="AT5" s="20">
         <f t="shared" si="12"/>
-        <v>207499.99</v>
-      </c>
-      <c r="AS5" s="13">
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AU5" s="13">
         <f t="shared" si="13"/>
-        <v>171487.6</v>
-      </c>
-      <c r="AT5" s="20">
-        <f t="shared" si="14"/>
-        <v>9.0256629999999998</v>
-      </c>
-      <c r="AU5" s="13">
-        <f t="shared" si="15"/>
         <v>207500</v>
       </c>
       <c r="AV5" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AW5" s="2"/>
@@ -2108,20 +2108,20 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C6" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B6" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>19000</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>95454.536999999997</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2177,47 +2177,47 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>5.023923</v>
+      </c>
+      <c r="AB6" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z6" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA6" s="18" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5.023923</v>
-      </c>
-      <c r="AB6" s="18" t="str">
+        <v>00002</v>
+      </c>
+      <c r="AD6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000003</v>
+      </c>
+      <c r="AE6" s="9">
         <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00002</v>
-      </c>
-      <c r="AD6" s="1" t="str">
+        <v>44816</v>
+      </c>
+      <c r="AF6" s="13">
         <f t="shared" si="4"/>
-        <v>00000003</v>
-      </c>
-      <c r="AE6" s="9">
+        <v>20045.45</v>
+      </c>
+      <c r="AG6" s="13">
         <f t="shared" si="23"/>
-        <v>44816</v>
-      </c>
-      <c r="AF6" s="13">
+        <v>115499.99</v>
+      </c>
+      <c r="AH6" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>20045.45</v>
-      </c>
-      <c r="AG6" s="13">
-        <f t="shared" si="24"/>
-        <v>115499.99</v>
-      </c>
-      <c r="AH6" s="10" t="str">
-        <f t="shared" si="6"/>
         <v>95454.54</v>
       </c>
       <c r="AI6" s="10" t="str">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL6" s="15" t="str">
@@ -2234,40 +2234,40 @@
         <v>33610006189-1</v>
       </c>
       <c r="AM6" s="1">
+        <f>COUNTIFS(E5:E6,E6,F5:F6,F6,K5:K6,K6)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP6" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AO6" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP6" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="13">
+        <f t="shared" si="10"/>
+        <v>115499.99</v>
+      </c>
+      <c r="AS6" s="13">
+        <f t="shared" si="11"/>
+        <v>95454.54</v>
+      </c>
+      <c r="AT6" s="20">
         <f t="shared" si="12"/>
-        <v>115499.99</v>
-      </c>
-      <c r="AS6" s="13">
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AU6" s="13">
         <f t="shared" si="13"/>
-        <v>95454.54</v>
-      </c>
-      <c r="AT6" s="20">
-        <f t="shared" si="14"/>
-        <v>5.0239229999999999</v>
-      </c>
-      <c r="AU6" s="13">
-        <f t="shared" si="15"/>
         <v>115500</v>
       </c>
       <c r="AV6" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AW6" s="2"/>
@@ -2281,20 +2281,20 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C7" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B7" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2328,7 +2328,7 @@
         <v>19000</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>95041.305999999997</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -2341,56 +2341,56 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AA7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>5.002174</v>
+      </c>
+      <c r="AB7" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z7" s="14">
-        <f>COUNTIFS(E6:E7,E7,F6:F7,F7,K6:K7,K7)+1</f>
-        <v>3</v>
-      </c>
-      <c r="AA7" s="18" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5.002174</v>
-      </c>
-      <c r="AB7" s="18" t="str">
+        <v>00000</v>
+      </c>
+      <c r="AD7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE7" s="9">
         <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD7" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
         <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE7" s="9">
+        <v>19958.669999999998</v>
+      </c>
+      <c r="AG7" s="13">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="13">
+        <v>114999.98</v>
+      </c>
+      <c r="AH7" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>19958.669999999998</v>
-      </c>
-      <c r="AG7" s="13">
-        <f t="shared" si="24"/>
-        <v>114999.98</v>
-      </c>
-      <c r="AH7" s="10" t="str">
-        <f t="shared" si="6"/>
         <v>95041.31</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" ref="AI7:AI17" si="27">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
+        <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AL7" s="15" t="str">
@@ -2398,40 +2398,40 @@
         <v>33610006189-2</v>
       </c>
       <c r="AM7" s="1">
+        <f>COUNTIFS(E6:E7,E7,F6:F7,F7,K6:K7,K7)-1</f>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AN7" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP7" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP7" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="13">
+        <f t="shared" si="10"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AS7" s="13">
+        <f t="shared" si="11"/>
+        <v>95041.31</v>
+      </c>
+      <c r="AT7" s="20">
         <f t="shared" si="12"/>
-        <v>114999.98</v>
-      </c>
-      <c r="AS7" s="13">
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AU7" s="13">
         <f t="shared" si="13"/>
-        <v>95041.31</v>
-      </c>
-      <c r="AT7" s="20">
-        <f t="shared" si="14"/>
-        <v>5.0021740000000001</v>
-      </c>
-      <c r="AU7" s="13">
-        <f t="shared" si="15"/>
         <v>115000</v>
       </c>
       <c r="AV7" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AW7" s="2"/>
@@ -2445,20 +2445,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C8" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B8" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C8" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2482,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="28">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" ca="1" si="27">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="M8" s="2"/>
@@ -2493,7 +2493,7 @@
         <v>19000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -2506,56 +2506,56 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z8" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>10.004349</v>
+      </c>
+      <c r="AB8" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y8" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE8" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="4"/>
+        <v>39917.35</v>
+      </c>
+      <c r="AG8" s="13">
+        <f t="shared" si="23"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AH8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AI8" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" ref="Z8:Z17" si="29">COUNTIFS(E7:E8,E8,F7:F8,F8,K7:K8,K8)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AA8" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>10.004349</v>
-      </c>
-      <c r="AB8" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE8" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="13">
-        <f t="shared" si="5"/>
-        <v>39917.35</v>
-      </c>
-      <c r="AG8" s="13">
-        <f t="shared" si="24"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AH8" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AI8" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AL8" s="15" t="str">
@@ -2563,40 +2563,40 @@
         <v>33615420269-1</v>
       </c>
       <c r="AM8" s="1">
+        <f>COUNTIFS(E7:E8,E8,F7:F8,F8,K7:K8,K8)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP8" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP8" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="13">
+        <f t="shared" si="10"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AS8" s="13">
+        <f t="shared" si="11"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AT8" s="20">
         <f t="shared" si="12"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AS8" s="13">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU8" s="13">
         <f t="shared" si="13"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AT8" s="20">
-        <f t="shared" si="14"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AU8" s="13">
-        <f t="shared" si="15"/>
         <v>230000</v>
       </c>
       <c r="AV8" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW8" s="2"/>
@@ -2610,20 +2610,20 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C9" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B9" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C9" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2647,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M9" s="2"/>
@@ -2658,7 +2658,7 @@
         <v>19000</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>19421.477000000003</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -2671,56 +2671,56 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.022183</v>
+      </c>
+      <c r="AB9" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y9" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="4"/>
+        <v>4078.51</v>
+      </c>
+      <c r="AG9" s="13">
+        <f t="shared" si="23"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AH9" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>19421.48</v>
+      </c>
+      <c r="AI9" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA9" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.022183</v>
-      </c>
-      <c r="AB9" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE9" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="13">
-        <f t="shared" si="5"/>
-        <v>4078.51</v>
-      </c>
-      <c r="AG9" s="13">
-        <f t="shared" si="24"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AH9" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AI9" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL9" s="15" t="str">
@@ -2728,40 +2728,40 @@
         <v>20147130202-1</v>
       </c>
       <c r="AM9" s="1">
+        <f>COUNTIFS(E8:E9,E9,F8:F9,F9,K8:K9,K9)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP9" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP9" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="13">
+        <f t="shared" si="10"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AS9" s="13">
+        <f t="shared" si="11"/>
+        <v>19421.48</v>
+      </c>
+      <c r="AT9" s="20">
         <f t="shared" si="12"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AS9" s="13">
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AU9" s="13">
         <f t="shared" si="13"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AT9" s="20">
-        <f t="shared" si="14"/>
-        <v>1.0221830000000001</v>
-      </c>
-      <c r="AU9" s="13">
-        <f t="shared" si="15"/>
         <v>23500</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AW9" s="2"/>
@@ -2775,20 +2775,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C10" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B10" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2812,7 +2812,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M10" s="2"/>
@@ -2823,7 +2823,7 @@
         <v>19000</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>19834.708000000002</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -2836,56 +2836,56 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.043932</v>
+      </c>
+      <c r="AB10" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y10" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <f t="shared" si="4"/>
+        <v>4165.29</v>
+      </c>
+      <c r="AG10" s="13">
+        <f t="shared" si="23"/>
+        <v>24000</v>
+      </c>
+      <c r="AH10" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>19834.71</v>
+      </c>
+      <c r="AI10" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z10" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA10" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.043932</v>
-      </c>
-      <c r="AB10" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE10" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13">
-        <f t="shared" si="5"/>
-        <v>4165.29</v>
-      </c>
-      <c r="AG10" s="13">
-        <f t="shared" si="24"/>
-        <v>24000</v>
-      </c>
-      <c r="AH10" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AI10" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AL10" s="15" t="str">
@@ -2893,40 +2893,40 @@
         <v>20374730429-1</v>
       </c>
       <c r="AM10" s="1">
+        <f>COUNTIFS(E9:E10,E10,F9:F10,F10,K9:K10,K10)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP10" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AO10" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP10" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="13">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="AS10" s="13">
+        <f t="shared" si="11"/>
+        <v>19834.71</v>
+      </c>
+      <c r="AT10" s="20">
         <f t="shared" si="12"/>
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AU10" s="13">
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
-      <c r="AS10" s="13">
-        <f t="shared" si="13"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AT10" s="20">
-        <f t="shared" si="14"/>
-        <v>1.0439320000000001</v>
-      </c>
-      <c r="AU10" s="13">
-        <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
       <c r="AV10" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AW10" s="2"/>
@@ -2940,20 +2940,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C11" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B11" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C11" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M11" s="2"/>
@@ -2988,7 +2988,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>13000</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -3001,56 +3001,56 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="AB11" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y11" s="1" t="str">
+        <v>10000.00</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <f t="shared" si="4"/>
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="AG11" s="13">
+        <f t="shared" si="23"/>
+        <v>13000</v>
+      </c>
+      <c r="AH11" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>13000.00</v>
+      </c>
+      <c r="AI11" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA11" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-      <c r="AB11" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>10000.00</v>
-      </c>
-      <c r="AC11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE11" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13">
-        <f t="shared" si="5"/>
-        <v>2256.1999999999998</v>
-      </c>
-      <c r="AG11" s="13">
-        <f t="shared" si="24"/>
-        <v>13000</v>
-      </c>
-      <c r="AH11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>13000.00</v>
-      </c>
-      <c r="AI11" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AL11" s="15" t="str">
@@ -3058,40 +3058,40 @@
         <v>37473042-1</v>
       </c>
       <c r="AM11" s="1">
+        <f>COUNTIFS(E10:E11,E11,F10:F11,F11,K10:K11,K11)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AN11" s="1">
+        <v>B</v>
+      </c>
+      <c r="AP11" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B</v>
-      </c>
-      <c r="AP11" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="13">
+        <f t="shared" si="10"/>
+        <v>13000</v>
+      </c>
+      <c r="AS11" s="13">
+        <f t="shared" si="11"/>
+        <v>10743.8</v>
+      </c>
+      <c r="AT11" s="20">
         <f t="shared" si="12"/>
+        <v>1.3</v>
+      </c>
+      <c r="AU11" s="13">
+        <f t="shared" si="13"/>
         <v>13000</v>
       </c>
-      <c r="AS11" s="13">
-        <f t="shared" si="13"/>
-        <v>10743.8</v>
-      </c>
-      <c r="AT11" s="20">
-        <f t="shared" si="14"/>
-        <v>1.3</v>
-      </c>
-      <c r="AU11" s="13">
-        <f t="shared" si="15"/>
-        <v>13000</v>
-      </c>
       <c r="AV11" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.3</v>
       </c>
       <c r="AW11" s="2"/>
@@ -3103,20 +3103,20 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C12" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B12" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3140,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M12" s="2"/>
@@ -3151,7 +3151,7 @@
         <v>19000</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>23000</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -3164,56 +3164,56 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.210526</v>
+      </c>
+      <c r="AB12" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y12" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <f t="shared" si="4"/>
+        <v>3991.74</v>
+      </c>
+      <c r="AG12" s="13">
+        <f t="shared" si="23"/>
+        <v>23000</v>
+      </c>
+      <c r="AH12" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>23000.00</v>
+      </c>
+      <c r="AI12" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z12" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA12" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.210526</v>
-      </c>
-      <c r="AB12" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE12" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
-        <f t="shared" si="5"/>
-        <v>3991.74</v>
-      </c>
-      <c r="AG12" s="13">
-        <f t="shared" si="24"/>
-        <v>23000</v>
-      </c>
-      <c r="AH12" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>23000.00</v>
-      </c>
-      <c r="AI12" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AL12" s="15" t="str">
@@ -3221,40 +3221,40 @@
         <v>30707354719-1</v>
       </c>
       <c r="AM12" s="1">
+        <f>COUNTIFS(E11:E12,E12,F11:F12,F12,K11:K12,K12)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="1">
+        <v>B</v>
+      </c>
+      <c r="AP12" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B</v>
-      </c>
-      <c r="AP12" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="13">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="AS12" s="13">
+        <f t="shared" si="11"/>
+        <v>19008.259999999998</v>
+      </c>
+      <c r="AT12" s="20">
         <f t="shared" si="12"/>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AU12" s="13">
+        <f t="shared" si="13"/>
         <v>23000</v>
       </c>
-      <c r="AS12" s="13">
-        <f t="shared" si="13"/>
-        <v>19008.259999999998</v>
-      </c>
-      <c r="AT12" s="20">
-        <f t="shared" si="14"/>
-        <v>1.2105263157894737</v>
-      </c>
-      <c r="AU12" s="13">
-        <f t="shared" si="15"/>
-        <v>23000</v>
-      </c>
       <c r="AV12" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AW12" s="2"/>
@@ -3266,20 +3266,20 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C13" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B13" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C13" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M13" s="2"/>
@@ -3312,7 +3312,7 @@
         <v>19000</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="Q13" s="11"/>
@@ -3323,56 +3323,56 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB13" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y13" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <f t="shared" si="23"/>
+        <v>28500</v>
+      </c>
+      <c r="AH13" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AI13" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA13" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="AB13" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000</v>
-      </c>
-      <c r="AD13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000000</v>
-      </c>
-      <c r="AE13" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="13">
-        <f t="shared" si="24"/>
-        <v>28500</v>
-      </c>
-      <c r="AH13" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AI13" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="AL13" s="15" t="str">
@@ -3380,40 +3380,40 @@
         <v>-0</v>
       </c>
       <c r="AM13" s="1">
+        <f>COUNTIFS(E12:E13,E13,F12:F13,F13,K12:K13,K13)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="1">
+        <v>C</v>
+      </c>
+      <c r="AP13" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>C</v>
-      </c>
-      <c r="AP13" s="1">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="13">
+        <f t="shared" si="10"/>
+        <v>28500</v>
+      </c>
+      <c r="AS13" s="13">
+        <f t="shared" si="11"/>
+        <v>28500</v>
+      </c>
+      <c r="AT13" s="20">
         <f t="shared" si="12"/>
-        <v>28500</v>
-      </c>
-      <c r="AS13" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AU13" s="13">
         <f t="shared" si="13"/>
         <v>28500</v>
       </c>
-      <c r="AT13" s="20">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU13" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
-      </c>
       <c r="AV13" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW13" s="2"/>
@@ -3425,20 +3425,20 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C14" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B14" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C14" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3472,7 +3472,7 @@
         <v>19000</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>133471.06700000001</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -3493,56 +3493,56 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>7.024793</v>
+      </c>
+      <c r="AB14" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y14" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000150</v>
+      </c>
+      <c r="AE14" s="9">
+        <f t="shared" si="22"/>
+        <v>44816</v>
+      </c>
+      <c r="AF14" s="13">
+        <f t="shared" si="4"/>
+        <v>28028.92</v>
+      </c>
+      <c r="AG14" s="13">
+        <f t="shared" si="23"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AH14" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>133471.07</v>
+      </c>
+      <c r="AI14" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA14" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>7.024793</v>
-      </c>
-      <c r="AB14" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00002</v>
-      </c>
-      <c r="AD14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000150</v>
-      </c>
-      <c r="AE14" s="9">
-        <f t="shared" si="23"/>
-        <v>44816</v>
-      </c>
-      <c r="AF14" s="13">
-        <f t="shared" si="5"/>
-        <v>28028.92</v>
-      </c>
-      <c r="AG14" s="13">
-        <f t="shared" si="24"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AH14" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AI14" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="AL14" s="15" t="str">
@@ -3550,40 +3550,40 @@
         <v>30684125792-1</v>
       </c>
       <c r="AM14" s="1">
+        <f>COUNTIFS(E13:E14,E14,F13:F14,F14,K13:K14,K14)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP14" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP14" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="13">
+        <f t="shared" si="10"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AS14" s="13">
+        <f t="shared" si="11"/>
+        <v>133471.07</v>
+      </c>
+      <c r="AT14" s="20">
         <f t="shared" si="12"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AS14" s="13">
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AU14" s="13">
         <f t="shared" si="13"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AT14" s="20">
-        <f t="shared" si="14"/>
-        <v>7.0247929999999998</v>
-      </c>
-      <c r="AU14" s="13">
-        <f t="shared" si="15"/>
         <v>161500</v>
       </c>
       <c r="AV14" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AW14" s="2"/>
@@ -3595,20 +3595,20 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C15" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B15" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D15" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C15" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3642,7 +3642,7 @@
         <v>19000</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -3663,56 +3663,56 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB15" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y15" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000152</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="22"/>
+        <v>44816</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="4"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AG15" s="13">
+        <f t="shared" si="23"/>
+        <v>28500</v>
+      </c>
+      <c r="AH15" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AI15" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z15" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA15" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="AB15" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00002</v>
-      </c>
-      <c r="AD15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000152</v>
-      </c>
-      <c r="AE15" s="9">
-        <f t="shared" si="23"/>
-        <v>44816</v>
-      </c>
-      <c r="AF15" s="13">
-        <f t="shared" si="5"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AG15" s="13">
-        <f t="shared" si="24"/>
-        <v>28500</v>
-      </c>
-      <c r="AH15" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AI15" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AL15" s="15" t="str">
@@ -3720,40 +3720,40 @@
         <v>30707354719-2</v>
       </c>
       <c r="AM15" s="1">
+        <f>COUNTIFS(E14:E15,E15,F14:F15,F15,K14:K15,K15)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="1">
+        <v>B</v>
+      </c>
+      <c r="AP15" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B</v>
-      </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="13">
+        <f t="shared" si="10"/>
+        <v>28500</v>
+      </c>
+      <c r="AS15" s="13">
+        <f t="shared" si="11"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT15" s="20">
         <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU15" s="13">
+        <f t="shared" si="13"/>
         <v>28500</v>
       </c>
-      <c r="AS15" s="13">
-        <f t="shared" si="13"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AT15" s="20">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU15" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
-      </c>
       <c r="AV15" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW15" s="2"/>
@@ -3765,20 +3765,20 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C16" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B16" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C16" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>19000</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>133057.83600000001</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3833,56 +3833,56 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z16" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>7.003044</v>
+      </c>
+      <c r="AB16" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y16" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000151</v>
+      </c>
+      <c r="AE16" s="9">
+        <f t="shared" si="22"/>
+        <v>44816</v>
+      </c>
+      <c r="AF16" s="13">
+        <f t="shared" si="4"/>
+        <v>27942.15</v>
+      </c>
+      <c r="AG16" s="13">
+        <f t="shared" si="23"/>
+        <v>160999.99</v>
+      </c>
+      <c r="AH16" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>133057.84</v>
+      </c>
+      <c r="AI16" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z16" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA16" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>7.003044</v>
-      </c>
-      <c r="AB16" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00002</v>
-      </c>
-      <c r="AD16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000151</v>
-      </c>
-      <c r="AE16" s="9">
-        <f t="shared" si="23"/>
-        <v>44816</v>
-      </c>
-      <c r="AF16" s="13">
-        <f t="shared" si="5"/>
-        <v>27942.15</v>
-      </c>
-      <c r="AG16" s="13">
-        <f t="shared" si="24"/>
-        <v>160999.99</v>
-      </c>
-      <c r="AH16" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>133057.84</v>
-      </c>
-      <c r="AI16" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="AL16" s="15" t="str">
@@ -3890,40 +3890,40 @@
         <v>30684125792-2</v>
       </c>
       <c r="AM16" s="1">
+        <f>COUNTIFS(E15:E16,E16,F15:F16,F16,K15:K16,K16)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
+        <v>A</v>
+      </c>
+      <c r="AP16" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>A</v>
-      </c>
-      <c r="AP16" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="13">
+        <f t="shared" si="10"/>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AS16" s="13">
+        <f t="shared" si="11"/>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AT16" s="20">
         <f t="shared" si="12"/>
-        <v>160999.98000000001</v>
-      </c>
-      <c r="AS16" s="13">
+        <v>7.003044</v>
+      </c>
+      <c r="AU16" s="13">
         <f t="shared" si="13"/>
-        <v>133057.82999999999</v>
-      </c>
-      <c r="AT16" s="20">
-        <f t="shared" si="14"/>
-        <v>7.003044</v>
-      </c>
-      <c r="AU16" s="13">
-        <f t="shared" si="15"/>
         <v>161000</v>
       </c>
       <c r="AV16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.003044</v>
       </c>
       <c r="AW16" s="2"/>
@@ -3935,20 +3935,20 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45108</v>
+      </c>
+      <c r="C17" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45146</v>
-      </c>
-      <c r="B17" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45108</v>
-      </c>
-      <c r="C17" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45138</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3982,7 +3982,7 @@
         <v>19000</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -4003,56 +4003,56 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z17" s="14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB17" s="18" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y17" s="1" t="str">
+        <v>19000.00</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000153</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="22"/>
+        <v>44816</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="4"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AG17" s="13">
+        <f t="shared" si="23"/>
+        <v>28500</v>
+      </c>
+      <c r="AH17" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AI17" s="10" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z17" s="14">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AA17" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="AB17" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AC17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00002</v>
-      </c>
-      <c r="AD17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000153</v>
-      </c>
-      <c r="AE17" s="9">
-        <f t="shared" si="23"/>
-        <v>44816</v>
-      </c>
-      <c r="AF17" s="13">
-        <f t="shared" si="5"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AG17" s="13">
-        <f t="shared" si="24"/>
-        <v>28500</v>
-      </c>
-      <c r="AH17" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AI17" s="10" t="str">
-        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="AL17" s="15" t="str">
@@ -4060,40 +4060,40 @@
         <v>37473042-2</v>
       </c>
       <c r="AM17" s="1">
+        <f>COUNTIFS(E16:E17,E17,F16:F17,F17,K16:K17,K17)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <f>IF(A18="",0,COUNTIFS(E17:E18,E18,F17:F18,F18,K17:K18,K18)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN17" s="1">
+        <v>B</v>
+      </c>
+      <c r="AP17" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B</v>
-      </c>
-      <c r="AP17" s="1">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="13">
+        <f t="shared" si="10"/>
+        <v>28500</v>
+      </c>
+      <c r="AS17" s="13">
+        <f t="shared" si="11"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT17" s="20">
         <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU17" s="13">
+        <f t="shared" si="13"/>
         <v>28500</v>
       </c>
-      <c r="AS17" s="13">
-        <f t="shared" si="13"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AT17" s="20">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU17" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
-      </c>
       <c r="AV17" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW17" s="2"/>
@@ -4110,7 +4110,7 @@
     <sortCondition ref="H2:H17"/>
     <sortCondition ref="J2:J17"/>
   </sortState>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY17" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
       <formula1>"SI,NO"</formula1>
     </dataValidation>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-Multiusuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Facturador-Multiusuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99718EB-7D94-474D-8C38-325830975684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5243C-711F-4911-BF86-AAF42ECF63AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Acá se pone el nombre a guardar de las facturas. Si se deja vacío se guarda con el nombre que define AFIP.</t>
@@ -74,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -83,10 +83,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sin ST: SI: ejecutar cuando el bot no guarda los archivos con el nombre/ubicación definida</t>
+ST: NO: ejecutar cuando el bot no guarda los archivos con el nombre/ubicación definida</t>
         </r>
       </text>
     </comment>
@@ -98,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Si se desae guardar el Archivo poner SI</t>
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 la ubicación va desde el disco hasta la \final</t>
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -155,7 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Se puede editar a necesidad de la empresa, en este caso factura a mes vencido</t>
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -179,7 +179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Se puede editar a necesidad de la empresa, en este caso factura a mes vencido</t>
@@ -194,7 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -203,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Si se deja vacío queda el default de AFIP. Ojo con CF que hay que identificar cuando supera el monto a informar</t>
@@ -218,7 +218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -227,7 +227,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Acá yo uso formulas porque generalmente facturo a mes vencido. Pero se pueden definir valores</t>
@@ -242,7 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -251,7 +251,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 si es factura C se deja vacío</t>
@@ -544,9 +544,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Sin ST</t>
-  </si>
-  <si>
     <t>Medio de Pago</t>
   </si>
   <si>
@@ -569,6 +566,9 @@
   </si>
   <si>
     <t>Otra</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -718,14 +718,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1147,7 +1147,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1515,7 +1514,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1562,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>79</v>
@@ -1608,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>87</v>
@@ -1727,7 +1726,7 @@
       <c r="B2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
@@ -1736,19 +1735,19 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G2" s="9">
         <f ca="1">DATE(YEAR(H2),MONTH(H2),1)</f>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">EOMONTH(F2,-1)</f>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I2" s="9">
         <f ca="1">F2+14</f>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -1772,7 +1771,7 @@
         <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="6" t="s">
@@ -1894,12 +1893,12 @@
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
+        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
@@ -1908,19 +1907,19 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F17" ca="1" si="20">TODAY()</f>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G17" ca="1" si="21">DATE(YEAR(H3),MONTH(H3),1)</f>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H17" ca="1" si="22">EOMONTH(F3,-1)</f>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I17" ca="1" si="23">F3+14</f>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -1944,12 +1943,12 @@
         <v>49</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G3,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="4">
@@ -2067,12 +2066,12 @@
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Julio</v>
+        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Noviembre</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
@@ -2081,19 +2080,19 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -2117,12 +2116,12 @@
         <v>41</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G4,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="4">
@@ -2240,12 +2239,12 @@
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Julio</v>
+        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Noviembre</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
@@ -2254,19 +2253,19 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2290,12 +2289,12 @@
         <v>50</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G5,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="4">
@@ -2413,12 +2412,12 @@
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
+        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
@@ -2427,19 +2426,19 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -2463,12 +2462,12 @@
         <v>36</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G6,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="4">
@@ -2599,7 +2598,7 @@
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
@@ -2608,19 +2607,19 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
@@ -2644,7 +2643,7 @@
         <v>36</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="6" t="s">
@@ -2766,12 +2765,12 @@
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Julio</v>
+        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Noviembre</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
@@ -2780,19 +2779,19 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J8" s="2">
         <v>2</v>
@@ -2816,12 +2815,12 @@
         <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="1" t="str">
         <f t="shared" ref="S8:S13" ca="1" si="30">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="4">
@@ -2939,12 +2938,12 @@
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Julio</v>
+        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Noviembre</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
@@ -2953,19 +2952,19 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -2989,12 +2988,12 @@
         <v>56</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="4">
@@ -3112,12 +3111,12 @@
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
+        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3126,19 +3125,19 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -3162,12 +3161,12 @@
         <v>55</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="4">
@@ -3285,31 +3284,31 @@
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
+        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
@@ -3333,12 +3332,12 @@
         <v>55</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="4">
@@ -3456,31 +3455,31 @@
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Julio</v>
+        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Noviembre</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -3504,12 +3503,12 @@
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="4">
@@ -3627,31 +3626,31 @@
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 -  - MARTIN BUSTOS - Honorarios Julio</v>
+        <v>1 -  - MARTIN BUSTOS - Honorarios Noviembre</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3673,12 +3672,12 @@
         <v>69</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="4">
@@ -3799,26 +3798,26 @@
       <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
@@ -3842,7 +3841,7 @@
         <v>43</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="6" t="s">
@@ -3977,26 +3976,26 @@
       <c r="B15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
@@ -4020,7 +4019,7 @@
         <v>59</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="6" t="s">
@@ -4155,26 +4154,26 @@
       <c r="B16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
@@ -4198,7 +4197,7 @@
         <v>43</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6" t="s">
@@ -4333,26 +4332,26 @@
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45278</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45292</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
@@ -4376,7 +4375,7 @@
         <v>55</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6" t="s">
@@ -4546,37 +4545,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Facturador-Multiusuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5243C-711F-4911-BF86-AAF42ECF63AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618387BD-2296-43FD-9F25-D242E28DCBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,11 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
     <sheet name="AUX" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$BA$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$BA$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -263,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -1212,6 +1215,147 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Control"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>AUX</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Facturado</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="D2"/>
+          <cell r="E2"/>
+        </row>
+        <row r="3">
+          <cell r="D3"/>
+          <cell r="E3"/>
+        </row>
+        <row r="4">
+          <cell r="D4"/>
+          <cell r="E4"/>
+        </row>
+        <row r="5">
+          <cell r="D5"/>
+          <cell r="E5"/>
+        </row>
+        <row r="6">
+          <cell r="D6"/>
+          <cell r="E6"/>
+        </row>
+        <row r="7">
+          <cell r="D7"/>
+          <cell r="E7"/>
+        </row>
+        <row r="8">
+          <cell r="D8"/>
+          <cell r="E8"/>
+        </row>
+        <row r="9">
+          <cell r="D9"/>
+          <cell r="E9"/>
+        </row>
+        <row r="10">
+          <cell r="D10"/>
+          <cell r="E10"/>
+        </row>
+        <row r="11">
+          <cell r="D11"/>
+          <cell r="E11"/>
+        </row>
+        <row r="12">
+          <cell r="D12"/>
+          <cell r="E12"/>
+        </row>
+        <row r="13">
+          <cell r="D13"/>
+          <cell r="E13"/>
+        </row>
+        <row r="14">
+          <cell r="D14"/>
+          <cell r="E14"/>
+        </row>
+        <row r="15">
+          <cell r="D15"/>
+          <cell r="E15"/>
+        </row>
+        <row r="16">
+          <cell r="D16"/>
+          <cell r="E16"/>
+        </row>
+        <row r="17">
+          <cell r="D17"/>
+          <cell r="E17"/>
+        </row>
+        <row r="18">
+          <cell r="D18"/>
+          <cell r="E18"/>
+        </row>
+        <row r="19">
+          <cell r="D19"/>
+          <cell r="E19"/>
+        </row>
+        <row r="20">
+          <cell r="D20"/>
+          <cell r="E20"/>
+        </row>
+        <row r="21">
+          <cell r="D21"/>
+          <cell r="E21"/>
+        </row>
+        <row r="22">
+          <cell r="D22"/>
+          <cell r="E22"/>
+        </row>
+        <row r="23">
+          <cell r="D23"/>
+          <cell r="E23"/>
+        </row>
+        <row r="24">
+          <cell r="D24"/>
+          <cell r="E24"/>
+        </row>
+        <row r="25">
+          <cell r="D25"/>
+          <cell r="E25"/>
+        </row>
+        <row r="26">
+          <cell r="D26"/>
+          <cell r="E26"/>
+        </row>
+        <row r="27">
+          <cell r="D27"/>
+          <cell r="E27"/>
+        </row>
+        <row r="28">
+          <cell r="D28"/>
+          <cell r="E28"/>
+        </row>
+        <row r="29">
+          <cell r="D29"/>
+          <cell r="E29"/>
+        </row>
+        <row r="30">
+          <cell r="D30"/>
+          <cell r="E30"/>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1509,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1720,13 +1864,16 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A17" si="0">CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
+        <f t="shared" ref="A2:A18" si="0">CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
         <v>2 - 30525390086 - COCA COLA FEMSA DE BUENOS AIRES S A - Ajustes Marzo/Abril 2022</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR2,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
@@ -1735,19 +1882,19 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45306</v>
       </c>
       <c r="G2" s="9">
         <f ca="1">DATE(YEAR(H2),MONTH(H2),1)</f>
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">EOMONTH(F2,-1)</f>
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="I2" s="9">
         <f ca="1">F2+14</f>
-        <v>45292</v>
+        <v>45320</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -1806,11 +1953,11 @@
         <v/>
       </c>
       <c r="AG2" s="14">
-        <f t="shared" ref="AG2:AG17" si="2">COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)+1</f>
+        <f>IF(COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)=1,2,AG1+1)</f>
         <v>2</v>
       </c>
       <c r="AH2" s="18" t="str">
-        <f t="shared" ref="AH2:AH17" si="3">SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
+        <f>SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="AI2" s="18" t="str">
@@ -1818,11 +1965,11 @@
         <v>19000.00</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="4">TEXT(Z2,"00000")</f>
+        <f>TEXT(Z2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK2" s="1" t="str">
-        <f t="shared" ref="AK2:AK17" si="5">TEXT(AA2,"00000000")</f>
+        <f>TEXT(AA2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL2" s="9">
@@ -1830,15 +1977,15 @@
         <v>0</v>
       </c>
       <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="6">IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
+        <f>IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="7">IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
+        <f>IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
         <v>160999.99</v>
       </c>
       <c r="AO2" s="10" t="str">
-        <f t="shared" ref="AO2:AO17" si="8">IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
+        <f>IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AP2" s="10" t="str">
@@ -1846,59 +1993,62 @@
         <v>0.01</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AQ17" si="9">ROW(P2)</f>
+        <f>ROW(P2)</f>
         <v>2</v>
       </c>
       <c r="AR2" s="15" t="str">
-        <f t="shared" ref="AR2:AR17" si="10">O2&amp;"-"&amp;AQ2</f>
+        <f>O2&amp;"-"&amp;AQ2</f>
         <v>30525390086-2</v>
       </c>
       <c r="AS2" s="1">
-        <f t="shared" ref="AS2:AS17" si="11">COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
+        <f>COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
         <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <f t="shared" ref="AT2:AT17" ca="1" si="12">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
+        <f ca="1">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
         <v>0</v>
       </c>
       <c r="AU2" s="1" t="str">
-        <f t="shared" ref="AU2:AU17" si="13">RIGHT(K2)</f>
+        <f>RIGHT(K2)</f>
         <v>A</v>
       </c>
       <c r="AV2" s="1">
-        <f t="shared" ref="AV2:AV17" si="14">IF(LEFT(K2,4)="Nota",0,1)</f>
+        <f>IF(LEFT(K2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW2" s="13">
-        <f t="shared" ref="AW2:AW17" si="15">IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
+        <f>IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AX2" s="13">
-        <f t="shared" ref="AX2:AX17" si="16">ROUND((AW2/(1+X2)),2)</f>
+        <f>ROUND((AW2/(1+X2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AY2" s="20">
-        <f t="shared" ref="AY2:AY17" si="17">IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
+        <f>IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
         <v>7.003044</v>
       </c>
       <c r="AZ2" s="13">
-        <f t="shared" ref="AZ2:AZ17" si="18">IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
+        <f>IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="BA2" s="20">
-        <f t="shared" ref="BA2:BA17" si="19">IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
+        <f>IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
         <v>7.003044</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
+        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Diciembre</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR3,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
@@ -1906,20 +2056,20 @@
         <v>90</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F17" ca="1" si="20">TODAY()</f>
-        <v>45278</v>
+        <f t="shared" ref="F3:F18" ca="1" si="2">TODAY()</f>
+        <v>45306</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G17" ca="1" si="21">DATE(YEAR(H3),MONTH(H3),1)</f>
-        <v>45231</v>
+        <f t="shared" ref="G3:G18" ca="1" si="3">DATE(YEAR(H3),MONTH(H3),1)</f>
+        <v>45261</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H17" ca="1" si="22">EOMONTH(F3,-1)</f>
-        <v>45260</v>
+        <f t="shared" ref="H3:H18" ca="1" si="4">EOMONTH(F3,-1)</f>
+        <v>45291</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I17" ca="1" si="23">F3+14</f>
-        <v>45292</v>
+        <f t="shared" ref="I3:I18" ca="1" si="5">F3+14</f>
+        <v>45320</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -1948,7 +2098,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G3,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="4">
@@ -1958,7 +2108,7 @@
         <v>19000</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" ref="W3:W17" si="24">U3*V3</f>
+        <f t="shared" ref="W3:W18" si="6">U3*V3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="X3" s="11" t="s">
@@ -1971,7 +2121,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="str">
-        <f t="shared" ref="AE3:AE17" si="25">SUBSTITUTE(AC3,",",".")</f>
+        <f t="shared" ref="AE3:AE18" si="7">SUBSTITUTE(AC3,",",".")</f>
         <v/>
       </c>
       <c r="AF3" s="1" t="str">
@@ -1979,39 +2129,39 @@
         <v/>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)=1,2,AG2+1)</f>
         <v>2</v>
       </c>
       <c r="AH3" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU3="A",ROUND(W3/V3,6),ROUND(AN3/V3,6)),",",".")</f>
         <v>8.025228</v>
       </c>
       <c r="AI3" s="18" t="str">
-        <f t="shared" ref="AI3:AI17" si="26">SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
+        <f>SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z3,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA3,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL3" s="9">
-        <f t="shared" ref="AL3:AL17" si="27">AB3</f>
+        <f>AB3</f>
         <v>0</v>
       </c>
       <c r="AM3" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU3="A",ROUND(W3*X3,2),ROUND(W3*X3/(1+X3),2))</f>
         <v>32020.66</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU3="A",ROUND(W3+AM3,2),ROUND(W3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AO3" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K3,1)="A",SUBSTITUTE(TEXT(W3,"0,00"),",","."),SUBSTITUTE(TEXT(AN3,"0,00"),",","."))</f>
         <v>152479.33</v>
       </c>
       <c r="AP3" s="10" t="str">
@@ -2019,59 +2169,62 @@
         <v>0.01</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P3)</f>
         <v>3</v>
       </c>
       <c r="AR3" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O3&amp;"-"&amp;AQ3</f>
         <v>30525733870-3</v>
       </c>
       <c r="AS3" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1</f>
         <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F4="",0,COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1)</f>
         <v>0</v>
       </c>
       <c r="AU3" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K3)</f>
         <v>A</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K3,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW3" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K3,1)="A",ROUND(V3*U3*(1+X3),2),AN3)</f>
         <v>184499.99</v>
       </c>
       <c r="AX3" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW3/(1+X3)),2)</f>
         <v>152479.32999999999</v>
       </c>
       <c r="AY3" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU3="A",ROUND(AX3/V3,6),AW3/V3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AZ3" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU3="A",ROUND(CEILING(V3*U3*(1+X3),500),2),ROUND(CEILING(V3*U3,500),2))</f>
         <v>184500</v>
       </c>
       <c r="BA3" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU3="A",ROUND(AX3/V3,6),AZ3/V3)</f>
         <v>8.0252280000000003</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Noviembre</v>
+        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Diciembre</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR4,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
@@ -2079,20 +2232,20 @@
         <v>90</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -2121,7 +2274,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G4,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="4">
@@ -2131,7 +2284,7 @@
         <v>19000</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>190082.63099999999</v>
       </c>
       <c r="X4" s="11" t="s">
@@ -2144,47 +2297,47 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF4" s="1" t="str">
-        <f t="shared" ref="AF4:AF17" si="28">SUBSTITUTE(AD4,",",".")</f>
+        <f t="shared" ref="AF4:AF18" si="8">SUBSTITUTE(AD4,",",".")</f>
         <v/>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)=1,2,AG3+1)</f>
         <v>2</v>
       </c>
       <c r="AH4" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU4="A",ROUND(W4/V4,6),ROUND(AN4/V4,6)),",",".")</f>
         <v>10.004349</v>
       </c>
       <c r="AI4" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V4,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z4,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA4,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" si="27"/>
+        <f>AB4</f>
         <v>0</v>
       </c>
       <c r="AM4" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU4="A",ROUND(W4*X4,2),ROUND(W4*X4/(1+X4),2))</f>
         <v>39917.35</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU4="A",ROUND(W4+AM4,2),ROUND(W4,2))</f>
         <v>229999.98</v>
       </c>
       <c r="AO4" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K4,1)="A",SUBSTITUTE(TEXT(W4,"0,00"),",","."),SUBSTITUTE(TEXT(AN4,"0,00"),",","."))</f>
         <v>190082.63</v>
       </c>
       <c r="AP4" s="10" t="str">
@@ -2192,59 +2345,62 @@
         <v>0.02</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P4)</f>
         <v>4</v>
       </c>
       <c r="AR4" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O4&amp;"-"&amp;AQ4</f>
         <v>30610252334-4</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1</f>
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F5="",0,COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1)</f>
         <v>0</v>
       </c>
       <c r="AU4" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K4)</f>
         <v>A</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K4,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW4" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K4,1)="A",ROUND(V4*U4*(1+X4),2),AN4)</f>
         <v>229999.98</v>
       </c>
       <c r="AX4" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW4/(1+X4)),2)</f>
         <v>190082.63</v>
       </c>
       <c r="AY4" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU4="A",ROUND(AX4/V4,6),AW4/V4)</f>
         <v>10.004348999999999</v>
       </c>
       <c r="AZ4" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU4="A",ROUND(CEILING(V4*U4*(1+X4),500),2),ROUND(CEILING(V4*U4,500),2))</f>
         <v>230000</v>
       </c>
       <c r="BA4" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU4="A",ROUND(AX4/V4,6),AZ4/V4)</f>
         <v>10.004348999999999</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Noviembre</v>
+        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Diciembre</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR5,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
@@ -2252,20 +2408,20 @@
         <v>90</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2294,7 +2450,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G5,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="4">
@@ -2304,7 +2460,7 @@
         <v>19000</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>171487.59700000001</v>
       </c>
       <c r="X5" s="11" t="s">
@@ -2317,47 +2473,47 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF5" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)=1,2,AG4+1)</f>
         <v>2</v>
       </c>
       <c r="AH5" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU5="A",ROUND(W5/V5,6),ROUND(AN5/V5,6)),",",".")</f>
         <v>9.025663</v>
       </c>
       <c r="AI5" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V5,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z5,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA5,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" si="27"/>
+        <f>AB5</f>
         <v>0</v>
       </c>
       <c r="AM5" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU5="A",ROUND(W5*X5,2),ROUND(W5*X5/(1+X5),2))</f>
         <v>36012.400000000001</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU5="A",ROUND(W5+AM5,2),ROUND(W5,2))</f>
         <v>207500</v>
       </c>
       <c r="AO5" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K5,1)="A",SUBSTITUTE(TEXT(W5,"0,00"),",","."),SUBSTITUTE(TEXT(AN5,"0,00"),",","."))</f>
         <v>171487.60</v>
       </c>
       <c r="AP5" s="10" t="str">
@@ -2365,59 +2521,62 @@
         <v>0.00</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P5)</f>
         <v>5</v>
       </c>
       <c r="AR5" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O5&amp;"-"&amp;AQ5</f>
         <v>30710964277-5</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1</f>
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F6="",0,COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1)</f>
         <v>0</v>
       </c>
       <c r="AU5" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K5)</f>
         <v>A</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K5,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW5" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K5,1)="A",ROUND(V5*U5*(1+X5),2),AN5)</f>
         <v>207499.99</v>
       </c>
       <c r="AX5" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW5/(1+X5)),2)</f>
         <v>171487.6</v>
       </c>
       <c r="AY5" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU5="A",ROUND(AX5/V5,6),AW5/V5)</f>
         <v>9.0256629999999998</v>
       </c>
       <c r="AZ5" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU5="A",ROUND(CEILING(V5*U5*(1+X5),500),2),ROUND(CEILING(V5*U5,500),2))</f>
         <v>207500</v>
       </c>
       <c r="BA5" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU5="A",ROUND(AX5/V5,6),AZ5/V5)</f>
         <v>9.0256629999999998</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
+        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Diciembre</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR6,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
@@ -2425,20 +2584,20 @@
         <v>90</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -2467,7 +2626,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G6,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="4">
@@ -2477,7 +2636,7 @@
         <v>19000</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>95454.536999999997</v>
       </c>
       <c r="X6" s="11" t="s">
@@ -2498,47 +2657,47 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF6" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)=1,2,AG5+1)</f>
         <v>2</v>
       </c>
       <c r="AH6" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU6="A",ROUND(W6/V6,6),ROUND(AN6/V6,6)),",",".")</f>
         <v>5.023923</v>
       </c>
       <c r="AI6" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V6,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z6,"00000")</f>
         <v>00002</v>
       </c>
       <c r="AK6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA6,"00000000")</f>
         <v>00000003</v>
       </c>
       <c r="AL6" s="9">
-        <f t="shared" si="27"/>
+        <f>AB6</f>
         <v>44816</v>
       </c>
       <c r="AM6" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU6="A",ROUND(W6*X6,2),ROUND(W6*X6/(1+X6),2))</f>
         <v>20045.45</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU6="A",ROUND(W6+AM6,2),ROUND(W6,2))</f>
         <v>115499.99</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K6,1)="A",SUBSTITUTE(TEXT(W6,"0,00"),",","."),SUBSTITUTE(TEXT(AN6,"0,00"),",","."))</f>
         <v>95454.54</v>
       </c>
       <c r="AP6" s="10" t="str">
@@ -2546,47 +2705,47 @@
         <v>0.01</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P6)</f>
         <v>6</v>
       </c>
       <c r="AR6" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O6&amp;"-"&amp;AQ6</f>
         <v>33610006189-6</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1</f>
         <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F7="",0,COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1)</f>
         <v>1</v>
       </c>
       <c r="AU6" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K6)</f>
         <v>A</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K6,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW6" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K6,1)="A",ROUND(V6*U6*(1+X6),2),AN6)</f>
         <v>115499.99</v>
       </c>
       <c r="AX6" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW6/(1+X6)),2)</f>
         <v>95454.54</v>
       </c>
       <c r="AY6" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU6="A",ROUND(AX6/V6,6),AW6/V6)</f>
         <v>5.0239229999999999</v>
       </c>
       <c r="AZ6" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU6="A",ROUND(CEILING(V6*U6*(1+X6),500),2),ROUND(CEILING(V6*U6,500),2))</f>
         <v>115500</v>
       </c>
       <c r="BA6" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU6="A",ROUND(AX6/V6,6),AZ6/V6)</f>
         <v>5.0239229999999999</v>
       </c>
     </row>
@@ -2598,7 +2757,10 @@
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR7,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
@@ -2606,20 +2768,20 @@
         <v>90</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
@@ -2657,7 +2819,7 @@
         <v>19000</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>95041.305999999997</v>
       </c>
       <c r="X7" s="11" t="s">
@@ -2670,107 +2832,110 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF7" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG7" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)=1,2,AG6+1)</f>
         <v>3</v>
       </c>
       <c r="AH7" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU7="A",ROUND(W7/V7,6),ROUND(AN7/V7,6)),",",".")</f>
         <v>5.002174</v>
       </c>
       <c r="AI7" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V7,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z7,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA7,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL7" s="9">
-        <f t="shared" si="27"/>
+        <f>AB7</f>
         <v>0</v>
       </c>
       <c r="AM7" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU7="A",ROUND(W7*X7,2),ROUND(W7*X7/(1+X7),2))</f>
         <v>19958.669999999998</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU7="A",ROUND(W7+AM7,2),ROUND(W7,2))</f>
         <v>114999.98</v>
       </c>
       <c r="AO7" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K7,1)="A",SUBSTITUTE(TEXT(W7,"0,00"),",","."),SUBSTITUTE(TEXT(AN7,"0,00"),",","."))</f>
         <v>95041.31</v>
       </c>
       <c r="AP7" s="10" t="str">
-        <f t="shared" ref="AP7:AP17" si="29">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
+        <f t="shared" ref="AP7:AP18" si="9">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P7)</f>
         <v>7</v>
       </c>
       <c r="AR7" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O7&amp;"-"&amp;AQ7</f>
         <v>33610006189-7</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1</f>
         <v>1</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F9="",0,COUNTIFS(J7:J9,J9,K7:K9,K9,P7:P9,P9)-1)</f>
         <v>0</v>
       </c>
       <c r="AU7" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K7)</f>
         <v>A</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K7,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW7" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K7,1)="A",ROUND(V7*U7*(1+X7),2),AN7)</f>
         <v>114999.98</v>
       </c>
       <c r="AX7" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW7/(1+X7)),2)</f>
         <v>95041.31</v>
       </c>
       <c r="AY7" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU7="A",ROUND(AX7/V7,6),AW7/V7)</f>
         <v>5.0021740000000001</v>
       </c>
       <c r="AZ7" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU7="A",ROUND(CEILING(V7*U7*(1+X7),500),2),ROUND(CEILING(V7*U7,500),2))</f>
         <v>115000</v>
       </c>
       <c r="BA7" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU7="A",ROUND(AX7/V7,6),AZ7/V7)</f>
         <v>5.0021740000000001</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Noviembre</v>
+        <f t="shared" ref="A8" si="10">CONCATENATE(J8," - ",O8," - ",P8," - ",S8)</f>
+        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Horas extra</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR8,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
@@ -2778,20 +2943,20 @@
         <v>90</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ref="G8" ca="1" si="11">DATE(YEAR(H8),MONTH(H8),1)</f>
+        <v>45261</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ref="H8" ca="1" si="12">EOMONTH(F8,-1)</f>
+        <v>45291</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ref="I8" ca="1" si="13">F8+14</f>
+        <v>45320</v>
       </c>
       <c r="J8" s="2">
         <v>2</v>
@@ -2809,29 +2974,28 @@
         <v>9</v>
       </c>
       <c r="O8" s="3">
-        <v>33615420269</v>
+        <v>33610006189</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="1" t="str">
-        <f t="shared" ref="S8:S13" ca="1" si="30">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+      <c r="S8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="4">
-        <v>10.004348999999999</v>
+        <v>5.0021740000000001</v>
       </c>
       <c r="V8" s="5">
         <v>19000</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="24"/>
-        <v>190082.63099999999</v>
+        <f t="shared" ref="W8" si="14">U8*V8</f>
+        <v>95041.305999999997</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>37</v>
@@ -2843,107 +3007,110 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AE8" si="15">SUBSTITUTE(AC8,",",".")</f>
         <v/>
       </c>
       <c r="AF8" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AF8" si="16">SUBSTITUTE(AD8,",",".")</f>
         <v/>
       </c>
       <c r="AG8" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>IF(COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)=1,2,AG7+1)</f>
+        <v>4</v>
       </c>
       <c r="AH8" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>10.004349</v>
+        <f>SUBSTITUTE(IF(AU8="A",ROUND(W8/V8,6),ROUND(AN8/V8,6)),",",".")</f>
+        <v>5.002174</v>
       </c>
       <c r="AI8" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V8,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z8,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA8,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL8" s="9">
-        <f t="shared" si="27"/>
+        <f>AB8</f>
         <v>0</v>
       </c>
       <c r="AM8" s="13">
-        <f t="shared" si="6"/>
-        <v>39917.35</v>
+        <f>IF(AU8="A",ROUND(W8*X8,2),ROUND(W8*X8/(1+X8),2))</f>
+        <v>19958.669999999998</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="7"/>
-        <v>229999.98</v>
+        <f>IF(AU8="A",ROUND(W8+AM8,2),ROUND(W8,2))</f>
+        <v>114999.98</v>
       </c>
       <c r="AO8" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>190082.63</v>
+        <f>IF(RIGHT(K8,1)="A",SUBSTITUTE(TEXT(W8,"0,00"),",","."),SUBSTITUTE(TEXT(AN8,"0,00"),",","."))</f>
+        <v>95041.31</v>
       </c>
       <c r="AP8" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AP8" si="17">SUBSTITUTE(TEXT(ROUNDUP(AN8,0)-AN8,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P8)</f>
         <v>8</v>
       </c>
       <c r="AR8" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>33615420269-8</v>
+        <f>O8&amp;"-"&amp;AQ8</f>
+        <v>33610006189-8</v>
       </c>
       <c r="AS8" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)-1</f>
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <f ca="1">IF(F10="",0,COUNTIFS(J8:J10,J10,K8:K10,K10,P8:P10,P10)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
       <c r="AU8" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K8)</f>
         <v>A</v>
       </c>
       <c r="AV8" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K8,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW8" s="13">
-        <f t="shared" si="15"/>
-        <v>229999.98</v>
+        <f>IF(RIGHT(K8,1)="A",ROUND(V8*U8*(1+X8),2),AN8)</f>
+        <v>114999.98</v>
       </c>
       <c r="AX8" s="13">
-        <f t="shared" si="16"/>
-        <v>190082.63</v>
+        <f>ROUND((AW8/(1+X8)),2)</f>
+        <v>95041.31</v>
       </c>
       <c r="AY8" s="20">
-        <f t="shared" si="17"/>
-        <v>10.004348999999999</v>
+        <f>IF(AU8="A",ROUND(AX8/V8,6),AW8/V8)</f>
+        <v>5.0021740000000001</v>
       </c>
       <c r="AZ8" s="13">
-        <f t="shared" si="18"/>
-        <v>230000</v>
+        <f>IF(AU8="A",ROUND(CEILING(V8*U8*(1+X8),500),2),ROUND(CEILING(V8*U8,500),2))</f>
+        <v>115000</v>
       </c>
       <c r="BA8" s="20">
-        <f t="shared" si="19"/>
-        <v>10.004348999999999</v>
+        <f>IF(AU8="A",ROUND(AX8/V8,6),AZ8/V8)</f>
+        <v>5.0021740000000001</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Noviembre</v>
+        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Diciembre</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR9,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
@@ -2951,20 +3118,20 @@
         <v>90</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -2976,35 +3143,35 @@
         <v>38</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="2">
-        <v>20147130202</v>
+      <c r="O9" s="3">
+        <v>33615420269</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ref="S9:S14" ca="1" si="18">"Honorarios "&amp;PROPER(TEXT(G9,"mmmm"))</f>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="4">
-        <v>1.0221830000000001</v>
+        <v>10.004348999999999</v>
       </c>
       <c r="V9" s="5">
         <v>19000</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="24"/>
-        <v>19421.477000000003</v>
+        <f t="shared" si="6"/>
+        <v>190082.63099999999</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>37</v>
@@ -3016,107 +3183,110 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF9" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG9" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)=1,2,AG8+1)</f>
         <v>2</v>
       </c>
       <c r="AH9" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.022183</v>
+        <f>SUBSTITUTE(IF(AU9="A",ROUND(W9/V9,6),ROUND(AN9/V9,6)),",",".")</f>
+        <v>10.004349</v>
       </c>
       <c r="AI9" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V9,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z9,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA9,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL9" s="9">
-        <f t="shared" si="27"/>
+        <f>AB9</f>
         <v>0</v>
       </c>
       <c r="AM9" s="13">
-        <f t="shared" si="6"/>
-        <v>4078.51</v>
+        <f>IF(AU9="A",ROUND(W9*X9,2),ROUND(W9*X9/(1+X9),2))</f>
+        <v>39917.35</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="7"/>
-        <v>23499.99</v>
+        <f>IF(AU9="A",ROUND(W9+AM9,2),ROUND(W9,2))</f>
+        <v>229999.98</v>
       </c>
       <c r="AO9" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>19421.48</v>
+        <f>IF(RIGHT(K9,1)="A",SUBSTITUTE(TEXT(W9,"0,00"),",","."),SUBSTITUTE(TEXT(AN9,"0,00"),",","."))</f>
+        <v>190082.63</v>
       </c>
       <c r="AP9" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0.02</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P9)</f>
         <v>9</v>
       </c>
       <c r="AR9" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>20147130202-9</v>
+        <f>O9&amp;"-"&amp;AQ9</f>
+        <v>33615420269-9</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J7:J9,J9,K7:K9,K9,P7:P9,P9)-1</f>
         <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F10="",0,COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1)</f>
         <v>0</v>
       </c>
       <c r="AU9" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K9)</f>
         <v>A</v>
       </c>
       <c r="AV9" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K9,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW9" s="13">
-        <f t="shared" si="15"/>
-        <v>23499.99</v>
+        <f>IF(RIGHT(K9,1)="A",ROUND(V9*U9*(1+X9),2),AN9)</f>
+        <v>229999.98</v>
       </c>
       <c r="AX9" s="13">
-        <f t="shared" si="16"/>
-        <v>19421.48</v>
+        <f>ROUND((AW9/(1+X9)),2)</f>
+        <v>190082.63</v>
       </c>
       <c r="AY9" s="20">
-        <f t="shared" si="17"/>
-        <v>1.0221830000000001</v>
+        <f>IF(AU9="A",ROUND(AX9/V9,6),AW9/V9)</f>
+        <v>10.004348999999999</v>
       </c>
       <c r="AZ9" s="13">
-        <f t="shared" si="18"/>
-        <v>23500</v>
+        <f>IF(AU9="A",ROUND(CEILING(V9*U9*(1+X9),500),2),ROUND(CEILING(V9*U9,500),2))</f>
+        <v>230000</v>
       </c>
       <c r="BA9" s="20">
-        <f t="shared" si="19"/>
-        <v>1.0221830000000001</v>
+        <f>IF(AU9="A",ROUND(AX9/V9,6),AZ9/V9)</f>
+        <v>10.004348999999999</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
+        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Diciembre</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR10,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3124,20 +3294,20 @@
         <v>90</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -3155,29 +3325,29 @@
         <v>9</v>
       </c>
       <c r="O10" s="2">
-        <v>20374730429</v>
+        <v>20147130202</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="4">
-        <v>1.0439320000000001</v>
+        <v>1.0221830000000001</v>
       </c>
       <c r="V10" s="5">
         <v>19000</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="24"/>
-        <v>19834.708000000002</v>
+        <f t="shared" si="6"/>
+        <v>19421.477000000003</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>37</v>
@@ -3189,144 +3359,149 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF10" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)=1,2,AG9+1)</f>
         <v>2</v>
       </c>
       <c r="AH10" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.043932</v>
+        <f>SUBSTITUTE(IF(AU10="A",ROUND(W10/V10,6),ROUND(AN10/V10,6)),",",".")</f>
+        <v>1.022183</v>
       </c>
       <c r="AI10" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V10,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z10,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA10,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL10" s="9">
-        <f t="shared" si="27"/>
+        <f>AB10</f>
         <v>0</v>
       </c>
       <c r="AM10" s="13">
-        <f t="shared" si="6"/>
-        <v>4165.29</v>
+        <f>IF(AU10="A",ROUND(W10*X10,2),ROUND(W10*X10/(1+X10),2))</f>
+        <v>4078.51</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="7"/>
-        <v>24000</v>
+        <f>IF(AU10="A",ROUND(W10+AM10,2),ROUND(W10,2))</f>
+        <v>23499.99</v>
       </c>
       <c r="AO10" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>19834.71</v>
+        <f>IF(RIGHT(K10,1)="A",SUBSTITUTE(TEXT(W10,"0,00"),",","."),SUBSTITUTE(TEXT(AN10,"0,00"),",","."))</f>
+        <v>19421.48</v>
       </c>
       <c r="AP10" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.00</v>
+        <f t="shared" si="9"/>
+        <v>0.01</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P10)</f>
         <v>10</v>
       </c>
       <c r="AR10" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>20374730429-10</v>
+        <f>O10&amp;"-"&amp;AQ10</f>
+        <v>20147130202-10</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1</f>
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F11="",0,COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K10)</f>
         <v>A</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K10,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW10" s="13">
-        <f t="shared" si="15"/>
-        <v>24000</v>
+        <f>IF(RIGHT(K10,1)="A",ROUND(V10*U10*(1+X10),2),AN10)</f>
+        <v>23499.99</v>
       </c>
       <c r="AX10" s="13">
-        <f t="shared" si="16"/>
-        <v>19834.71</v>
+        <f>ROUND((AW10/(1+X10)),2)</f>
+        <v>19421.48</v>
       </c>
       <c r="AY10" s="20">
-        <f t="shared" si="17"/>
-        <v>1.0439320000000001</v>
+        <f>IF(AU10="A",ROUND(AX10/V10,6),AW10/V10)</f>
+        <v>1.0221830000000001</v>
       </c>
       <c r="AZ10" s="13">
-        <f t="shared" si="18"/>
-        <v>24000</v>
+        <f>IF(AU10="A",ROUND(CEILING(V10*U10*(1+X10),500),2),ROUND(CEILING(V10*U10,500),2))</f>
+        <v>23500</v>
       </c>
       <c r="BA10" s="20">
-        <f t="shared" si="19"/>
-        <v>1.0439320000000001</v>
+        <f>IF(AU10="A",ROUND(AX10/V10,6),AZ10/V10)</f>
+        <v>1.0221830000000001</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
+        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Diciembre</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR11,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F11" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="O11" s="2">
-        <v>37473042</v>
+        <v>20374730429</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>55</v>
@@ -3336,19 +3511,19 @@
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="4">
-        <v>1.3</v>
+        <v>1.0439320000000001</v>
       </c>
       <c r="V11" s="5">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="24"/>
-        <v>13000</v>
+        <f t="shared" si="6"/>
+        <v>19834.708000000002</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>37</v>
@@ -3360,126 +3535,129 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF11" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG11" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)=1,2,AG10+1)</f>
         <v>2</v>
       </c>
       <c r="AH11" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.3</v>
+        <f>SUBSTITUTE(IF(AU11="A",ROUND(W11/V11,6),ROUND(AN11/V11,6)),",",".")</f>
+        <v>1.043932</v>
       </c>
       <c r="AI11" s="18" t="str">
-        <f t="shared" si="26"/>
-        <v>10000.00</v>
+        <f>SUBSTITUTE(TEXT(V11,"0,00"),",",".")</f>
+        <v>19000.00</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z11,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA11,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="27"/>
+        <f>AB11</f>
         <v>0</v>
       </c>
       <c r="AM11" s="13">
-        <f t="shared" si="6"/>
-        <v>2256.1999999999998</v>
+        <f>IF(AU11="A",ROUND(W11*X11,2),ROUND(W11*X11/(1+X11),2))</f>
+        <v>4165.29</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f>IF(AU11="A",ROUND(W11+AM11,2),ROUND(W11,2))</f>
+        <v>24000</v>
       </c>
       <c r="AO11" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>13000.00</v>
+        <f>IF(RIGHT(K11,1)="A",SUBSTITUTE(TEXT(W11,"0,00"),",","."),SUBSTITUTE(TEXT(AN11,"0,00"),",","."))</f>
+        <v>19834.71</v>
       </c>
       <c r="AP11" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0.00</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P11)</f>
         <v>11</v>
       </c>
       <c r="AR11" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>37473042-11</v>
+        <f>O11&amp;"-"&amp;AQ11</f>
+        <v>20374730429-11</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1</f>
         <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F12="",0,COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1)</f>
         <v>0</v>
       </c>
       <c r="AU11" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>B</v>
+        <f>RIGHT(K11)</f>
+        <v>A</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K11,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW11" s="13">
-        <f t="shared" si="15"/>
-        <v>13000</v>
+        <f>IF(RIGHT(K11,1)="A",ROUND(V11*U11*(1+X11),2),AN11)</f>
+        <v>24000</v>
       </c>
       <c r="AX11" s="13">
-        <f t="shared" si="16"/>
-        <v>10743.8</v>
+        <f>ROUND((AW11/(1+X11)),2)</f>
+        <v>19834.71</v>
       </c>
       <c r="AY11" s="20">
-        <f t="shared" si="17"/>
-        <v>1.3</v>
+        <f>IF(AU11="A",ROUND(AX11/V11,6),AW11/V11)</f>
+        <v>1.0439320000000001</v>
       </c>
       <c r="AZ11" s="13">
-        <f t="shared" si="18"/>
-        <v>13000</v>
+        <f>IF(AU11="A",ROUND(CEILING(V11*U11*(1+X11),500),2),ROUND(CEILING(V11*U11,500),2))</f>
+        <v>24000</v>
       </c>
       <c r="BA11" s="20">
-        <f t="shared" si="19"/>
-        <v>1.3</v>
+        <f>IF(AU11="A",ROUND(AX11/V11,6),AZ11/V11)</f>
+        <v>1.0439320000000001</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Noviembre</v>
+        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Diciembre</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR12,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -3491,35 +3669,35 @@
         <v>38</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="O12" s="2">
-        <v>30707354719</v>
+        <v>37473042</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="4">
-        <v>1.2105263157894737</v>
+        <v>1.3</v>
       </c>
       <c r="V12" s="5">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="24"/>
-        <v>23000</v>
+        <f t="shared" si="6"/>
+        <v>13000</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>37</v>
@@ -3531,166 +3709,173 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF12" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)=1,2,AG11+1)</f>
         <v>2</v>
       </c>
       <c r="AH12" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.210526</v>
+        <f>SUBSTITUTE(IF(AU12="A",ROUND(W12/V12,6),ROUND(AN12/V12,6)),",",".")</f>
+        <v>1.3</v>
       </c>
       <c r="AI12" s="18" t="str">
-        <f t="shared" si="26"/>
-        <v>19000.00</v>
+        <f>SUBSTITUTE(TEXT(V12,"0,00"),",",".")</f>
+        <v>10000.00</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z12,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA12,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL12" s="9">
-        <f t="shared" si="27"/>
+        <f>AB12</f>
         <v>0</v>
       </c>
       <c r="AM12" s="13">
-        <f t="shared" si="6"/>
-        <v>3991.74</v>
+        <f>IF(AU12="A",ROUND(W12*X12,2),ROUND(W12*X12/(1+X12),2))</f>
+        <v>2256.1999999999998</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="7"/>
-        <v>23000</v>
+        <f>IF(AU12="A",ROUND(W12+AM12,2),ROUND(W12,2))</f>
+        <v>13000</v>
       </c>
       <c r="AO12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>23000.00</v>
+        <f>IF(RIGHT(K12,1)="A",SUBSTITUTE(TEXT(W12,"0,00"),",","."),SUBSTITUTE(TEXT(AN12,"0,00"),",","."))</f>
+        <v>13000.00</v>
       </c>
       <c r="AP12" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0.00</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P12)</f>
         <v>12</v>
       </c>
       <c r="AR12" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30707354719-12</v>
+        <f>O12&amp;"-"&amp;AQ12</f>
+        <v>37473042-12</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1</f>
         <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F13="",0,COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1)</f>
         <v>0</v>
       </c>
       <c r="AU12" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K12)</f>
         <v>B</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K12,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW12" s="13">
-        <f t="shared" si="15"/>
-        <v>23000</v>
+        <f>IF(RIGHT(K12,1)="A",ROUND(V12*U12*(1+X12),2),AN12)</f>
+        <v>13000</v>
       </c>
       <c r="AX12" s="13">
-        <f t="shared" si="16"/>
-        <v>19008.259999999998</v>
+        <f>ROUND((AW12/(1+X12)),2)</f>
+        <v>10743.8</v>
       </c>
       <c r="AY12" s="20">
-        <f t="shared" si="17"/>
-        <v>1.2105263157894737</v>
+        <f>IF(AU12="A",ROUND(AX12/V12,6),AW12/V12)</f>
+        <v>1.3</v>
       </c>
       <c r="AZ12" s="13">
-        <f t="shared" si="18"/>
-        <v>23000</v>
+        <f>IF(AU12="A",ROUND(CEILING(V12*U12*(1+X12),500),2),ROUND(CEILING(V12*U12,500),2))</f>
+        <v>13000</v>
       </c>
       <c r="BA12" s="20">
-        <f t="shared" si="19"/>
-        <v>1.2105263157894737</v>
+        <f>IF(AU12="A",ROUND(AX12/V12,6),AZ12/V12)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 -  - MARTIN BUSTOS - Honorarios Noviembre</v>
+        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Diciembre</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR13,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>30707354719</v>
+      </c>
       <c r="P13" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="4">
-        <v>1.5</v>
+        <v>1.2105263157894737</v>
       </c>
       <c r="V13" s="5">
         <v>19000</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="24"/>
-        <v>28500</v>
-      </c>
-      <c r="X13" s="11"/>
+        <f t="shared" si="6"/>
+        <v>23000</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
@@ -3698,355 +3883,350 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF13" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG13" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)=1,2,AG12+1)</f>
         <v>2</v>
       </c>
       <c r="AH13" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f>SUBSTITUTE(IF(AU13="A",ROUND(W13/V13,6),ROUND(AN13/V13,6)),",",".")</f>
+        <v>1.210526</v>
       </c>
       <c r="AI13" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V13,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z13,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA13,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="27"/>
+        <f>AB13</f>
         <v>0</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU13="A",ROUND(W13*X13,2),ROUND(W13*X13/(1+X13),2))</f>
+        <v>3991.74</v>
+      </c>
+      <c r="AN13" s="13">
+        <f>IF(AU13="A",ROUND(W13+AM13,2),ROUND(W13,2))</f>
+        <v>23000</v>
+      </c>
+      <c r="AO13" s="10" t="str">
+        <f>IF(RIGHT(K13,1)="A",SUBSTITUTE(TEXT(W13,"0,00"),",","."),SUBSTITUTE(TEXT(AN13,"0,00"),",","."))</f>
+        <v>23000.00</v>
+      </c>
+      <c r="AP13" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f>ROW(P13)</f>
+        <v>13</v>
+      </c>
+      <c r="AR13" s="15" t="str">
+        <f>O13&amp;"-"&amp;AQ13</f>
+        <v>30707354719-13</v>
+      </c>
+      <c r="AS13" s="1">
+        <f>COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="13">
-        <f t="shared" si="7"/>
-        <v>28500</v>
-      </c>
-      <c r="AO13" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AP13" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ13" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AR13" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>-13</v>
-      </c>
-      <c r="AS13" s="1">
-        <f t="shared" si="11"/>
+      <c r="AT13" s="1">
+        <f ca="1">IF(F14="",0,COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
       <c r="AU13" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>C</v>
+        <f>RIGHT(K13)</f>
+        <v>B</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K13,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW13" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
+        <f>IF(RIGHT(K13,1)="A",ROUND(V13*U13*(1+X13),2),AN13)</f>
+        <v>23000</v>
       </c>
       <c r="AX13" s="13">
-        <f t="shared" si="16"/>
-        <v>28500</v>
+        <f>ROUND((AW13/(1+X13)),2)</f>
+        <v>19008.259999999998</v>
       </c>
       <c r="AY13" s="20">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f>IF(AU13="A",ROUND(AX13/V13,6),AW13/V13)</f>
+        <v>1.2105263157894737</v>
       </c>
       <c r="AZ13" s="13">
-        <f t="shared" si="18"/>
-        <v>28500</v>
+        <f>IF(AU13="A",ROUND(CEILING(V13*U13*(1+X13),500),2),ROUND(CEILING(V13*U13,500),2))</f>
+        <v>23000</v>
       </c>
       <c r="BA13" s="20">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>IF(AU13="A",ROUND(AX13/V13,6),AZ13/V13)</f>
+        <v>1.2105263157894737</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1 -  - MARTIN BUSTOS - Honorarios Diciembre</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR14,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="3">
-        <v>30684125792</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="6" t="s">
-        <v>44</v>
+      <c r="S14" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="4">
-        <v>7.0247929999999998</v>
+        <v>1.5</v>
       </c>
       <c r="V14" s="5">
         <v>19000</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="24"/>
-        <v>133471.06700000001</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>44816</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>28500</v>
+      </c>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF14" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG14" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)=1,2,AG13+1)</f>
         <v>2</v>
       </c>
       <c r="AH14" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>7.024793</v>
+        <f>SUBSTITUTE(IF(AU14="A",ROUND(W14/V14,6),ROUND(AN14/V14,6)),",",".")</f>
+        <v>1.5</v>
       </c>
       <c r="AI14" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V14,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
+        <f>TEXT(Z14,"00000")</f>
+        <v>00000</v>
       </c>
       <c r="AK14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000150</v>
+        <f>TEXT(AA14,"00000000")</f>
+        <v>00000000</v>
       </c>
       <c r="AL14" s="9">
-        <f t="shared" si="27"/>
-        <v>44816</v>
+        <f>AB14</f>
+        <v>0</v>
       </c>
       <c r="AM14" s="13">
-        <f t="shared" si="6"/>
-        <v>28028.92</v>
+        <f>IF(AU14="A",ROUND(W14*X14,2),ROUND(W14*X14/(1+X14),2))</f>
+        <v>0</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="7"/>
-        <v>161499.99</v>
+        <f>IF(AU14="A",ROUND(W14+AM14,2),ROUND(W14,2))</f>
+        <v>28500</v>
       </c>
       <c r="AO14" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>133471.07</v>
+        <f>IF(RIGHT(K14,1)="A",SUBSTITUTE(TEXT(W14,"0,00"),",","."),SUBSTITUTE(TEXT(AN14,"0,00"),",","."))</f>
+        <v>28500.00</v>
       </c>
       <c r="AP14" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0.00</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P14)</f>
         <v>14</v>
       </c>
       <c r="AR14" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30684125792-14</v>
+        <f>O14&amp;"-"&amp;AQ14</f>
+        <v>-14</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1</f>
         <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F15="",0,COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1)</f>
         <v>0</v>
       </c>
       <c r="AU14" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>A</v>
+        <f>RIGHT(K14)</f>
+        <v>C</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>IF(LEFT(K14,4)="Nota",0,1)</f>
+        <v>1</v>
       </c>
       <c r="AW14" s="13">
-        <f t="shared" si="15"/>
-        <v>161499.99</v>
+        <f>IF(RIGHT(K14,1)="A",ROUND(V14*U14*(1+X14),2),AN14)</f>
+        <v>28500</v>
       </c>
       <c r="AX14" s="13">
-        <f t="shared" si="16"/>
-        <v>133471.07</v>
+        <f>ROUND((AW14/(1+X14)),2)</f>
+        <v>28500</v>
       </c>
       <c r="AY14" s="20">
-        <f t="shared" si="17"/>
-        <v>7.0247929999999998</v>
+        <f>IF(AU14="A",ROUND(AX14/V14,6),AW14/V14)</f>
+        <v>1.5</v>
       </c>
       <c r="AZ14" s="13">
-        <f t="shared" si="18"/>
-        <v>161500</v>
+        <f>IF(AU14="A",ROUND(CEILING(V14*U14*(1+X14),500),2),ROUND(CEILING(V14*U14,500),2))</f>
+        <v>28500</v>
       </c>
       <c r="BA14" s="20">
-        <f t="shared" si="19"/>
-        <v>7.0247929999999998</v>
+        <f>IF(AU14="A",ROUND(AX14/V14,6),AZ14/V14)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Ajuste</v>
+        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR15,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="2">
-        <v>30707354719</v>
+      <c r="O15" s="3">
+        <v>30684125792</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="4">
-        <v>1.5</v>
+        <v>7.0247929999999998</v>
       </c>
       <c r="V15" s="5">
         <v>19000</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="24"/>
-        <v>28500</v>
+        <f t="shared" si="6"/>
+        <v>133471.06700000001</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="AB15" s="12">
         <v>44816</v>
@@ -4054,177 +4234,180 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF15" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG15" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)=1,2,AG14+1)</f>
         <v>2</v>
       </c>
       <c r="AH15" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f>SUBSTITUTE(IF(AU15="A",ROUND(W15/V15,6),ROUND(AN15/V15,6)),",",".")</f>
+        <v>7.024793</v>
       </c>
       <c r="AI15" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V15,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z15,"00000")</f>
         <v>00002</v>
       </c>
       <c r="AK15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000152</v>
+        <f>TEXT(AA15,"00000000")</f>
+        <v>00000150</v>
       </c>
       <c r="AL15" s="9">
-        <f t="shared" si="27"/>
+        <f>AB15</f>
         <v>44816</v>
       </c>
       <c r="AM15" s="13">
-        <f t="shared" si="6"/>
-        <v>4946.28</v>
+        <f>IF(AU15="A",ROUND(W15*X15,2),ROUND(W15*X15/(1+X15),2))</f>
+        <v>28028.92</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="7"/>
-        <v>28500</v>
+        <f>IF(AU15="A",ROUND(W15+AM15,2),ROUND(W15,2))</f>
+        <v>161499.99</v>
       </c>
       <c r="AO15" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28500.00</v>
+        <f>IF(RIGHT(K15,1)="A",SUBSTITUTE(TEXT(W15,"0,00"),",","."),SUBSTITUTE(TEXT(AN15,"0,00"),",","."))</f>
+        <v>133471.07</v>
       </c>
       <c r="AP15" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.00</v>
+        <f t="shared" si="9"/>
+        <v>0.01</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P15)</f>
         <v>15</v>
       </c>
       <c r="AR15" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30707354719-15</v>
+        <f>O15&amp;"-"&amp;AQ15</f>
+        <v>30684125792-15</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1</f>
         <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F16="",0,COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1)</f>
         <v>0</v>
       </c>
       <c r="AU15" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>B</v>
+        <f>RIGHT(K15)</f>
+        <v>A</v>
       </c>
       <c r="AV15" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K15,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
       <c r="AW15" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
+        <f>IF(RIGHT(K15,1)="A",ROUND(V15*U15*(1+X15),2),AN15)</f>
+        <v>161499.99</v>
       </c>
       <c r="AX15" s="13">
-        <f t="shared" si="16"/>
-        <v>23553.72</v>
+        <f>ROUND((AW15/(1+X15)),2)</f>
+        <v>133471.07</v>
       </c>
       <c r="AY15" s="20">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f>IF(AU15="A",ROUND(AX15/V15,6),AW15/V15)</f>
+        <v>7.0247929999999998</v>
       </c>
       <c r="AZ15" s="13">
-        <f t="shared" si="18"/>
-        <v>28500</v>
+        <f>IF(AU15="A",ROUND(CEILING(V15*U15*(1+X15),500),2),ROUND(CEILING(V15*U15,500),2))</f>
+        <v>161500</v>
       </c>
       <c r="BA15" s="20">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>IF(AU15="A",ROUND(AX15/V15,6),AZ15/V15)</f>
+        <v>7.0247929999999998</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
+        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Ajuste</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR16,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="3">
-        <v>30684125792</v>
+      <c r="O16" s="2">
+        <v>30707354719</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="4">
-        <v>7.003044</v>
+        <v>1.5</v>
       </c>
       <c r="V16" s="5">
         <v>19000</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="24"/>
-        <v>133057.83600000001</v>
+        <f t="shared" si="6"/>
+        <v>28500</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AB16" s="12">
         <v>44816</v>
@@ -4232,177 +4415,180 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF16" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG16" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)=1,2,AG15+1)</f>
         <v>2</v>
       </c>
       <c r="AH16" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>7.003044</v>
+        <f>SUBSTITUTE(IF(AU16="A",ROUND(W16/V16,6),ROUND(AN16/V16,6)),",",".")</f>
+        <v>1.5</v>
       </c>
       <c r="AI16" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V16,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z16,"00000")</f>
         <v>00002</v>
       </c>
       <c r="AK16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000151</v>
+        <f>TEXT(AA16,"00000000")</f>
+        <v>00000152</v>
       </c>
       <c r="AL16" s="9">
-        <f t="shared" si="27"/>
+        <f>AB16</f>
         <v>44816</v>
       </c>
       <c r="AM16" s="13">
-        <f t="shared" si="6"/>
-        <v>27942.15</v>
+        <f>IF(AU16="A",ROUND(W16*X16,2),ROUND(W16*X16/(1+X16),2))</f>
+        <v>4946.28</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="7"/>
-        <v>160999.99</v>
+        <f>IF(AU16="A",ROUND(W16+AM16,2),ROUND(W16,2))</f>
+        <v>28500</v>
       </c>
       <c r="AO16" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>133057.84</v>
+        <f>IF(RIGHT(K16,1)="A",SUBSTITUTE(TEXT(W16,"0,00"),",","."),SUBSTITUTE(TEXT(AN16,"0,00"),",","."))</f>
+        <v>28500.00</v>
       </c>
       <c r="AP16" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0.00</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P16)</f>
         <v>16</v>
       </c>
       <c r="AR16" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30684125792-16</v>
+        <f>O16&amp;"-"&amp;AQ16</f>
+        <v>30707354719-16</v>
       </c>
       <c r="AS16" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1</f>
         <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F17="",0,COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1)</f>
         <v>0</v>
       </c>
       <c r="AU16" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>A</v>
+        <f>RIGHT(K16)</f>
+        <v>B</v>
       </c>
       <c r="AV16" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K16,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
       <c r="AW16" s="13">
-        <f t="shared" si="15"/>
-        <v>160999.98000000001</v>
+        <f>IF(RIGHT(K16,1)="A",ROUND(V16*U16*(1+X16),2),AN16)</f>
+        <v>28500</v>
       </c>
       <c r="AX16" s="13">
-        <f t="shared" si="16"/>
-        <v>133057.82999999999</v>
+        <f>ROUND((AW16/(1+X16)),2)</f>
+        <v>23553.72</v>
       </c>
       <c r="AY16" s="20">
-        <f t="shared" si="17"/>
-        <v>7.003044</v>
+        <f>IF(AU16="A",ROUND(AX16/V16,6),AW16/V16)</f>
+        <v>1.5</v>
       </c>
       <c r="AZ16" s="13">
-        <f t="shared" si="18"/>
-        <v>161000</v>
+        <f>IF(AU16="A",ROUND(CEILING(V16*U16*(1+X16),500),2),ROUND(CEILING(V16*U16,500),2))</f>
+        <v>28500</v>
       </c>
       <c r="BA16" s="20">
-        <f t="shared" si="19"/>
-        <v>7.003044</v>
+        <f>IF(AU16="A",ROUND(AX16/V16,6),AZ16/V16)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Ajuste</v>
+        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR17,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="D17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45292</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="2">
-        <v>37473042</v>
+        <v>9</v>
+      </c>
+      <c r="O17" s="3">
+        <v>30684125792</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="4">
-        <v>1.5</v>
+        <v>7.003044</v>
       </c>
       <c r="V17" s="5">
         <v>19000</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="24"/>
-        <v>28500</v>
+        <f t="shared" si="6"/>
+        <v>133057.83600000001</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AB17" s="12">
         <v>44816</v>
@@ -4410,107 +4596,288 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF17" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG17" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)=1,2,AG16+1)</f>
         <v>2</v>
       </c>
       <c r="AH17" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU17="A",ROUND(W17/V17,6),ROUND(AN17/V17,6)),",",".")</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AI17" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(V17,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ17" s="1" t="str">
+        <f>TEXT(Z17,"00000")</f>
+        <v>00002</v>
+      </c>
+      <c r="AK17" s="1" t="str">
+        <f>TEXT(AA17,"00000000")</f>
+        <v>00000151</v>
+      </c>
+      <c r="AL17" s="9">
+        <f>AB17</f>
+        <v>44816</v>
+      </c>
+      <c r="AM17" s="13">
+        <f>IF(AU17="A",ROUND(W17*X17,2),ROUND(W17*X17/(1+X17),2))</f>
+        <v>27942.15</v>
+      </c>
+      <c r="AN17" s="13">
+        <f>IF(AU17="A",ROUND(W17+AM17,2),ROUND(W17,2))</f>
+        <v>160999.99</v>
+      </c>
+      <c r="AO17" s="10" t="str">
+        <f>IF(RIGHT(K17,1)="A",SUBSTITUTE(TEXT(W17,"0,00"),",","."),SUBSTITUTE(TEXT(AN17,"0,00"),",","."))</f>
+        <v>133057.84</v>
+      </c>
+      <c r="AP17" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f>ROW(P17)</f>
+        <v>17</v>
+      </c>
+      <c r="AR17" s="15" t="str">
+        <f>O17&amp;"-"&amp;AQ17</f>
+        <v>30684125792-17</v>
+      </c>
+      <c r="AS17" s="1">
+        <f>COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <f ca="1">IF(F18="",0,COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="str">
+        <f>RIGHT(K17)</f>
+        <v>A</v>
+      </c>
+      <c r="AV17" s="1">
+        <f>IF(LEFT(K17,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="13">
+        <f>IF(RIGHT(K17,1)="A",ROUND(V17*U17*(1+X17),2),AN17)</f>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AX17" s="13">
+        <f>ROUND((AW17/(1+X17)),2)</f>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AY17" s="20">
+        <f>IF(AU17="A",ROUND(AX17/V17,6),AW17/V17)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AZ17" s="13">
+        <f>IF(AU17="A",ROUND(CEILING(V17*U17*(1+X17),500),2),ROUND(CEILING(V17*U17,500),2))</f>
+        <v>161000</v>
+      </c>
+      <c r="BA17" s="20">
+        <f>IF(AU17="A",ROUND(AX17/V17,6),AZ17/V17)</f>
+        <v>7.003044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Ajuste</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR18,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="2">
+        <v>37473042</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="4">
         <v>1.5</v>
       </c>
-      <c r="AI17" s="18" t="str">
-        <f t="shared" si="26"/>
+      <c r="V18" s="5">
+        <v>19000</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="6"/>
+        <v>28500</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>44816</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG18" s="14">
+        <f>IF(COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)=1,2,AG17+1)</f>
+        <v>2</v>
+      </c>
+      <c r="AH18" s="18" t="str">
+        <f>SUBSTITUTE(IF(AU18="A",ROUND(W18/V18,6),ROUND(AN18/V18,6)),",",".")</f>
+        <v>1.5</v>
+      </c>
+      <c r="AI18" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(V18,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="AJ17" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="AJ18" s="1" t="str">
+        <f>TEXT(Z18,"00000")</f>
         <v>00002</v>
       </c>
-      <c r="AK17" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="AK18" s="1" t="str">
+        <f>TEXT(AA18,"00000000")</f>
         <v>00000153</v>
       </c>
-      <c r="AL17" s="9">
-        <f t="shared" si="27"/>
+      <c r="AL18" s="9">
+        <f>AB18</f>
         <v>44816</v>
       </c>
-      <c r="AM17" s="13">
-        <f t="shared" si="6"/>
+      <c r="AM18" s="13">
+        <f>IF(AU18="A",ROUND(W18*X18,2),ROUND(W18*X18/(1+X18),2))</f>
         <v>4946.28</v>
       </c>
-      <c r="AN17" s="13">
-        <f t="shared" si="7"/>
+      <c r="AN18" s="13">
+        <f>IF(AU18="A",ROUND(W18+AM18,2),ROUND(W18,2))</f>
         <v>28500</v>
       </c>
-      <c r="AO17" s="10" t="str">
-        <f t="shared" si="8"/>
+      <c r="AO18" s="10" t="str">
+        <f>IF(RIGHT(K18,1)="A",SUBSTITUTE(TEXT(W18,"0,00"),",","."),SUBSTITUTE(TEXT(AN18,"0,00"),",","."))</f>
         <v>28500.00</v>
       </c>
-      <c r="AP17" s="10" t="str">
-        <f t="shared" si="29"/>
+      <c r="AP18" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>0.00</v>
       </c>
-      <c r="AQ17" s="1">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="AR17" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>37473042-17</v>
-      </c>
-      <c r="AS17" s="1">
-        <f t="shared" si="11"/>
+      <c r="AQ18" s="1">
+        <f>ROW(P18)</f>
+        <v>18</v>
+      </c>
+      <c r="AR18" s="15" t="str">
+        <f>O18&amp;"-"&amp;AQ18</f>
+        <v>37473042-18</v>
+      </c>
+      <c r="AS18" s="1">
+        <f>COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)-1</f>
         <v>0</v>
       </c>
-      <c r="AT17" s="1">
-        <f t="shared" si="12"/>
+      <c r="AT18" s="1">
+        <f>IF(F19="",0,COUNTIFS(J18:J19,J19,K18:K19,K19,P18:P19,P19)-1)</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="1" t="str">
-        <f t="shared" si="13"/>
+      <c r="AU18" s="1" t="str">
+        <f>RIGHT(K18)</f>
         <v>B</v>
       </c>
-      <c r="AV17" s="1">
-        <f t="shared" si="14"/>
+      <c r="AV18" s="1">
+        <f>IF(LEFT(K18,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
-      <c r="AW17" s="13">
-        <f t="shared" si="15"/>
+      <c r="AW18" s="13">
+        <f>IF(RIGHT(K18,1)="A",ROUND(V18*U18*(1+X18),2),AN18)</f>
         <v>28500</v>
       </c>
-      <c r="AX17" s="13">
-        <f t="shared" si="16"/>
+      <c r="AX18" s="13">
+        <f>ROUND((AW18/(1+X18)),2)</f>
         <v>23553.72</v>
       </c>
-      <c r="AY17" s="20">
-        <f t="shared" si="17"/>
+      <c r="AY18" s="20">
+        <f>IF(AU18="A",ROUND(AX18/V18,6),AW18/V18)</f>
         <v>1.5</v>
       </c>
-      <c r="AZ17" s="13">
-        <f t="shared" si="18"/>
+      <c r="AZ18" s="13">
+        <f>IF(AU18="A",ROUND(CEILING(V18*U18*(1+X18),500),2),ROUND(CEILING(V18*U18,500),2))</f>
         <v>28500</v>
       </c>
-      <c r="BA17" s="20">
-        <f t="shared" si="19"/>
+      <c r="BA18" s="20">
+        <f>IF(AU18="A",ROUND(AX18/V18,6),AZ18/V18)</f>
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AY17">
-    <sortCondition ref="K2:K17"/>
-    <sortCondition ref="M2:M17"/>
-    <sortCondition ref="O2:O17"/>
+  <autoFilter ref="A1:BA18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AY18">
+    <sortCondition ref="K2:K18"/>
+    <sortCondition ref="M2:M18"/>
+    <sortCondition ref="O2:O18"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17 B2:B17" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18 D2:D18" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4524,7 +4891,7 @@
           <x14:formula1>
             <xm:f>AUX!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q17</xm:sqref>
+          <xm:sqref>Q2:Q18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
